--- a/Tables/Regional.xlsx
+++ b/Tables/Regional.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG78"/>
+  <dimension ref="A1:AG79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,12 +645,12 @@
       </c>
       <c r="V2" s="1" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W2" s="1" t="inlineStr">
         <is>
-          <t>2008-05-20</t>
+          <t>2009-11-17</t>
         </is>
       </c>
       <c r="X2" s="1" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="AD2" s="1" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AE2" s="1" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="AD3" s="1" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>83</t>
         </is>
       </c>
       <c r="AE3" s="1" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="AD4" s="1" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>50</t>
         </is>
       </c>
       <c r="AE4" s="1" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="AD5" s="1" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>53</t>
         </is>
       </c>
       <c r="AE5" s="1" t="inlineStr">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="AD8" s="1" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>102</t>
         </is>
       </c>
       <c r="AE8" s="1" t="inlineStr">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="AD9" s="1" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>95</t>
         </is>
       </c>
       <c r="AE9" s="1" t="inlineStr">
@@ -1737,11 +1737,7 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="AF9" s="1" t="inlineStr">
-        <is>
-          <t>Exceedance</t>
-        </is>
-      </c>
+      <c r="AF9" s="1" t="inlineStr"/>
       <c r="AG9" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -2165,7 +2161,7 @@
       </c>
       <c r="AD12" s="1" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>102</t>
         </is>
       </c>
       <c r="AE12" s="1" t="inlineStr">
@@ -2340,7 +2336,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>R-14 S1</t>
+          <t>CrEX-3</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
@@ -2350,52 +2346,56 @@
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>35.86178</t>
+          <t>35.85967</t>
         </is>
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>-106.28565</t>
+          <t>-106.25495</t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>7062.08</t>
+          <t>6734.601</t>
         </is>
       </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>Tp</t>
+          <t>Tpf</t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr"/>
-      <c r="H14" s="1" t="inlineStr"/>
-      <c r="I14" s="1" t="inlineStr"/>
+      <c r="H14" s="1" t="inlineStr">
+        <is>
+          <t>1004.5</t>
+        </is>
+      </c>
+      <c r="I14" s="1" t="inlineStr">
+        <is>
+          <t>8 in</t>
+        </is>
+      </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>1200.6</t>
+          <t>909.6</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
         <is>
-          <t>1233.200</t>
-        </is>
-      </c>
-      <c r="L14" s="1" t="inlineStr">
-        <is>
-          <t>Location info taken from Brass Cap survey data for R-14., Location info taken from Brass Cap survey data for R-14.</t>
-        </is>
-      </c>
+          <t>948.8</t>
+        </is>
+      </c>
+      <c r="L14" s="1" t="inlineStr"/>
       <c r="M14" s="1" t="inlineStr"/>
       <c r="N14" s="1" t="inlineStr"/>
       <c r="O14" s="1" t="inlineStr">
         <is>
-          <t>MDA C</t>
+          <t>Chromium</t>
         </is>
       </c>
       <c r="P14" s="1" t="inlineStr">
         <is>
-          <t>Upper Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q14" s="1" t="inlineStr"/>
@@ -2407,7 +2407,7 @@
       </c>
       <c r="T14" s="1" t="inlineStr">
         <is>
-          <t>Ground Elevation updated from MW</t>
+          <t>Aquifer updated from MW, Ground Elevation updated from MW, Geologic Unit Code updated from MW, Total Well Depth [ft] updated from MW, Well Diameter [in] updated from MW, Screen Top [ft] updated from MW, Screen Bottom [ft] updated from MW</t>
         </is>
       </c>
       <c r="U14" s="1" t="inlineStr">
@@ -2417,47 +2417,47 @@
       </c>
       <c r="V14" s="1" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>193.0</t>
         </is>
       </c>
       <c r="W14" s="1" t="inlineStr">
         <is>
-          <t>2018-11-09</t>
+          <t>2019-02-27</t>
         </is>
       </c>
       <c r="X14" s="1" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>193.0</t>
         </is>
       </c>
       <c r="Y14" s="1" t="inlineStr">
         <is>
-          <t>2019-11-12</t>
+          <t>2019-02-27</t>
         </is>
       </c>
       <c r="Z14" s="1" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AA14" s="1" t="inlineStr">
         <is>
-          <t>2006-01-24</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AB14" s="1" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AC14" s="1" t="inlineStr">
         <is>
-          <t>2006-01-24</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AD14" s="1" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE14" s="1" t="inlineStr">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="AG14" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Substantial
+          <t xml:space="preserve">
 </t>
         </is>
       </c>
@@ -2480,7 +2480,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>R-46</t>
+          <t>PM-4</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
@@ -2490,64 +2490,52 @@
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>35.85966</t>
+          <t>35.85021</t>
         </is>
       </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>-106.29382</t>
-        </is>
-      </c>
-      <c r="E15" s="1" t="inlineStr">
-        <is>
-          <t>7213.33</t>
-        </is>
-      </c>
-      <c r="F15" s="1" t="inlineStr">
-        <is>
-          <t>Tpf</t>
-        </is>
-      </c>
+          <t>-106.26618</t>
+        </is>
+      </c>
+      <c r="E15" s="1" t="inlineStr"/>
+      <c r="F15" s="1" t="inlineStr"/>
       <c r="G15" s="1" t="inlineStr">
         <is>
-          <t>2009-02-26 00:00:00</t>
+          <t>1981-08-15 00:00:00</t>
         </is>
       </c>
       <c r="H15" s="1" t="inlineStr">
         <is>
-          <t>1382.2</t>
-        </is>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>2874.00</t>
+        </is>
+      </c>
+      <c r="I15" s="1" t="inlineStr"/>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>1340</t>
+          <t>1260</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>1360.700</t>
+          <t>2854.000</t>
         </is>
       </c>
       <c r="L15" s="1" t="inlineStr">
         <is>
-          <t>Brass cap location, Brass cap location</t>
+          <t>Water supply well</t>
         </is>
       </c>
       <c r="M15" s="1" t="inlineStr"/>
       <c r="N15" s="1" t="inlineStr"/>
       <c r="O15" s="1" t="inlineStr">
         <is>
-          <t>MDA C</t>
+          <t>General</t>
         </is>
       </c>
       <c r="P15" s="1" t="inlineStr">
         <is>
-          <t>Upper Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q15" s="1" t="inlineStr">
@@ -2561,11 +2549,7 @@
           <t>[84]</t>
         </is>
       </c>
-      <c r="T15" s="1" t="inlineStr">
-        <is>
-          <t>Ground Elevation updated from MW</t>
-        </is>
-      </c>
+      <c r="T15" s="1" t="inlineStr"/>
       <c r="U15" s="1" t="inlineStr">
         <is>
           <t>Well Info</t>
@@ -2573,47 +2557,47 @@
       </c>
       <c r="V15" s="1" t="inlineStr">
         <is>
-          <t>13.7</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="W15" s="1" t="inlineStr">
         <is>
-          <t>2009-03-11</t>
+          <t>2016-05-16</t>
         </is>
       </c>
       <c r="X15" s="1" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>5.57</t>
         </is>
       </c>
       <c r="Y15" s="1" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2018-06-19</t>
         </is>
       </c>
       <c r="Z15" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="AA15" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2006-05-09</t>
         </is>
       </c>
       <c r="AB15" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="AC15" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2007-02-28</t>
         </is>
       </c>
       <c r="AD15" s="1" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AE15" s="1" t="inlineStr">
@@ -2636,7 +2620,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>R-60</t>
+          <t>PM-5</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
@@ -2646,64 +2630,52 @@
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>35.86057</t>
+          <t>35.85858</t>
         </is>
       </c>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>-106.29618</t>
-        </is>
-      </c>
-      <c r="E16" s="1" t="inlineStr">
-        <is>
-          <t>7228.17</t>
-        </is>
-      </c>
-      <c r="F16" s="1" t="inlineStr">
-        <is>
-          <t>Tpf</t>
-        </is>
-      </c>
+          <t>-106.27803</t>
+        </is>
+      </c>
+      <c r="E16" s="1" t="inlineStr"/>
+      <c r="F16" s="1" t="inlineStr"/>
       <c r="G16" s="1" t="inlineStr">
         <is>
-          <t>2010-10-18 00:00:00</t>
+          <t>1982-09-01 00:00:00</t>
         </is>
       </c>
       <c r="H16" s="1" t="inlineStr">
         <is>
-          <t>1360.90</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>3092.00</t>
+        </is>
+      </c>
+      <c r="I16" s="1" t="inlineStr"/>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>1330</t>
+          <t>1440</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>1350.900</t>
+          <t>3072.000</t>
         </is>
       </c>
       <c r="L16" s="1" t="inlineStr">
         <is>
-          <t>Brass Cap location from well completion report, Brass Cap location from well completion report, Brass Cap location from well completion report</t>
+          <t>Water supply well</t>
         </is>
       </c>
       <c r="M16" s="1" t="inlineStr"/>
       <c r="N16" s="1" t="inlineStr"/>
       <c r="O16" s="1" t="inlineStr">
         <is>
-          <t>MDA C</t>
+          <t>General</t>
         </is>
       </c>
       <c r="P16" s="1" t="inlineStr">
         <is>
-          <t>Upper Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q16" s="1" t="inlineStr">
@@ -2717,11 +2689,7 @@
           <t>[84]</t>
         </is>
       </c>
-      <c r="T16" s="1" t="inlineStr">
-        <is>
-          <t>Ground Elevation updated from MW</t>
-        </is>
-      </c>
+      <c r="T16" s="1" t="inlineStr"/>
       <c r="U16" s="1" t="inlineStr">
         <is>
           <t>Well Info</t>
@@ -2729,47 +2697,47 @@
       </c>
       <c r="V16" s="1" t="inlineStr">
         <is>
-          <t>8.06</t>
+          <t>15.6</t>
         </is>
       </c>
       <c r="W16" s="1" t="inlineStr">
         <is>
-          <t>2011-07-26</t>
+          <t>2007-05-16</t>
         </is>
       </c>
       <c r="X16" s="1" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>5.58</t>
         </is>
       </c>
       <c r="Y16" s="1" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-02-28</t>
         </is>
       </c>
       <c r="Z16" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AA16" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2006-12-07</t>
         </is>
       </c>
       <c r="AB16" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="AC16" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2007-02-28</t>
         </is>
       </c>
       <c r="AD16" s="1" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>81</t>
         </is>
       </c>
       <c r="AE16" s="1" t="inlineStr">
@@ -2792,7 +2760,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>CrEX-3</t>
+          <t>R-1</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
@@ -2802,46 +2770,54 @@
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>35.85967</t>
+          <t>35.86356</t>
         </is>
       </c>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>-106.25495</t>
+          <t>-106.27721</t>
         </is>
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>6734.601</t>
+          <t>6881.21</t>
         </is>
       </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>Tpf</t>
-        </is>
-      </c>
-      <c r="G17" s="1" t="inlineStr"/>
+          <t>Tp</t>
+        </is>
+      </c>
+      <c r="G17" s="1" t="inlineStr">
+        <is>
+          <t>2004-03-12 00:00:00</t>
+        </is>
+      </c>
       <c r="H17" s="1" t="inlineStr">
         <is>
-          <t>1004.5</t>
+          <t>1080.10</t>
         </is>
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>8 in</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>909.6</t>
+          <t>1031.12</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>948.8</t>
-        </is>
-      </c>
-      <c r="L17" s="1" t="inlineStr"/>
+          <t>1057.420</t>
+        </is>
+      </c>
+      <c r="L17" s="1" t="inlineStr">
+        <is>
+          <t>Well Development information from the field can be found in \\win.lanl.gov\dfs root\Pueblo\GWFA\Hard forms\Construction\R-1\Final Well IM Forms3., Coordinates obtained from Brass Cap Monument survey data in WCR., Coordinates obtained from Brass Cap Monument survey data in WCR., Coordinates obtained from Brass Cap Monument survey data in WCR.</t>
+        </is>
+      </c>
       <c r="M17" s="1" t="inlineStr"/>
       <c r="N17" s="1" t="inlineStr"/>
       <c r="O17" s="1" t="inlineStr">
@@ -2851,10 +2827,14 @@
       </c>
       <c r="P17" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
-        </is>
-      </c>
-      <c r="Q17" s="1" t="inlineStr"/>
+          <t>Mortendad</t>
+        </is>
+      </c>
+      <c r="Q17" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="R17" s="1" t="inlineStr"/>
       <c r="S17" s="1" t="inlineStr">
         <is>
@@ -2863,7 +2843,7 @@
       </c>
       <c r="T17" s="1" t="inlineStr">
         <is>
-          <t>Aquifer updated from MW, Ground Elevation updated from MW, Geologic Unit Code updated from MW, Total Well Depth [ft] updated from MW, Well Diameter [in] updated from MW, Screen Top [ft] updated from MW, Screen Bottom [ft] updated from MW</t>
+          <t>Ground Elevation updated from MW</t>
         </is>
       </c>
       <c r="U17" s="1" t="inlineStr">
@@ -2873,47 +2853,47 @@
       </c>
       <c r="V17" s="1" t="inlineStr">
         <is>
-          <t>193.0</t>
+          <t>9.76</t>
         </is>
       </c>
       <c r="W17" s="1" t="inlineStr">
         <is>
-          <t>2019-02-27</t>
+          <t>2016-05-04</t>
         </is>
       </c>
       <c r="X17" s="1" t="inlineStr">
         <is>
-          <t>193.0</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="Y17" s="1" t="inlineStr">
         <is>
-          <t>2019-02-27</t>
+          <t>2019-11-08</t>
         </is>
       </c>
       <c r="Z17" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>9.8</t>
         </is>
       </c>
       <c r="AA17" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2006-04-19</t>
         </is>
       </c>
       <c r="AB17" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>6.14</t>
         </is>
       </c>
       <c r="AC17" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2018-05-10</t>
         </is>
       </c>
       <c r="AD17" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>86</t>
         </is>
       </c>
       <c r="AE17" s="1" t="inlineStr">
@@ -2928,7 +2908,7 @@
       </c>
       <c r="AG17" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">
+          <t xml:space="preserve">Substantial
 </t>
         </is>
       </c>
@@ -2936,7 +2916,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>PM-4</t>
+          <t>R-13</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
@@ -2946,52 +2926,64 @@
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>35.85021</t>
+          <t>35.8564</t>
         </is>
       </c>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>-106.26618</t>
-        </is>
-      </c>
-      <c r="E18" s="1" t="inlineStr"/>
-      <c r="F18" s="1" t="inlineStr"/>
+          <t>-106.24806</t>
+        </is>
+      </c>
+      <c r="E18" s="1" t="inlineStr">
+        <is>
+          <t>6673.05</t>
+        </is>
+      </c>
+      <c r="F18" s="1" t="inlineStr">
+        <is>
+          <t>Tp</t>
+        </is>
+      </c>
       <c r="G18" s="1" t="inlineStr">
         <is>
-          <t>1981-08-15 00:00:00</t>
+          <t>2001-10-06 00:00:00</t>
         </is>
       </c>
       <c r="H18" s="1" t="inlineStr">
         <is>
-          <t>2874.00</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr"/>
+          <t>1029.40</t>
+        </is>
+      </c>
+      <c r="I18" s="1" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>1260</t>
+          <t>958.33</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>2854.000</t>
+          <t>1018.720</t>
         </is>
       </c>
       <c r="L18" s="1" t="inlineStr">
         <is>
-          <t>Water supply well</t>
+          <t>Location information from Brass Cap survey data in WCR., Location information from Brass Cap survey data in WCR., original x, y = 1640988, 1766989</t>
         </is>
       </c>
       <c r="M18" s="1" t="inlineStr"/>
       <c r="N18" s="1" t="inlineStr"/>
       <c r="O18" s="1" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Chromium</t>
         </is>
       </c>
       <c r="P18" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q18" s="1" t="inlineStr">
@@ -3005,7 +2997,11 @@
           <t>[84]</t>
         </is>
       </c>
-      <c r="T18" s="1" t="inlineStr"/>
+      <c r="T18" s="1" t="inlineStr">
+        <is>
+          <t>Ground Elevation updated from MW</t>
+        </is>
+      </c>
       <c r="U18" s="1" t="inlineStr">
         <is>
           <t>Well Info</t>
@@ -3013,47 +3009,47 @@
       </c>
       <c r="V18" s="1" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>12.7</t>
         </is>
       </c>
       <c r="W18" s="1" t="inlineStr">
         <is>
-          <t>2016-05-16</t>
+          <t>2009-04-30</t>
         </is>
       </c>
       <c r="X18" s="1" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="Y18" s="1" t="inlineStr">
         <is>
-          <t>2018-06-19</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="Z18" s="1" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="AA18" s="1" t="inlineStr">
         <is>
-          <t>2006-05-09</t>
+          <t>2006-02-02</t>
         </is>
       </c>
       <c r="AB18" s="1" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="AC18" s="1" t="inlineStr">
         <is>
-          <t>2007-02-28</t>
+          <t>2018-05-14</t>
         </is>
       </c>
       <c r="AD18" s="1" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>100</t>
         </is>
       </c>
       <c r="AE18" s="1" t="inlineStr">
@@ -3076,7 +3072,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>PM-5</t>
+          <t>R-14 S1</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
@@ -3086,66 +3082,66 @@
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>35.85858</t>
+          <t>35.86178</t>
         </is>
       </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>-106.27803</t>
-        </is>
-      </c>
-      <c r="E19" s="1" t="inlineStr"/>
-      <c r="F19" s="1" t="inlineStr"/>
-      <c r="G19" s="1" t="inlineStr">
-        <is>
-          <t>1982-09-01 00:00:00</t>
-        </is>
-      </c>
-      <c r="H19" s="1" t="inlineStr">
-        <is>
-          <t>3092.00</t>
-        </is>
-      </c>
+          <t>-106.28565</t>
+        </is>
+      </c>
+      <c r="E19" s="1" t="inlineStr">
+        <is>
+          <t>7062.08</t>
+        </is>
+      </c>
+      <c r="F19" s="1" t="inlineStr">
+        <is>
+          <t>Tp</t>
+        </is>
+      </c>
+      <c r="G19" s="1" t="inlineStr"/>
+      <c r="H19" s="1" t="inlineStr"/>
       <c r="I19" s="1" t="inlineStr"/>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>1440</t>
+          <t>1200.6</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>3072.000</t>
+          <t>1233.200</t>
         </is>
       </c>
       <c r="L19" s="1" t="inlineStr">
         <is>
-          <t>Water supply well</t>
+          <t>Location info taken from Brass Cap survey data for R-14., Location info taken from Brass Cap survey data for R-14.</t>
         </is>
       </c>
       <c r="M19" s="1" t="inlineStr"/>
       <c r="N19" s="1" t="inlineStr"/>
       <c r="O19" s="1" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>MDA C</t>
         </is>
       </c>
       <c r="P19" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
-        </is>
-      </c>
-      <c r="Q19" s="1" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+          <t>Mortendad</t>
+        </is>
+      </c>
+      <c r="Q19" s="1" t="inlineStr"/>
       <c r="R19" s="1" t="inlineStr"/>
       <c r="S19" s="1" t="inlineStr">
         <is>
           <t>[84]</t>
         </is>
       </c>
-      <c r="T19" s="1" t="inlineStr"/>
+      <c r="T19" s="1" t="inlineStr">
+        <is>
+          <t>Ground Elevation updated from MW</t>
+        </is>
+      </c>
       <c r="U19" s="1" t="inlineStr">
         <is>
           <t>Well Info</t>
@@ -3153,47 +3149,47 @@
       </c>
       <c r="V19" s="1" t="inlineStr">
         <is>
-          <t>15.6</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="W19" s="1" t="inlineStr">
         <is>
-          <t>2007-05-16</t>
+          <t>2018-11-09</t>
         </is>
       </c>
       <c r="X19" s="1" t="inlineStr">
         <is>
-          <t>5.58</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="Y19" s="1" t="inlineStr">
         <is>
-          <t>2019-02-28</t>
+          <t>2019-11-12</t>
         </is>
       </c>
       <c r="Z19" s="1" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="AA19" s="1" t="inlineStr">
         <is>
-          <t>2006-12-07</t>
+          <t>2006-01-24</t>
         </is>
       </c>
       <c r="AB19" s="1" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="AC19" s="1" t="inlineStr">
         <is>
-          <t>2007-02-28</t>
+          <t>2006-01-24</t>
         </is>
       </c>
       <c r="AD19" s="1" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>105</t>
         </is>
       </c>
       <c r="AE19" s="1" t="inlineStr">
@@ -3216,7 +3212,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>R-1</t>
+          <t>R-15</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
@@ -3226,17 +3222,17 @@
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>35.86356</t>
+          <t>35.85991</t>
         </is>
       </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>-106.27721</t>
+          <t>-106.26724</t>
         </is>
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>6881.21</t>
+          <t>6820</t>
         </is>
       </c>
       <c r="F20" s="1" t="inlineStr">
@@ -3246,32 +3242,32 @@
       </c>
       <c r="G20" s="1" t="inlineStr">
         <is>
-          <t>2004-03-12 00:00:00</t>
+          <t>1999-10-30 00:00:00</t>
         </is>
       </c>
       <c r="H20" s="1" t="inlineStr">
         <is>
-          <t>1080.10</t>
+          <t>1030.60</t>
         </is>
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>1031.12</t>
+          <t>958.6</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>1057.420</t>
+          <t>1020.300</t>
         </is>
       </c>
       <c r="L20" s="1" t="inlineStr">
         <is>
-          <t>Well Development information from the field can be found in \\win.lanl.gov\dfs root\Pueblo\GWFA\Hard forms\Construction\R-1\Final Well IM Forms3., Coordinates obtained from Brass Cap Monument survey data in WCR., Coordinates obtained from Brass Cap Monument survey data in WCR., Coordinates obtained from Brass Cap Monument survey data in WCR.</t>
+          <t>Well diameter corrected to 5 in., other records list it as 4.5 but WCR as built has 5" id, 5.56" od, Location info taken from Brass Monument survey data in R-15 WCR., Survey is from brass monument., Location info taken from Brass Monument survey data in R-15 WCR.</t>
         </is>
       </c>
       <c r="M20" s="1" t="inlineStr"/>
@@ -3283,7 +3279,7 @@
       </c>
       <c r="P20" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q20" s="1" t="inlineStr">
@@ -3309,47 +3305,47 @@
       </c>
       <c r="V20" s="1" t="inlineStr">
         <is>
-          <t>9.76</t>
+          <t>18.2</t>
         </is>
       </c>
       <c r="W20" s="1" t="inlineStr">
         <is>
-          <t>2016-05-04</t>
+          <t>2010-02-11</t>
         </is>
       </c>
       <c r="X20" s="1" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="Y20" s="1" t="inlineStr">
         <is>
-          <t>2019-11-08</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="Z20" s="1" t="inlineStr">
         <is>
-          <t>9.8</t>
+          <t>38.4044</t>
         </is>
       </c>
       <c r="AA20" s="1" t="inlineStr">
         <is>
-          <t>2006-04-19</t>
+          <t>2008-05-20</t>
         </is>
       </c>
       <c r="AB20" s="1" t="inlineStr">
         <is>
-          <t>6.14</t>
+          <t>10.9</t>
         </is>
       </c>
       <c r="AC20" s="1" t="inlineStr">
         <is>
-          <t>2018-05-10</t>
+          <t>2019-05-09</t>
         </is>
       </c>
       <c r="AD20" s="1" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>106</t>
         </is>
       </c>
       <c r="AE20" s="1" t="inlineStr">
@@ -3372,7 +3368,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>R-13</t>
+          <t>R-21</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
@@ -3382,17 +3378,17 @@
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>35.8564</t>
+          <t>35.83483</t>
         </is>
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>-106.24806</t>
+          <t>-106.24707</t>
         </is>
       </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>6673.05</t>
+          <t>6656.24</t>
         </is>
       </c>
       <c r="F21" s="1" t="inlineStr">
@@ -3402,44 +3398,44 @@
       </c>
       <c r="G21" s="1" t="inlineStr">
         <is>
-          <t>2001-10-06 00:00:00</t>
+          <t>2002-11-26 00:00:00</t>
         </is>
       </c>
       <c r="H21" s="1" t="inlineStr">
         <is>
-          <t>1029.40</t>
+          <t>941.40</t>
         </is>
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>958.33</t>
+          <t>888.8</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>1018.720</t>
+          <t>906.800</t>
         </is>
       </c>
       <c r="L21" s="1" t="inlineStr">
         <is>
-          <t>Location information from Brass Cap survey data in WCR., Location information from Brass Cap survey data in WCR., original x, y = 1640988, 1766989</t>
+          <t>Site restoration dates from WCR, Location info taken from Brass Monument survey data from R-21 WCR., Location info taken from Brass Monument survey data from R-21 WCR.</t>
         </is>
       </c>
       <c r="M21" s="1" t="inlineStr"/>
       <c r="N21" s="1" t="inlineStr"/>
       <c r="O21" s="1" t="inlineStr">
         <is>
-          <t>Chromium</t>
+          <t>TA-54</t>
         </is>
       </c>
       <c r="P21" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q21" s="1" t="inlineStr">
@@ -3465,47 +3461,47 @@
       </c>
       <c r="V21" s="1" t="inlineStr">
         <is>
-          <t>12.7</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="W21" s="1" t="inlineStr">
         <is>
-          <t>2009-04-30</t>
+          <t>2008-05-23</t>
         </is>
       </c>
       <c r="X21" s="1" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="Y21" s="1" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2019-10-24</t>
         </is>
       </c>
       <c r="Z21" s="1" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AA21" s="1" t="inlineStr">
         <is>
-          <t>2006-02-02</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AB21" s="1" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AC21" s="1" t="inlineStr">
         <is>
-          <t>2018-05-14</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AD21" s="1" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>74</t>
         </is>
       </c>
       <c r="AE21" s="1" t="inlineStr">
@@ -3513,11 +3509,7 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="AF21" s="1" t="inlineStr">
-        <is>
-          <t>Exceedance</t>
-        </is>
-      </c>
+      <c r="AF21" s="1" t="inlineStr"/>
       <c r="AG21" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -3528,7 +3520,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>R-15</t>
+          <t>R-23</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
@@ -3538,64 +3530,64 @@
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>35.85991</t>
+          <t>35.8239</t>
         </is>
       </c>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>-106.26724</t>
+          <t>-106.22471</t>
         </is>
       </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t>6820</t>
+          <t>6527.75</t>
         </is>
       </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>Tp</t>
+          <t>Tpt</t>
         </is>
       </c>
       <c r="G22" s="1" t="inlineStr">
         <is>
-          <t>1999-10-30 00:00:00</t>
+          <t>2002-10-02 00:00:00</t>
         </is>
       </c>
       <c r="H22" s="1" t="inlineStr">
         <is>
-          <t>1030.60</t>
+          <t>886.30</t>
         </is>
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>958.6</t>
+          <t>816</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>1020.300</t>
+          <t>873.200</t>
         </is>
       </c>
       <c r="L22" s="1" t="inlineStr">
         <is>
-          <t>Well diameter corrected to 5 in., other records list it as 4.5 but WCR as built has 5" id, 5.56" od, Location info taken from Brass Monument survey data in R-15 WCR., Survey is from brass monument., Location info taken from Brass Monument survey data in R-15 WCR.</t>
+          <t>Brass Monument location, Brass Monument location</t>
         </is>
       </c>
       <c r="M22" s="1" t="inlineStr"/>
       <c r="N22" s="1" t="inlineStr"/>
       <c r="O22" s="1" t="inlineStr">
         <is>
-          <t>Chromium</t>
+          <t>TA-54</t>
         </is>
       </c>
       <c r="P22" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q22" s="1" t="inlineStr">
@@ -3621,47 +3613,47 @@
       </c>
       <c r="V22" s="1" t="inlineStr">
         <is>
-          <t>18.2</t>
+          <t>20.1</t>
         </is>
       </c>
       <c r="W22" s="1" t="inlineStr">
         <is>
-          <t>2010-02-11</t>
+          <t>2009-02-25</t>
         </is>
       </c>
       <c r="X22" s="1" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="Y22" s="1" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2019-10-23</t>
         </is>
       </c>
       <c r="Z22" s="1" t="inlineStr">
         <is>
-          <t>38.4044</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AA22" s="1" t="inlineStr">
         <is>
-          <t>2008-05-20</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AB22" s="1" t="inlineStr">
         <is>
-          <t>10.9</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AC22" s="1" t="inlineStr">
         <is>
-          <t>2019-05-09</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AD22" s="1" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>67</t>
         </is>
       </c>
       <c r="AE22" s="1" t="inlineStr">
@@ -3684,7 +3676,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>R-21</t>
+          <t>R-28</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
@@ -3694,64 +3686,64 @@
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>35.83483</t>
+          <t>35.86015</t>
         </is>
       </c>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>-106.24707</t>
+          <t>-106.25482</t>
         </is>
       </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>6656.24</t>
+          <t>6728.61</t>
         </is>
       </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>Tp</t>
+          <t>Tpf</t>
         </is>
       </c>
       <c r="G23" s="1" t="inlineStr">
         <is>
-          <t>2002-11-26 00:00:00</t>
+          <t>2003-12-17 00:00:00</t>
         </is>
       </c>
       <c r="H23" s="1" t="inlineStr">
         <is>
-          <t>941.40</t>
+          <t>980.30</t>
         </is>
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>888.8</t>
+          <t>934.3</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>906.800</t>
+          <t>958.100</t>
         </is>
       </c>
       <c r="L23" s="1" t="inlineStr">
         <is>
-          <t>Site restoration dates from WCR, Location info taken from Brass Monument survey data from R-21 WCR., Location info taken from Brass Monument survey data from R-21 WCR.</t>
+          <t>original x, y, z = 1638357.25, 1768449.74, 6756, Location info taken from Brass cap monument survey data from R-28 WCR., Location info taken from Brass cap monument survey data from R-28 WCR.</t>
         </is>
       </c>
       <c r="M23" s="1" t="inlineStr"/>
       <c r="N23" s="1" t="inlineStr"/>
       <c r="O23" s="1" t="inlineStr">
         <is>
-          <t>TA-54</t>
+          <t>Chromium</t>
         </is>
       </c>
       <c r="P23" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q23" s="1" t="inlineStr">
@@ -3777,47 +3769,47 @@
       </c>
       <c r="V23" s="1" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>605.0</t>
         </is>
       </c>
       <c r="W23" s="1" t="inlineStr">
         <is>
-          <t>2008-05-23</t>
+          <t>2017-02-07</t>
         </is>
       </c>
       <c r="X23" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>9.83</t>
         </is>
       </c>
       <c r="Y23" s="1" t="inlineStr">
         <is>
-          <t>2019-10-24</t>
+          <t>2018-11-02</t>
         </is>
       </c>
       <c r="Z23" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>443.0</t>
         </is>
       </c>
       <c r="AA23" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2006-04-19</t>
         </is>
       </c>
       <c r="AB23" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>428.587</t>
         </is>
       </c>
       <c r="AC23" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2008-05-14</t>
         </is>
       </c>
       <c r="AD23" s="1" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>164</t>
         </is>
       </c>
       <c r="AE23" s="1" t="inlineStr">
@@ -3840,7 +3832,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>R-23</t>
+          <t>R-33 S1</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
@@ -3850,71 +3842,55 @@
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>35.8239</t>
+          <t>35.86062</t>
         </is>
       </c>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>-106.22471</t>
+          <t>-106.27368</t>
         </is>
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>6527.75</t>
+          <t>6853.33</t>
         </is>
       </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>Tpt</t>
-        </is>
-      </c>
-      <c r="G24" s="1" t="inlineStr">
-        <is>
-          <t>2002-10-02 00:00:00</t>
-        </is>
-      </c>
-      <c r="H24" s="1" t="inlineStr">
-        <is>
-          <t>886.30</t>
-        </is>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
+          <t>Tpp</t>
+        </is>
+      </c>
+      <c r="G24" s="1" t="inlineStr"/>
+      <c r="H24" s="1" t="inlineStr"/>
+      <c r="I24" s="1" t="inlineStr"/>
       <c r="J24" s="1" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>995.5</t>
         </is>
       </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
-          <t>873.200</t>
+          <t>1018.500</t>
         </is>
       </c>
       <c r="L24" s="1" t="inlineStr">
         <is>
-          <t>Brass Monument location, Brass Monument location</t>
+          <t>Location on mesa top near PM-5, Location info taken from Brass cap monument survey data from R-33 WCR., Location info taken from Brass cap monument survey data from R-33 WCR.</t>
         </is>
       </c>
       <c r="M24" s="1" t="inlineStr"/>
       <c r="N24" s="1" t="inlineStr"/>
       <c r="O24" s="1" t="inlineStr">
         <is>
-          <t>TA-54</t>
+          <t>Chromium</t>
         </is>
       </c>
       <c r="P24" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
-        </is>
-      </c>
-      <c r="Q24" s="1" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+          <t>Mortendad</t>
+        </is>
+      </c>
+      <c r="Q24" s="1" t="inlineStr"/>
       <c r="R24" s="1" t="inlineStr"/>
       <c r="S24" s="1" t="inlineStr">
         <is>
@@ -3933,47 +3909,47 @@
       </c>
       <c r="V24" s="1" t="inlineStr">
         <is>
-          <t>20.1</t>
+          <t>12.3</t>
         </is>
       </c>
       <c r="W24" s="1" t="inlineStr">
         <is>
-          <t>2009-02-25</t>
+          <t>2005-09-14</t>
         </is>
       </c>
       <c r="X24" s="1" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>9.04</t>
         </is>
       </c>
       <c r="Y24" s="1" t="inlineStr">
         <is>
-          <t>2019-10-23</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="Z24" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="AA24" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2018-05-09</t>
         </is>
       </c>
       <c r="AB24" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="AC24" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2018-05-09</t>
         </is>
       </c>
       <c r="AD24" s="1" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>107</t>
         </is>
       </c>
       <c r="AE24" s="1" t="inlineStr">
@@ -3996,7 +3972,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>R-28</t>
+          <t>R-33 S2</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
@@ -4006,52 +3982,40 @@
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>35.86015</t>
+          <t>35.86062</t>
         </is>
       </c>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>-106.25482</t>
+          <t>-106.27368</t>
         </is>
       </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>6728.61</t>
+          <t>6853.33</t>
         </is>
       </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>Tpf</t>
-        </is>
-      </c>
-      <c r="G25" s="1" t="inlineStr">
-        <is>
-          <t>2003-12-17 00:00:00</t>
-        </is>
-      </c>
-      <c r="H25" s="1" t="inlineStr">
-        <is>
-          <t>980.30</t>
-        </is>
-      </c>
-      <c r="I25" s="1" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
+          <t>Tpp</t>
+        </is>
+      </c>
+      <c r="G25" s="1" t="inlineStr"/>
+      <c r="H25" s="1" t="inlineStr"/>
+      <c r="I25" s="1" t="inlineStr"/>
       <c r="J25" s="1" t="inlineStr">
         <is>
-          <t>934.3</t>
+          <t>1112.4</t>
         </is>
       </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
-          <t>958.100</t>
+          <t>1122.300</t>
         </is>
       </c>
       <c r="L25" s="1" t="inlineStr">
         <is>
-          <t>original x, y, z = 1638357.25, 1768449.74, 6756, Location info taken from Brass cap monument survey data from R-28 WCR., Location info taken from Brass cap monument survey data from R-28 WCR.</t>
+          <t>Location on mesa top near PM-5, Location info taken from Brass cap monument survey data from R-33 WCR., Location info taken from Brass cap monument survey data from R-33 WCR.</t>
         </is>
       </c>
       <c r="M25" s="1" t="inlineStr"/>
@@ -4063,14 +4027,10 @@
       </c>
       <c r="P25" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
-        </is>
-      </c>
-      <c r="Q25" s="1" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+          <t>Mortendad</t>
+        </is>
+      </c>
+      <c r="Q25" s="1" t="inlineStr"/>
       <c r="R25" s="1" t="inlineStr"/>
       <c r="S25" s="1" t="inlineStr">
         <is>
@@ -4089,47 +4049,47 @@
       </c>
       <c r="V25" s="1" t="inlineStr">
         <is>
-          <t>605.0</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="W25" s="1" t="inlineStr">
         <is>
-          <t>2017-02-07</t>
+          <t>2007-11-19</t>
         </is>
       </c>
       <c r="X25" s="1" t="inlineStr">
         <is>
-          <t>9.83</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="Y25" s="1" t="inlineStr">
         <is>
-          <t>2018-11-02</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="Z25" s="1" t="inlineStr">
         <is>
-          <t>443.0</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="AA25" s="1" t="inlineStr">
         <is>
-          <t>2006-04-19</t>
+          <t>2018-05-09</t>
         </is>
       </c>
       <c r="AB25" s="1" t="inlineStr">
         <is>
-          <t>428.587</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="AC25" s="1" t="inlineStr">
         <is>
-          <t>2008-05-14</t>
+          <t>2018-05-09</t>
         </is>
       </c>
       <c r="AD25" s="1" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>111</t>
         </is>
       </c>
       <c r="AE25" s="1" t="inlineStr">
@@ -4152,7 +4112,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>R-33 S1</t>
+          <t>R-34</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
@@ -4162,17 +4122,17 @@
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>35.86062</t>
+          <t>35.84825</t>
         </is>
       </c>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>-106.27368</t>
+          <t>-106.23927</t>
         </is>
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>6853.33</t>
+          <t>6629.99</t>
         </is>
       </c>
       <c r="F26" s="1" t="inlineStr">
@@ -4180,37 +4140,53 @@
           <t>Tpp</t>
         </is>
       </c>
-      <c r="G26" s="1" t="inlineStr"/>
-      <c r="H26" s="1" t="inlineStr"/>
-      <c r="I26" s="1" t="inlineStr"/>
+      <c r="G26" s="1" t="inlineStr">
+        <is>
+          <t>2004-09-10 00:00:00</t>
+        </is>
+      </c>
+      <c r="H26" s="1" t="inlineStr">
+        <is>
+          <t>920.70</t>
+        </is>
+      </c>
+      <c r="I26" s="1" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
       <c r="J26" s="1" t="inlineStr">
         <is>
-          <t>995.5</t>
+          <t>883.7</t>
         </is>
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
-          <t>1018.500</t>
+          <t>906.600</t>
         </is>
       </c>
       <c r="L26" s="1" t="inlineStr">
         <is>
-          <t>Location on mesa top near PM-5, Location info taken from Brass cap monument survey data from R-33 WCR., Location info taken from Brass cap monument survey data from R-33 WCR.</t>
+          <t>R-34 completed depth is 920.7 ft from the completion report, Figure 7.2-1., San I Property., Location info taken from Brass cap monument survey data from R-34 WCR., Location info taken from Brass cap monument survey data from R-34 WCR.</t>
         </is>
       </c>
       <c r="M26" s="1" t="inlineStr"/>
       <c r="N26" s="1" t="inlineStr"/>
       <c r="O26" s="1" t="inlineStr">
         <is>
-          <t>Chromium</t>
+          <t>General</t>
         </is>
       </c>
       <c r="P26" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
-        </is>
-      </c>
-      <c r="Q26" s="1" t="inlineStr"/>
+          <t>Mortendad</t>
+        </is>
+      </c>
+      <c r="Q26" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="R26" s="1" t="inlineStr"/>
       <c r="S26" s="1" t="inlineStr">
         <is>
@@ -4229,47 +4205,47 @@
       </c>
       <c r="V26" s="1" t="inlineStr">
         <is>
-          <t>12.3</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="W26" s="1" t="inlineStr">
         <is>
-          <t>2005-09-14</t>
+          <t>2011-11-10</t>
         </is>
       </c>
       <c r="X26" s="1" t="inlineStr">
         <is>
-          <t>9.04</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="Y26" s="1" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-11-13</t>
         </is>
       </c>
       <c r="Z26" s="1" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="AA26" s="1" t="inlineStr">
         <is>
-          <t>2018-05-09</t>
+          <t>2006-01-31</t>
         </is>
       </c>
       <c r="AB26" s="1" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>3.66108</t>
         </is>
       </c>
       <c r="AC26" s="1" t="inlineStr">
         <is>
-          <t>2018-05-09</t>
+          <t>2008-05-28</t>
         </is>
       </c>
       <c r="AD26" s="1" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>103</t>
         </is>
       </c>
       <c r="AE26" s="1" t="inlineStr">
@@ -4292,7 +4268,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>R-33 S2</t>
+          <t>R-37 S2</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
@@ -4302,22 +4278,22 @@
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>35.86062</t>
+          <t>35.84437</t>
         </is>
       </c>
       <c r="D27" s="1" t="inlineStr">
         <is>
-          <t>-106.27368</t>
+          <t>-106.25873</t>
         </is>
       </c>
       <c r="E27" s="1" t="inlineStr">
         <is>
-          <t>6853.33</t>
+          <t>6870.59</t>
         </is>
       </c>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>Tpp</t>
+          <t>Tpf</t>
         </is>
       </c>
       <c r="G27" s="1" t="inlineStr"/>
@@ -4325,29 +4301,29 @@
       <c r="I27" s="1" t="inlineStr"/>
       <c r="J27" s="1" t="inlineStr">
         <is>
-          <t>1112.4</t>
+          <t>1026</t>
         </is>
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>1122.300</t>
+          <t>1046.600</t>
         </is>
       </c>
       <c r="L27" s="1" t="inlineStr">
         <is>
-          <t>Location on mesa top near PM-5, Location info taken from Brass cap monument survey data from R-33 WCR., Location info taken from Brass cap monument survey data from R-33 WCR.</t>
+          <t>Brass monument location, Brass monument location</t>
         </is>
       </c>
       <c r="M27" s="1" t="inlineStr"/>
       <c r="N27" s="1" t="inlineStr"/>
       <c r="O27" s="1" t="inlineStr">
         <is>
-          <t>Chromium</t>
+          <t>TA-54</t>
         </is>
       </c>
       <c r="P27" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q27" s="1" t="inlineStr"/>
@@ -4369,47 +4345,47 @@
       </c>
       <c r="V27" s="1" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>21.5</t>
         </is>
       </c>
       <c r="W27" s="1" t="inlineStr">
         <is>
-          <t>2007-11-19</t>
+          <t>2010-10-14</t>
         </is>
       </c>
       <c r="X27" s="1" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="Y27" s="1" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-10-17</t>
         </is>
       </c>
       <c r="Z27" s="1" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AA27" s="1" t="inlineStr">
         <is>
-          <t>2018-05-09</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AB27" s="1" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AC27" s="1" t="inlineStr">
         <is>
-          <t>2018-05-09</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AD27" s="1" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AE27" s="1" t="inlineStr">
@@ -4432,7 +4408,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>R-34</t>
+          <t>R-38</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
@@ -4442,64 +4418,64 @@
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>35.84825</t>
+          <t>35.83783</t>
         </is>
       </c>
       <c r="D28" s="1" t="inlineStr">
         <is>
-          <t>-106.23927</t>
+          <t>-106.24804</t>
         </is>
       </c>
       <c r="E28" s="1" t="inlineStr">
         <is>
-          <t>6629.99</t>
+          <t>6668.58</t>
         </is>
       </c>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t>Tpp</t>
+          <t>Tpf</t>
         </is>
       </c>
       <c r="G28" s="1" t="inlineStr">
         <is>
-          <t>2004-09-10 00:00:00</t>
+          <t>2008-12-07 00:00:00</t>
         </is>
       </c>
       <c r="H28" s="1" t="inlineStr">
         <is>
-          <t>920.70</t>
+          <t>853.40</t>
         </is>
       </c>
       <c r="I28" s="1" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J28" s="1" t="inlineStr">
         <is>
-          <t>883.7</t>
+          <t>821.2</t>
         </is>
       </c>
       <c r="K28" s="1" t="inlineStr">
         <is>
-          <t>906.600</t>
+          <t>831.200</t>
         </is>
       </c>
       <c r="L28" s="1" t="inlineStr">
         <is>
-          <t>R-34 completed depth is 920.7 ft from the completion report, Figure 7.2-1., San I Property., Location info taken from Brass cap monument survey data from R-34 WCR., Location info taken from Brass cap monument survey data from R-34 WCR.</t>
+          <t>Brass cap location, Brass cap location</t>
         </is>
       </c>
       <c r="M28" s="1" t="inlineStr"/>
       <c r="N28" s="1" t="inlineStr"/>
       <c r="O28" s="1" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>TA-54</t>
         </is>
       </c>
       <c r="P28" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q28" s="1" t="inlineStr">
@@ -4525,47 +4501,47 @@
       </c>
       <c r="V28" s="1" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>11.9</t>
         </is>
       </c>
       <c r="W28" s="1" t="inlineStr">
         <is>
-          <t>2011-11-10</t>
+          <t>2009-02-06</t>
         </is>
       </c>
       <c r="X28" s="1" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="Y28" s="1" t="inlineStr">
         <is>
-          <t>2019-11-13</t>
+          <t>2019-10-15</t>
         </is>
       </c>
       <c r="Z28" s="1" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AA28" s="1" t="inlineStr">
         <is>
-          <t>2006-01-31</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AB28" s="1" t="inlineStr">
         <is>
-          <t>3.66108</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AC28" s="1" t="inlineStr">
         <is>
-          <t>2008-05-28</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AD28" s="1" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>33</t>
         </is>
       </c>
       <c r="AE28" s="1" t="inlineStr">
@@ -4588,7 +4564,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>R-37 S2</t>
+          <t>R-41 S2</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
@@ -4598,22 +4574,22 @@
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>35.84437</t>
+          <t>35.83099</t>
         </is>
       </c>
       <c r="D29" s="1" t="inlineStr">
         <is>
-          <t>-106.25873</t>
+          <t>-106.23381</t>
         </is>
       </c>
       <c r="E29" s="1" t="inlineStr">
         <is>
-          <t>6870.59</t>
+          <t>6660.53</t>
         </is>
       </c>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>Tpf</t>
+          <t>Tpt</t>
         </is>
       </c>
       <c r="G29" s="1" t="inlineStr"/>
@@ -4621,17 +4597,17 @@
       <c r="I29" s="1" t="inlineStr"/>
       <c r="J29" s="1" t="inlineStr">
         <is>
-          <t>1026</t>
+          <t>965.3</t>
         </is>
       </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
-          <t>1046.600</t>
+          <t>975.000</t>
         </is>
       </c>
       <c r="L29" s="1" t="inlineStr">
         <is>
-          <t>Brass monument location, Brass monument location</t>
+          <t>Brass cap location, Brass cap location</t>
         </is>
       </c>
       <c r="M29" s="1" t="inlineStr"/>
@@ -4643,7 +4619,7 @@
       </c>
       <c r="P29" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q29" s="1" t="inlineStr"/>
@@ -4665,17 +4641,17 @@
       </c>
       <c r="V29" s="1" t="inlineStr">
         <is>
-          <t>21.5</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W29" s="1" t="inlineStr">
         <is>
-          <t>2010-10-14</t>
+          <t>2009-09-01</t>
         </is>
       </c>
       <c r="X29" s="1" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="Y29" s="1" t="inlineStr">
@@ -4705,7 +4681,7 @@
       </c>
       <c r="AD29" s="1" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AE29" s="1" t="inlineStr">
@@ -4713,11 +4689,7 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="AF29" s="1" t="inlineStr">
-        <is>
-          <t>Exceedance</t>
-        </is>
-      </c>
+      <c r="AF29" s="1" t="inlineStr"/>
       <c r="AG29" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -4728,7 +4700,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>R-38</t>
+          <t>R-42</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
@@ -4738,32 +4710,32 @@
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>35.83783</t>
+          <t>35.86129</t>
         </is>
       </c>
       <c r="D30" s="1" t="inlineStr">
         <is>
-          <t>-106.24804</t>
+          <t>-106.25914</t>
         </is>
       </c>
       <c r="E30" s="1" t="inlineStr">
         <is>
-          <t>6668.58</t>
+          <t>6759.02</t>
         </is>
       </c>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>Tpf</t>
+          <t>Tsfuv</t>
         </is>
       </c>
       <c r="G30" s="1" t="inlineStr">
         <is>
-          <t>2008-12-07 00:00:00</t>
+          <t>2008-08-27 00:00:00</t>
         </is>
       </c>
       <c r="H30" s="1" t="inlineStr">
         <is>
-          <t>853.40</t>
+          <t>973.50</t>
         </is>
       </c>
       <c r="I30" s="1" t="inlineStr">
@@ -4773,29 +4745,29 @@
       </c>
       <c r="J30" s="1" t="inlineStr">
         <is>
-          <t>821.2</t>
+          <t>931.8</t>
         </is>
       </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
-          <t>831.200</t>
+          <t>952.900</t>
         </is>
       </c>
       <c r="L30" s="1" t="inlineStr">
         <is>
-          <t>Brass cap location, Brass cap location</t>
+          <t>Brass Monument, Brass Monument</t>
         </is>
       </c>
       <c r="M30" s="1" t="inlineStr"/>
       <c r="N30" s="1" t="inlineStr"/>
       <c r="O30" s="1" t="inlineStr">
         <is>
-          <t>TA-54</t>
+          <t>Chromium</t>
         </is>
       </c>
       <c r="P30" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q30" s="1" t="inlineStr">
@@ -4821,22 +4793,22 @@
       </c>
       <c r="V30" s="1" t="inlineStr">
         <is>
-          <t>11.9</t>
+          <t>1270.0</t>
         </is>
       </c>
       <c r="W30" s="1" t="inlineStr">
         <is>
-          <t>2009-02-06</t>
+          <t>2010-11-10</t>
         </is>
       </c>
       <c r="X30" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>0.639</t>
         </is>
       </c>
       <c r="Y30" s="1" t="inlineStr">
         <is>
-          <t>2019-10-15</t>
+          <t>2018-11-02</t>
         </is>
       </c>
       <c r="Z30" s="1" t="inlineStr">
@@ -4861,7 +4833,7 @@
       </c>
       <c r="AD30" s="1" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>66</t>
         </is>
       </c>
       <c r="AE30" s="1" t="inlineStr">
@@ -4884,7 +4856,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>R-41 S2</t>
+          <t>R-44 S1</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
@@ -4894,22 +4866,22 @@
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>35.83099</t>
+          <t>35.85672</t>
         </is>
       </c>
       <c r="D31" s="1" t="inlineStr">
         <is>
-          <t>-106.23381</t>
+          <t>-106.2512</t>
         </is>
       </c>
       <c r="E31" s="1" t="inlineStr">
         <is>
-          <t>6660.53</t>
+          <t>6714.91</t>
         </is>
       </c>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t>Tpt</t>
+          <t>Tpf</t>
         </is>
       </c>
       <c r="G31" s="1" t="inlineStr"/>
@@ -4917,12 +4889,12 @@
       <c r="I31" s="1" t="inlineStr"/>
       <c r="J31" s="1" t="inlineStr">
         <is>
-          <t>965.3</t>
+          <t>895</t>
         </is>
       </c>
       <c r="K31" s="1" t="inlineStr">
         <is>
-          <t>975.000</t>
+          <t>905.000</t>
         </is>
       </c>
       <c r="L31" s="1" t="inlineStr">
@@ -4934,12 +4906,12 @@
       <c r="N31" s="1" t="inlineStr"/>
       <c r="O31" s="1" t="inlineStr">
         <is>
-          <t>TA-54</t>
+          <t>Chromium</t>
         </is>
       </c>
       <c r="P31" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q31" s="1" t="inlineStr"/>
@@ -4961,47 +4933,47 @@
       </c>
       <c r="V31" s="1" t="inlineStr">
         <is>
-          <t>6.66</t>
+          <t>21.8</t>
         </is>
       </c>
       <c r="W31" s="1" t="inlineStr">
         <is>
-          <t>2010-06-09</t>
+          <t>2016-05-03</t>
         </is>
       </c>
       <c r="X31" s="1" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="Y31" s="1" t="inlineStr">
         <is>
-          <t>2019-10-17</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="Z31" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="AA31" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2018-05-16</t>
         </is>
       </c>
       <c r="AB31" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>5.57</t>
         </is>
       </c>
       <c r="AC31" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2019-05-15</t>
         </is>
       </c>
       <c r="AD31" s="1" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>97</t>
         </is>
       </c>
       <c r="AE31" s="1" t="inlineStr">
@@ -5009,7 +4981,11 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="AF31" s="1" t="inlineStr"/>
+      <c r="AF31" s="1" t="inlineStr">
+        <is>
+          <t>Exceedance</t>
+        </is>
+      </c>
       <c r="AG31" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -5020,7 +4996,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>R-42</t>
+          <t>R-44 S2</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
@@ -5030,52 +5006,40 @@
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>35.86129</t>
+          <t>35.85672</t>
         </is>
       </c>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>-106.25914</t>
+          <t>-106.2512</t>
         </is>
       </c>
       <c r="E32" s="1" t="inlineStr">
         <is>
-          <t>6759.02</t>
+          <t>6714.91</t>
         </is>
       </c>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>Tsfuv</t>
-        </is>
-      </c>
-      <c r="G32" s="1" t="inlineStr">
-        <is>
-          <t>2008-08-27 00:00:00</t>
-        </is>
-      </c>
-      <c r="H32" s="1" t="inlineStr">
-        <is>
-          <t>973.50</t>
-        </is>
-      </c>
-      <c r="I32" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>Tpf</t>
+        </is>
+      </c>
+      <c r="G32" s="1" t="inlineStr"/>
+      <c r="H32" s="1" t="inlineStr"/>
+      <c r="I32" s="1" t="inlineStr"/>
       <c r="J32" s="1" t="inlineStr">
         <is>
-          <t>931.8</t>
+          <t>985.3</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
-          <t>952.900</t>
+          <t>995.200</t>
         </is>
       </c>
       <c r="L32" s="1" t="inlineStr">
         <is>
-          <t>Brass Monument, Brass Monument</t>
+          <t>Brass cap location, Brass cap location</t>
         </is>
       </c>
       <c r="M32" s="1" t="inlineStr"/>
@@ -5087,14 +5051,10 @@
       </c>
       <c r="P32" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
-        </is>
-      </c>
-      <c r="Q32" s="1" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+          <t>Mortendad</t>
+        </is>
+      </c>
+      <c r="Q32" s="1" t="inlineStr"/>
       <c r="R32" s="1" t="inlineStr"/>
       <c r="S32" s="1" t="inlineStr">
         <is>
@@ -5113,47 +5073,47 @@
       </c>
       <c r="V32" s="1" t="inlineStr">
         <is>
-          <t>1270.0</t>
+          <t>16.8</t>
         </is>
       </c>
       <c r="W32" s="1" t="inlineStr">
         <is>
-          <t>2010-11-10</t>
+          <t>2010-02-10</t>
         </is>
       </c>
       <c r="X32" s="1" t="inlineStr">
         <is>
-          <t>0.639</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="Y32" s="1" t="inlineStr">
         <is>
-          <t>2018-11-02</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="Z32" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="AA32" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2018-05-16</t>
         </is>
       </c>
       <c r="AB32" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="AC32" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2018-05-16</t>
         </is>
       </c>
       <c r="AD32" s="1" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>105</t>
         </is>
       </c>
       <c r="AE32" s="1" t="inlineStr">
@@ -5176,7 +5136,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>R-44 S1</t>
+          <t>R-45 S1</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
@@ -5186,17 +5146,17 @@
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>35.85672</t>
+          <t>35.85921</t>
         </is>
       </c>
       <c r="D33" s="1" t="inlineStr">
         <is>
-          <t>-106.2512</t>
+          <t>-106.25056</t>
         </is>
       </c>
       <c r="E33" s="1" t="inlineStr">
         <is>
-          <t>6714.91</t>
+          <t>6704.02</t>
         </is>
       </c>
       <c r="F33" s="1" t="inlineStr">
@@ -5209,12 +5169,12 @@
       <c r="I33" s="1" t="inlineStr"/>
       <c r="J33" s="1" t="inlineStr">
         <is>
-          <t>895</t>
+          <t>880</t>
         </is>
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
-          <t>905.000</t>
+          <t>890.000</t>
         </is>
       </c>
       <c r="L33" s="1" t="inlineStr">
@@ -5231,7 +5191,7 @@
       </c>
       <c r="P33" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q33" s="1" t="inlineStr"/>
@@ -5253,27 +5213,27 @@
       </c>
       <c r="V33" s="1" t="inlineStr">
         <is>
-          <t>21.8</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="W33" s="1" t="inlineStr">
         <is>
-          <t>2016-05-03</t>
+          <t>2017-12-18</t>
         </is>
       </c>
       <c r="X33" s="1" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>23.8</t>
         </is>
       </c>
       <c r="Y33" s="1" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="Z33" s="1" t="inlineStr">
         <is>
-          <t>12.5</t>
+          <t>42.8</t>
         </is>
       </c>
       <c r="AA33" s="1" t="inlineStr">
@@ -5283,7 +5243,7 @@
       </c>
       <c r="AB33" s="1" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>32.9</t>
         </is>
       </c>
       <c r="AC33" s="1" t="inlineStr">
@@ -5293,7 +5253,7 @@
       </c>
       <c r="AD33" s="1" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>93</t>
         </is>
       </c>
       <c r="AE33" s="1" t="inlineStr">
@@ -5316,7 +5276,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>R-44 S2</t>
+          <t>R-45 S2</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
@@ -5326,22 +5286,22 @@
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>35.85672</t>
+          <t>35.85921</t>
         </is>
       </c>
       <c r="D34" s="1" t="inlineStr">
         <is>
-          <t>-106.2512</t>
+          <t>-106.25056</t>
         </is>
       </c>
       <c r="E34" s="1" t="inlineStr">
         <is>
-          <t>6714.91</t>
+          <t>6704.02</t>
         </is>
       </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>Tpf</t>
+          <t>Tjfp</t>
         </is>
       </c>
       <c r="G34" s="1" t="inlineStr"/>
@@ -5349,12 +5309,12 @@
       <c r="I34" s="1" t="inlineStr"/>
       <c r="J34" s="1" t="inlineStr">
         <is>
-          <t>985.3</t>
+          <t>974.9</t>
         </is>
       </c>
       <c r="K34" s="1" t="inlineStr">
         <is>
-          <t>995.200</t>
+          <t>994.900</t>
         </is>
       </c>
       <c r="L34" s="1" t="inlineStr">
@@ -5371,7 +5331,7 @@
       </c>
       <c r="P34" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q34" s="1" t="inlineStr"/>
@@ -5393,27 +5353,27 @@
       </c>
       <c r="V34" s="1" t="inlineStr">
         <is>
-          <t>16.8</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="W34" s="1" t="inlineStr">
         <is>
-          <t>2010-02-10</t>
+          <t>2017-10-31</t>
         </is>
       </c>
       <c r="X34" s="1" t="inlineStr">
         <is>
-          <t>5.52</t>
+          <t>38.1</t>
         </is>
       </c>
       <c r="Y34" s="1" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="Z34" s="1" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>24.2</t>
         </is>
       </c>
       <c r="AA34" s="1" t="inlineStr">
@@ -5423,7 +5383,7 @@
       </c>
       <c r="AB34" s="1" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>24.2</t>
         </is>
       </c>
       <c r="AC34" s="1" t="inlineStr">
@@ -5433,7 +5393,7 @@
       </c>
       <c r="AD34" s="1" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>88</t>
         </is>
       </c>
       <c r="AE34" s="1" t="inlineStr">
@@ -5456,7 +5416,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>R-45 S1</t>
+          <t>R-46</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
@@ -5466,17 +5426,17 @@
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>35.85921</t>
+          <t>35.85966</t>
         </is>
       </c>
       <c r="D35" s="1" t="inlineStr">
         <is>
-          <t>-106.25056</t>
+          <t>-106.29382</t>
         </is>
       </c>
       <c r="E35" s="1" t="inlineStr">
         <is>
-          <t>6704.02</t>
+          <t>7213.33</t>
         </is>
       </c>
       <c r="F35" s="1" t="inlineStr">
@@ -5484,17 +5444,29 @@
           <t>Tpf</t>
         </is>
       </c>
-      <c r="G35" s="1" t="inlineStr"/>
-      <c r="H35" s="1" t="inlineStr"/>
-      <c r="I35" s="1" t="inlineStr"/>
+      <c r="G35" s="1" t="inlineStr">
+        <is>
+          <t>2009-02-26 00:00:00</t>
+        </is>
+      </c>
+      <c r="H35" s="1" t="inlineStr">
+        <is>
+          <t>1382.2</t>
+        </is>
+      </c>
+      <c r="I35" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="J35" s="1" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>1340</t>
         </is>
       </c>
       <c r="K35" s="1" t="inlineStr">
         <is>
-          <t>890.000</t>
+          <t>1360.700</t>
         </is>
       </c>
       <c r="L35" s="1" t="inlineStr">
@@ -5506,15 +5478,19 @@
       <c r="N35" s="1" t="inlineStr"/>
       <c r="O35" s="1" t="inlineStr">
         <is>
-          <t>Chromium</t>
+          <t>MDA C</t>
         </is>
       </c>
       <c r="P35" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
-        </is>
-      </c>
-      <c r="Q35" s="1" t="inlineStr"/>
+          <t>Mortendad</t>
+        </is>
+      </c>
+      <c r="Q35" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="R35" s="1" t="inlineStr"/>
       <c r="S35" s="1" t="inlineStr">
         <is>
@@ -5533,47 +5509,47 @@
       </c>
       <c r="V35" s="1" t="inlineStr">
         <is>
-          <t>50.7</t>
+          <t>13.7</t>
         </is>
       </c>
       <c r="W35" s="1" t="inlineStr">
         <is>
-          <t>2017-12-18</t>
+          <t>2009-03-11</t>
         </is>
       </c>
       <c r="X35" s="1" t="inlineStr">
         <is>
-          <t>23.8</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="Y35" s="1" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="Z35" s="1" t="inlineStr">
         <is>
-          <t>42.8</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AA35" s="1" t="inlineStr">
         <is>
-          <t>2018-05-16</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AB35" s="1" t="inlineStr">
         <is>
-          <t>32.9</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AC35" s="1" t="inlineStr">
         <is>
-          <t>2019-05-15</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AD35" s="1" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>39</t>
         </is>
       </c>
       <c r="AE35" s="1" t="inlineStr">
@@ -5596,7 +5572,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>R-45 S2</t>
+          <t>R-50 S1</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
@@ -5606,22 +5582,22 @@
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>35.85921</t>
+          <t>35.85666</t>
         </is>
       </c>
       <c r="D36" s="1" t="inlineStr">
         <is>
-          <t>-106.25056</t>
+          <t>-106.25591</t>
         </is>
       </c>
       <c r="E36" s="1" t="inlineStr">
         <is>
-          <t>6704.02</t>
+          <t>6904.11</t>
         </is>
       </c>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>Tjfp</t>
+          <t>Tpf</t>
         </is>
       </c>
       <c r="G36" s="1" t="inlineStr"/>
@@ -5629,17 +5605,17 @@
       <c r="I36" s="1" t="inlineStr"/>
       <c r="J36" s="1" t="inlineStr">
         <is>
-          <t>974.9</t>
+          <t>1077</t>
         </is>
       </c>
       <c r="K36" s="1" t="inlineStr">
         <is>
-          <t>994.900</t>
+          <t>1087.000</t>
         </is>
       </c>
       <c r="L36" s="1" t="inlineStr">
         <is>
-          <t>Brass cap location, Brass cap location</t>
+          <t>Brass cap location, Brass Cap location, Brass Cap location</t>
         </is>
       </c>
       <c r="M36" s="1" t="inlineStr"/>
@@ -5651,7 +5627,7 @@
       </c>
       <c r="P36" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q36" s="1" t="inlineStr"/>
@@ -5673,47 +5649,47 @@
       </c>
       <c r="V36" s="1" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>150.0</t>
         </is>
       </c>
       <c r="W36" s="1" t="inlineStr">
         <is>
-          <t>2017-10-31</t>
+          <t>2017-10-26</t>
         </is>
       </c>
       <c r="X36" s="1" t="inlineStr">
         <is>
-          <t>38.1</t>
+          <t>26.4</t>
         </is>
       </c>
       <c r="Y36" s="1" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-03-04</t>
         </is>
       </c>
       <c r="Z36" s="1" t="inlineStr">
         <is>
-          <t>24.2</t>
+          <t>129.0</t>
         </is>
       </c>
       <c r="AA36" s="1" t="inlineStr">
         <is>
-          <t>2018-05-16</t>
+          <t>2018-05-14</t>
         </is>
       </c>
       <c r="AB36" s="1" t="inlineStr">
         <is>
-          <t>24.2</t>
+          <t>53.2</t>
         </is>
       </c>
       <c r="AC36" s="1" t="inlineStr">
         <is>
-          <t>2018-05-16</t>
+          <t>2019-05-09</t>
         </is>
       </c>
       <c r="AD36" s="1" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>105</t>
         </is>
       </c>
       <c r="AE36" s="1" t="inlineStr">
@@ -5736,7 +5712,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>R-50 S1</t>
+          <t>R-50 S2</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
@@ -5761,7 +5737,7 @@
       </c>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>Tpf</t>
+          <t>Tsfu</t>
         </is>
       </c>
       <c r="G37" s="1" t="inlineStr"/>
@@ -5769,12 +5745,12 @@
       <c r="I37" s="1" t="inlineStr"/>
       <c r="J37" s="1" t="inlineStr">
         <is>
-          <t>1077</t>
+          <t>1185</t>
         </is>
       </c>
       <c r="K37" s="1" t="inlineStr">
         <is>
-          <t>1087.000</t>
+          <t>1205.600</t>
         </is>
       </c>
       <c r="L37" s="1" t="inlineStr">
@@ -5791,7 +5767,7 @@
       </c>
       <c r="P37" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q37" s="1" t="inlineStr"/>
@@ -5813,47 +5789,47 @@
       </c>
       <c r="V37" s="1" t="inlineStr">
         <is>
-          <t>150.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W37" s="1" t="inlineStr">
         <is>
-          <t>2017-10-26</t>
+          <t>2010-03-11</t>
         </is>
       </c>
       <c r="X37" s="1" t="inlineStr">
         <is>
-          <t>26.4</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="Y37" s="1" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="Z37" s="1" t="inlineStr">
         <is>
-          <t>129.0</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="AA37" s="1" t="inlineStr">
         <is>
-          <t>2018-05-14</t>
+          <t>2018-05-15</t>
         </is>
       </c>
       <c r="AB37" s="1" t="inlineStr">
         <is>
-          <t>53.2</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="AC37" s="1" t="inlineStr">
         <is>
-          <t>2019-05-09</t>
+          <t>2018-05-15</t>
         </is>
       </c>
       <c r="AD37" s="1" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>106</t>
         </is>
       </c>
       <c r="AE37" s="1" t="inlineStr">
@@ -5861,11 +5837,7 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="AF37" s="1" t="inlineStr">
-        <is>
-          <t>Exceedance</t>
-        </is>
-      </c>
+      <c r="AF37" s="1" t="inlineStr"/>
       <c r="AG37" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -5876,7 +5848,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>R-50 S2</t>
+          <t>R-52 S1</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
@@ -5886,22 +5858,22 @@
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>35.85666</t>
+          <t>35.84495</t>
         </is>
       </c>
       <c r="D38" s="1" t="inlineStr">
         <is>
-          <t>-106.25591</t>
+          <t>-106.26157</t>
         </is>
       </c>
       <c r="E38" s="1" t="inlineStr">
         <is>
-          <t>6904.11</t>
+          <t>6883.04</t>
         </is>
       </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>Tsfu</t>
+          <t>Tpf</t>
         </is>
       </c>
       <c r="G38" s="1" t="inlineStr"/>
@@ -5909,29 +5881,29 @@
       <c r="I38" s="1" t="inlineStr"/>
       <c r="J38" s="1" t="inlineStr">
         <is>
-          <t>1185</t>
+          <t>1035.2</t>
         </is>
       </c>
       <c r="K38" s="1" t="inlineStr">
         <is>
-          <t>1205.600</t>
+          <t>1055.700</t>
         </is>
       </c>
       <c r="L38" s="1" t="inlineStr">
         <is>
-          <t>Brass cap location, Brass Cap location, Brass Cap location</t>
+          <t>Brass cap location, Brass cap location, Brass cap location</t>
         </is>
       </c>
       <c r="M38" s="1" t="inlineStr"/>
       <c r="N38" s="1" t="inlineStr"/>
       <c r="O38" s="1" t="inlineStr">
         <is>
-          <t>Chromium</t>
+          <t>TA-54</t>
         </is>
       </c>
       <c r="P38" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q38" s="1" t="inlineStr"/>
@@ -5953,47 +5925,47 @@
       </c>
       <c r="V38" s="1" t="inlineStr">
         <is>
-          <t>7.27</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W38" s="1" t="inlineStr">
         <is>
-          <t>2010-07-02</t>
+          <t>2011-01-13</t>
         </is>
       </c>
       <c r="X38" s="1" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="Y38" s="1" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2019-10-16</t>
         </is>
       </c>
       <c r="Z38" s="1" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AA38" s="1" t="inlineStr">
         <is>
-          <t>2018-05-15</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AB38" s="1" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AC38" s="1" t="inlineStr">
         <is>
-          <t>2018-05-15</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AD38" s="1" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>26</t>
         </is>
       </c>
       <c r="AE38" s="1" t="inlineStr">
@@ -6012,7 +5984,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>R-52 S1</t>
+          <t>R-52 S2</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
@@ -6045,12 +6017,12 @@
       <c r="I39" s="1" t="inlineStr"/>
       <c r="J39" s="1" t="inlineStr">
         <is>
-          <t>1035.2</t>
+          <t>1107</t>
         </is>
       </c>
       <c r="K39" s="1" t="inlineStr">
         <is>
-          <t>1055.700</t>
+          <t>1117.000</t>
         </is>
       </c>
       <c r="L39" s="1" t="inlineStr">
@@ -6067,7 +6039,7 @@
       </c>
       <c r="P39" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q39" s="1" t="inlineStr"/>
@@ -6089,12 +6061,12 @@
       </c>
       <c r="V39" s="1" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W39" s="1" t="inlineStr">
         <is>
-          <t>2010-05-02</t>
+          <t>2011-01-13</t>
         </is>
       </c>
       <c r="X39" s="1" t="inlineStr">
@@ -6129,7 +6101,7 @@
       </c>
       <c r="AD39" s="1" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>40</t>
         </is>
       </c>
       <c r="AE39" s="1" t="inlineStr">
@@ -6148,7 +6120,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>R-52 S2</t>
+          <t>R-53 S1</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
@@ -6158,17 +6130,17 @@
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>35.84495</t>
+          <t>35.8368</t>
         </is>
       </c>
       <c r="D40" s="1" t="inlineStr">
         <is>
-          <t>-106.26157</t>
+          <t>-106.25104</t>
         </is>
       </c>
       <c r="E40" s="1" t="inlineStr">
         <is>
-          <t>6883.04</t>
+          <t>6689.98</t>
         </is>
       </c>
       <c r="F40" s="1" t="inlineStr">
@@ -6181,17 +6153,17 @@
       <c r="I40" s="1" t="inlineStr"/>
       <c r="J40" s="1" t="inlineStr">
         <is>
-          <t>1107</t>
+          <t>849.2</t>
         </is>
       </c>
       <c r="K40" s="1" t="inlineStr">
         <is>
-          <t>1117.000</t>
+          <t>859.200</t>
         </is>
       </c>
       <c r="L40" s="1" t="inlineStr">
         <is>
-          <t>Brass cap location, Brass cap location, Brass cap location</t>
+          <t>estimated location pending survey, brass cap location, brass cap location</t>
         </is>
       </c>
       <c r="M40" s="1" t="inlineStr"/>
@@ -6203,7 +6175,7 @@
       </c>
       <c r="P40" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q40" s="1" t="inlineStr"/>
@@ -6225,12 +6197,12 @@
       </c>
       <c r="V40" s="1" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W40" s="1" t="inlineStr">
         <is>
-          <t>2010-04-23</t>
+          <t>2010-04-19</t>
         </is>
       </c>
       <c r="X40" s="1" t="inlineStr">
@@ -6240,7 +6212,7 @@
       </c>
       <c r="Y40" s="1" t="inlineStr">
         <is>
-          <t>2019-10-16</t>
+          <t>2019-10-25</t>
         </is>
       </c>
       <c r="Z40" s="1" t="inlineStr">
@@ -6265,7 +6237,7 @@
       </c>
       <c r="AD40" s="1" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AE40" s="1" t="inlineStr">
@@ -6284,7 +6256,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>R-53 S1</t>
+          <t>R-53 S2</t>
         </is>
       </c>
       <c r="B41" s="1" t="inlineStr">
@@ -6317,17 +6289,17 @@
       <c r="I41" s="1" t="inlineStr"/>
       <c r="J41" s="1" t="inlineStr">
         <is>
-          <t>849.2</t>
+          <t>959.7</t>
         </is>
       </c>
       <c r="K41" s="1" t="inlineStr">
         <is>
-          <t>859.200</t>
+          <t>980.200</t>
         </is>
       </c>
       <c r="L41" s="1" t="inlineStr">
         <is>
-          <t>estimated location pending survey, brass cap location, brass cap location</t>
+          <t>brass cap location, estimated location pending survey, brass cap location</t>
         </is>
       </c>
       <c r="M41" s="1" t="inlineStr"/>
@@ -6339,7 +6311,7 @@
       </c>
       <c r="P41" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q41" s="1" t="inlineStr"/>
@@ -6361,17 +6333,17 @@
       </c>
       <c r="V41" s="1" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W41" s="1" t="inlineStr">
         <is>
-          <t>2010-07-26</t>
+          <t>2010-04-14</t>
         </is>
       </c>
       <c r="X41" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="Y41" s="1" t="inlineStr">
@@ -6401,7 +6373,7 @@
       </c>
       <c r="AD41" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AE41" s="1" t="inlineStr">
@@ -6420,7 +6392,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>R-53 S2</t>
+          <t>R-55 S1</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
@@ -6430,22 +6402,22 @@
       </c>
       <c r="C42" s="1" t="inlineStr">
         <is>
-          <t>35.8368</t>
+          <t>35.82969</t>
         </is>
       </c>
       <c r="D42" s="1" t="inlineStr">
         <is>
-          <t>-106.25104</t>
+          <t>-106.22751</t>
         </is>
       </c>
       <c r="E42" s="1" t="inlineStr">
         <is>
-          <t>6689.98</t>
+          <t>6533.86</t>
         </is>
       </c>
       <c r="F42" s="1" t="inlineStr">
         <is>
-          <t>Tpf</t>
+          <t>Tpt</t>
         </is>
       </c>
       <c r="G42" s="1" t="inlineStr"/>
@@ -6453,17 +6425,17 @@
       <c r="I42" s="1" t="inlineStr"/>
       <c r="J42" s="1" t="inlineStr">
         <is>
-          <t>959.7</t>
+          <t>860</t>
         </is>
       </c>
       <c r="K42" s="1" t="inlineStr">
         <is>
-          <t>980.200</t>
+          <t>880.600</t>
         </is>
       </c>
       <c r="L42" s="1" t="inlineStr">
         <is>
-          <t>brass cap location, estimated location pending survey, brass cap location</t>
+          <t>Brass cap surveyed location, brass cap surveyed location, brass cap surveyed location</t>
         </is>
       </c>
       <c r="M42" s="1" t="inlineStr"/>
@@ -6475,7 +6447,7 @@
       </c>
       <c r="P42" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q42" s="1" t="inlineStr"/>
@@ -6497,22 +6469,22 @@
       </c>
       <c r="V42" s="1" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W42" s="1" t="inlineStr">
         <is>
-          <t>2010-10-12</t>
+          <t>2010-09-09</t>
         </is>
       </c>
       <c r="X42" s="1" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="Y42" s="1" t="inlineStr">
         <is>
-          <t>2019-10-25</t>
+          <t>2019-10-16</t>
         </is>
       </c>
       <c r="Z42" s="1" t="inlineStr">
@@ -6537,7 +6509,7 @@
       </c>
       <c r="AD42" s="1" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AE42" s="1" t="inlineStr">
@@ -6556,7 +6528,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>R-55 S1</t>
+          <t>R-55 S2</t>
         </is>
       </c>
       <c r="B43" s="1" t="inlineStr">
@@ -6581,7 +6553,7 @@
       </c>
       <c r="F43" s="1" t="inlineStr">
         <is>
-          <t>Tpt</t>
+          <t>Tcar</t>
         </is>
       </c>
       <c r="G43" s="1" t="inlineStr"/>
@@ -6589,12 +6561,12 @@
       <c r="I43" s="1" t="inlineStr"/>
       <c r="J43" s="1" t="inlineStr">
         <is>
-          <t>860</t>
+          <t>994.4</t>
         </is>
       </c>
       <c r="K43" s="1" t="inlineStr">
         <is>
-          <t>880.600</t>
+          <t>1015.400</t>
         </is>
       </c>
       <c r="L43" s="1" t="inlineStr">
@@ -6611,7 +6583,7 @@
       </c>
       <c r="P43" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q43" s="1" t="inlineStr"/>
@@ -6633,17 +6605,17 @@
       </c>
       <c r="V43" s="1" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W43" s="1" t="inlineStr">
         <is>
-          <t>2011-10-28</t>
+          <t>2011-04-28</t>
         </is>
       </c>
       <c r="X43" s="1" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="Y43" s="1" t="inlineStr">
@@ -6673,7 +6645,7 @@
       </c>
       <c r="AD43" s="1" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AE43" s="1" t="inlineStr">
@@ -6692,7 +6664,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>R-55 S2</t>
+          <t>R-56 S1</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
@@ -6702,22 +6674,22 @@
       </c>
       <c r="C44" s="1" t="inlineStr">
         <is>
-          <t>35.82969</t>
+          <t>35.83456</t>
         </is>
       </c>
       <c r="D44" s="1" t="inlineStr">
         <is>
-          <t>-106.22751</t>
+          <t>-106.24969</t>
         </is>
       </c>
       <c r="E44" s="1" t="inlineStr">
         <is>
-          <t>6533.86</t>
+          <t>6780.88</t>
         </is>
       </c>
       <c r="F44" s="1" t="inlineStr">
         <is>
-          <t>Tcar</t>
+          <t>Tpf</t>
         </is>
       </c>
       <c r="G44" s="1" t="inlineStr"/>
@@ -6725,17 +6697,17 @@
       <c r="I44" s="1" t="inlineStr"/>
       <c r="J44" s="1" t="inlineStr">
         <is>
-          <t>994.4</t>
+          <t>945</t>
         </is>
       </c>
       <c r="K44" s="1" t="inlineStr">
         <is>
-          <t>1015.400</t>
+          <t>965.600</t>
         </is>
       </c>
       <c r="L44" s="1" t="inlineStr">
         <is>
-          <t>Brass cap surveyed location, brass cap surveyed location, brass cap surveyed location</t>
+          <t>brass cap location, brass cap location, Brass cap location</t>
         </is>
       </c>
       <c r="M44" s="1" t="inlineStr"/>
@@ -6747,7 +6719,7 @@
       </c>
       <c r="P44" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q44" s="1" t="inlineStr"/>
@@ -6769,22 +6741,22 @@
       </c>
       <c r="V44" s="1" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W44" s="1" t="inlineStr">
         <is>
-          <t>2010-09-14</t>
+          <t>2010-08-19</t>
         </is>
       </c>
       <c r="X44" s="1" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="Y44" s="1" t="inlineStr">
         <is>
-          <t>2019-10-16</t>
+          <t>2019-10-24</t>
         </is>
       </c>
       <c r="Z44" s="1" t="inlineStr">
@@ -6809,7 +6781,7 @@
       </c>
       <c r="AD44" s="1" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AE44" s="1" t="inlineStr">
@@ -6828,7 +6800,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>R-56 S1</t>
+          <t>R-56 S2</t>
         </is>
       </c>
       <c r="B45" s="1" t="inlineStr">
@@ -6861,17 +6833,17 @@
       <c r="I45" s="1" t="inlineStr"/>
       <c r="J45" s="1" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>1046.6</t>
         </is>
       </c>
       <c r="K45" s="1" t="inlineStr">
         <is>
-          <t>965.600</t>
+          <t>1067.100</t>
         </is>
       </c>
       <c r="L45" s="1" t="inlineStr">
         <is>
-          <t>brass cap location, brass cap location, Brass cap location</t>
+          <t>brass cap location, Brass cap location, brass cap location</t>
         </is>
       </c>
       <c r="M45" s="1" t="inlineStr"/>
@@ -6883,7 +6855,7 @@
       </c>
       <c r="P45" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q45" s="1" t="inlineStr"/>
@@ -6905,17 +6877,17 @@
       </c>
       <c r="V45" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W45" s="1" t="inlineStr">
         <is>
-          <t>2017-10-26</t>
+          <t>2011-02-07</t>
         </is>
       </c>
       <c r="X45" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="Y45" s="1" t="inlineStr">
@@ -6945,7 +6917,7 @@
       </c>
       <c r="AD45" s="1" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AE45" s="1" t="inlineStr">
@@ -6964,7 +6936,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>R-56 S2</t>
+          <t>R-57 S1</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr">
@@ -6974,22 +6946,22 @@
       </c>
       <c r="C46" s="1" t="inlineStr">
         <is>
-          <t>35.83456</t>
+          <t>35.82987</t>
         </is>
       </c>
       <c r="D46" s="1" t="inlineStr">
         <is>
-          <t>-106.24969</t>
+          <t>-106.23417</t>
         </is>
       </c>
       <c r="E46" s="1" t="inlineStr">
         <is>
-          <t>6780.88</t>
+          <t>6648.04</t>
         </is>
       </c>
       <c r="F46" s="1" t="inlineStr">
         <is>
-          <t>Tpf</t>
+          <t>Tb4</t>
         </is>
       </c>
       <c r="G46" s="1" t="inlineStr"/>
@@ -6997,17 +6969,17 @@
       <c r="I46" s="1" t="inlineStr"/>
       <c r="J46" s="1" t="inlineStr">
         <is>
-          <t>1046.6</t>
+          <t>910</t>
         </is>
       </c>
       <c r="K46" s="1" t="inlineStr">
         <is>
-          <t>1067.100</t>
+          <t>930.500</t>
         </is>
       </c>
       <c r="L46" s="1" t="inlineStr">
         <is>
-          <t>brass cap location, Brass cap location, brass cap location</t>
+          <t>Brass cap location, Brass cap location, Brass cap location</t>
         </is>
       </c>
       <c r="M46" s="1" t="inlineStr"/>
@@ -7019,7 +6991,7 @@
       </c>
       <c r="P46" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q46" s="1" t="inlineStr"/>
@@ -7041,22 +7013,22 @@
       </c>
       <c r="V46" s="1" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="W46" s="1" t="inlineStr">
         <is>
-          <t>2010-08-13</t>
+          <t>2018-10-19</t>
         </is>
       </c>
       <c r="X46" s="1" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="Y46" s="1" t="inlineStr">
         <is>
-          <t>2019-10-24</t>
+          <t>2019-10-18</t>
         </is>
       </c>
       <c r="Z46" s="1" t="inlineStr">
@@ -7081,7 +7053,7 @@
       </c>
       <c r="AD46" s="1" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AE46" s="1" t="inlineStr">
@@ -7100,7 +7072,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>R-57 S1</t>
+          <t>R-57 S2</t>
         </is>
       </c>
       <c r="B47" s="1" t="inlineStr">
@@ -7125,7 +7097,7 @@
       </c>
       <c r="F47" s="1" t="inlineStr">
         <is>
-          <t>Tb4</t>
+          <t>Tpt</t>
         </is>
       </c>
       <c r="G47" s="1" t="inlineStr"/>
@@ -7133,12 +7105,12 @@
       <c r="I47" s="1" t="inlineStr"/>
       <c r="J47" s="1" t="inlineStr">
         <is>
-          <t>910</t>
+          <t>971.5</t>
         </is>
       </c>
       <c r="K47" s="1" t="inlineStr">
         <is>
-          <t>930.500</t>
+          <t>992.100</t>
         </is>
       </c>
       <c r="L47" s="1" t="inlineStr">
@@ -7155,7 +7127,7 @@
       </c>
       <c r="P47" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q47" s="1" t="inlineStr"/>
@@ -7187,7 +7159,7 @@
       </c>
       <c r="X47" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="Y47" s="1" t="inlineStr">
@@ -7217,7 +7189,7 @@
       </c>
       <c r="AD47" s="1" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AE47" s="1" t="inlineStr">
@@ -7225,11 +7197,7 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="AF47" s="1" t="inlineStr">
-        <is>
-          <t>Exceedance</t>
-        </is>
-      </c>
+      <c r="AF47" s="1" t="inlineStr"/>
       <c r="AG47" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -7240,7 +7208,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>R-57 S2</t>
+          <t>R-60</t>
         </is>
       </c>
       <c r="B48" s="1" t="inlineStr">
@@ -7250,55 +7218,71 @@
       </c>
       <c r="C48" s="1" t="inlineStr">
         <is>
-          <t>35.82987</t>
+          <t>35.86057</t>
         </is>
       </c>
       <c r="D48" s="1" t="inlineStr">
         <is>
-          <t>-106.23417</t>
+          <t>-106.29618</t>
         </is>
       </c>
       <c r="E48" s="1" t="inlineStr">
         <is>
-          <t>6648.04</t>
+          <t>7228.17</t>
         </is>
       </c>
       <c r="F48" s="1" t="inlineStr">
         <is>
-          <t>Tpt</t>
-        </is>
-      </c>
-      <c r="G48" s="1" t="inlineStr"/>
-      <c r="H48" s="1" t="inlineStr"/>
-      <c r="I48" s="1" t="inlineStr"/>
+          <t>Tpf</t>
+        </is>
+      </c>
+      <c r="G48" s="1" t="inlineStr">
+        <is>
+          <t>2010-10-18 00:00:00</t>
+        </is>
+      </c>
+      <c r="H48" s="1" t="inlineStr">
+        <is>
+          <t>1360.90</t>
+        </is>
+      </c>
+      <c r="I48" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="J48" s="1" t="inlineStr">
         <is>
-          <t>971.5</t>
+          <t>1330</t>
         </is>
       </c>
       <c r="K48" s="1" t="inlineStr">
         <is>
-          <t>992.100</t>
+          <t>1350.900</t>
         </is>
       </c>
       <c r="L48" s="1" t="inlineStr">
         <is>
-          <t>Brass cap location, Brass cap location, Brass cap location</t>
+          <t>Brass Cap location from well completion report, Brass Cap location from well completion report, Brass Cap location from well completion report</t>
         </is>
       </c>
       <c r="M48" s="1" t="inlineStr"/>
       <c r="N48" s="1" t="inlineStr"/>
       <c r="O48" s="1" t="inlineStr">
         <is>
-          <t>TA-54</t>
+          <t>MDA C</t>
         </is>
       </c>
       <c r="P48" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
-        </is>
-      </c>
-      <c r="Q48" s="1" t="inlineStr"/>
+          <t>Mortendad</t>
+        </is>
+      </c>
+      <c r="Q48" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="R48" s="1" t="inlineStr"/>
       <c r="S48" s="1" t="inlineStr">
         <is>
@@ -7317,22 +7301,22 @@
       </c>
       <c r="V48" s="1" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>8.06</t>
         </is>
       </c>
       <c r="W48" s="1" t="inlineStr">
         <is>
-          <t>2018-10-19</t>
+          <t>2011-07-26</t>
         </is>
       </c>
       <c r="X48" s="1" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="Y48" s="1" t="inlineStr">
         <is>
-          <t>2019-10-18</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="Z48" s="1" t="inlineStr">
@@ -7357,7 +7341,7 @@
       </c>
       <c r="AD48" s="1" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AE48" s="1" t="inlineStr">
@@ -7435,7 +7419,7 @@
       </c>
       <c r="P49" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q49" s="1" t="inlineStr"/>
@@ -7497,7 +7481,7 @@
       </c>
       <c r="AD49" s="1" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>99</t>
         </is>
       </c>
       <c r="AE49" s="1" t="inlineStr">
@@ -7587,7 +7571,7 @@
       </c>
       <c r="P50" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q50" s="1" t="inlineStr">
@@ -7739,7 +7723,7 @@
       </c>
       <c r="P51" s="1" t="inlineStr">
         <is>
-          <t>Lower Mortendad</t>
+          <t>Mortendad</t>
         </is>
       </c>
       <c r="Q51" s="1" t="inlineStr">
@@ -7941,7 +7925,7 @@
       </c>
       <c r="AD52" s="1" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AE52" s="1" t="inlineStr">
@@ -8037,12 +8021,12 @@
       </c>
       <c r="V53" s="1" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W53" s="1" t="inlineStr">
         <is>
-          <t>2008-05-20</t>
+          <t>2009-11-17</t>
         </is>
       </c>
       <c r="X53" s="1" t="inlineStr">
@@ -8077,7 +8061,7 @@
       </c>
       <c r="AD53" s="1" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>78</t>
         </is>
       </c>
       <c r="AE53" s="1" t="inlineStr">
@@ -8541,7 +8525,7 @@
       </c>
       <c r="AD56" s="1" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>50</t>
         </is>
       </c>
       <c r="AE56" s="1" t="inlineStr">
@@ -9109,12 +9093,12 @@
       </c>
       <c r="V60" s="1" t="inlineStr">
         <is>
-          <t>6.22</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W60" s="1" t="inlineStr">
         <is>
-          <t>2016-08-29</t>
+          <t>2011-12-08</t>
         </is>
       </c>
       <c r="X60" s="1" t="inlineStr">
@@ -9149,7 +9133,7 @@
       </c>
       <c r="AD60" s="1" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AE60" s="1" t="inlineStr">
@@ -9261,12 +9245,12 @@
       </c>
       <c r="V61" s="1" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W61" s="1" t="inlineStr">
         <is>
-          <t>2014-02-06</t>
+          <t>2012-01-16</t>
         </is>
       </c>
       <c r="X61" s="1" t="inlineStr">
@@ -9301,7 +9285,7 @@
       </c>
       <c r="AD61" s="1" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="AE61" s="1" t="inlineStr">
@@ -9437,7 +9421,7 @@
       </c>
       <c r="AD62" s="1" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>33</t>
         </is>
       </c>
       <c r="AE62" s="1" t="inlineStr">
@@ -9833,12 +9817,12 @@
       </c>
       <c r="V65" s="1" t="inlineStr">
         <is>
-          <t>7.46</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W65" s="1" t="inlineStr">
         <is>
-          <t>2015-12-09</t>
+          <t>2014-06-24</t>
         </is>
       </c>
       <c r="X65" s="1" t="inlineStr">
@@ -9873,7 +9857,7 @@
       </c>
       <c r="AD65" s="1" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
       <c r="AE65" s="1" t="inlineStr">
@@ -10009,7 +9993,7 @@
       </c>
       <c r="AD66" s="1" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>47</t>
         </is>
       </c>
       <c r="AE66" s="1" t="inlineStr">
@@ -10149,7 +10133,7 @@
       </c>
       <c r="AD67" s="1" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>46</t>
         </is>
       </c>
       <c r="AE67" s="1" t="inlineStr">
@@ -10289,7 +10273,7 @@
       </c>
       <c r="AD68" s="1" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>55</t>
         </is>
       </c>
       <c r="AE68" s="1" t="inlineStr">
@@ -10312,7 +10296,7 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>R-20 S1</t>
+          <t>R-19 S4</t>
         </is>
       </c>
       <c r="B69" s="1" t="inlineStr">
@@ -10322,22 +10306,22 @@
       </c>
       <c r="C69" s="1" t="inlineStr">
         <is>
-          <t>35.83635</t>
+          <t>35.83787</t>
         </is>
       </c>
       <c r="D69" s="1" t="inlineStr">
         <is>
-          <t>-106.25871</t>
+          <t>-106.28542</t>
         </is>
       </c>
       <c r="E69" s="1" t="inlineStr">
         <is>
-          <t>6694.35</t>
+          <t>7066.300</t>
         </is>
       </c>
       <c r="F69" s="1" t="inlineStr">
         <is>
-          <t>Tb4</t>
+          <t>Tpf</t>
         </is>
       </c>
       <c r="G69" s="1" t="inlineStr"/>
@@ -10345,24 +10329,28 @@
       <c r="I69" s="1" t="inlineStr"/>
       <c r="J69" s="1" t="inlineStr">
         <is>
-          <t>904.6</t>
+          <t>1410.2</t>
         </is>
       </c>
       <c r="K69" s="1" t="inlineStr">
         <is>
-          <t>912.200</t>
+          <t>1417.400</t>
         </is>
       </c>
       <c r="L69" s="1" t="inlineStr">
         <is>
-          <t>Location info taken from Brass Monument survey data from R-20 WCR., Location info taken from Brass Monument survey data from R-20 WCR.</t>
+          <t>Location info taken from Brass Cap survey data in R-19 WCR., Location info taken from Brass Cap survey data in R-19 WCR., Location info taken from Brass Cap survey data in R-19 WCR.</t>
         </is>
       </c>
       <c r="M69" s="1" t="inlineStr"/>
-      <c r="N69" s="1" t="inlineStr"/>
+      <c r="N69" s="1" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
       <c r="O69" s="1" t="inlineStr">
         <is>
-          <t>TA-54</t>
+          <t>General</t>
         </is>
       </c>
       <c r="P69" s="1" t="inlineStr">
@@ -10377,11 +10365,7 @@
           <t>[84]</t>
         </is>
       </c>
-      <c r="T69" s="1" t="inlineStr">
-        <is>
-          <t>Ground Elevation updated from MW</t>
-        </is>
-      </c>
+      <c r="T69" s="1" t="inlineStr"/>
       <c r="U69" s="1" t="inlineStr">
         <is>
           <t>Well Info</t>
@@ -10389,22 +10373,22 @@
       </c>
       <c r="V69" s="1" t="inlineStr">
         <is>
-          <t>6.7918</t>
+          <t>37.3</t>
         </is>
       </c>
       <c r="W69" s="1" t="inlineStr">
         <is>
-          <t>2007-11-30</t>
+          <t>2006-08-16</t>
         </is>
       </c>
       <c r="X69" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y69" s="1" t="inlineStr">
         <is>
-          <t>2019-10-23</t>
+          <t>2015-04-15</t>
         </is>
       </c>
       <c r="Z69" s="1" t="inlineStr">
@@ -10429,7 +10413,7 @@
       </c>
       <c r="AD69" s="1" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>59</t>
         </is>
       </c>
       <c r="AE69" s="1" t="inlineStr">
@@ -10437,7 +10421,11 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="AF69" s="1" t="inlineStr"/>
+      <c r="AF69" s="1" t="inlineStr">
+        <is>
+          <t>Exceedance</t>
+        </is>
+      </c>
       <c r="AG69" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -10448,7 +10436,7 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>R-20 S2</t>
+          <t>R-20 S1</t>
         </is>
       </c>
       <c r="B70" s="1" t="inlineStr">
@@ -10473,7 +10461,7 @@
       </c>
       <c r="F70" s="1" t="inlineStr">
         <is>
-          <t>Tjfp</t>
+          <t>Tb4</t>
         </is>
       </c>
       <c r="G70" s="1" t="inlineStr"/>
@@ -10481,12 +10469,12 @@
       <c r="I70" s="1" t="inlineStr"/>
       <c r="J70" s="1" t="inlineStr">
         <is>
-          <t>1147.1</t>
+          <t>904.6</t>
         </is>
       </c>
       <c r="K70" s="1" t="inlineStr">
         <is>
-          <t>1154.700</t>
+          <t>912.200</t>
         </is>
       </c>
       <c r="L70" s="1" t="inlineStr">
@@ -10525,12 +10513,12 @@
       </c>
       <c r="V70" s="1" t="inlineStr">
         <is>
-          <t>9.5487</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W70" s="1" t="inlineStr">
         <is>
-          <t>2007-12-03</t>
+          <t>2009-09-02</t>
         </is>
       </c>
       <c r="X70" s="1" t="inlineStr">
@@ -10540,7 +10528,7 @@
       </c>
       <c r="Y70" s="1" t="inlineStr">
         <is>
-          <t>2019-10-17</t>
+          <t>2019-10-23</t>
         </is>
       </c>
       <c r="Z70" s="1" t="inlineStr">
@@ -10565,7 +10553,7 @@
       </c>
       <c r="AD70" s="1" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>121</t>
         </is>
       </c>
       <c r="AE70" s="1" t="inlineStr">
@@ -10573,11 +10561,7 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="AF70" s="1" t="inlineStr">
-        <is>
-          <t>Exceedance</t>
-        </is>
-      </c>
+      <c r="AF70" s="1" t="inlineStr"/>
       <c r="AG70" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -10588,7 +10572,7 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>R-32 S1</t>
+          <t>R-20 S2</t>
         </is>
       </c>
       <c r="B71" s="1" t="inlineStr">
@@ -10598,22 +10582,22 @@
       </c>
       <c r="C71" s="1" t="inlineStr">
         <is>
-          <t>35.83095</t>
+          <t>35.83635</t>
         </is>
       </c>
       <c r="D71" s="1" t="inlineStr">
         <is>
-          <t>-106.24872</t>
+          <t>-106.25871</t>
         </is>
       </c>
       <c r="E71" s="1" t="inlineStr">
         <is>
-          <t>6637.63</t>
+          <t>6694.35</t>
         </is>
       </c>
       <c r="F71" s="1" t="inlineStr">
         <is>
-          <t>Tpt</t>
+          <t>Tjfp</t>
         </is>
       </c>
       <c r="G71" s="1" t="inlineStr"/>
@@ -10621,17 +10605,17 @@
       <c r="I71" s="1" t="inlineStr"/>
       <c r="J71" s="1" t="inlineStr">
         <is>
-          <t>867.5</t>
+          <t>1147.1</t>
         </is>
       </c>
       <c r="K71" s="1" t="inlineStr">
         <is>
-          <t>875.200</t>
+          <t>1154.700</t>
         </is>
       </c>
       <c r="L71" s="1" t="inlineStr">
         <is>
-          <t>Location info taken from Brass cap monument survey data from R-32 WCR., Location info taken from Brass cap monument survey data from R-32 WCR.</t>
+          <t>Location info taken from Brass Monument survey data from R-20 WCR., Location info taken from Brass Monument survey data from R-20 WCR.</t>
         </is>
       </c>
       <c r="M71" s="1" t="inlineStr"/>
@@ -10665,12 +10649,12 @@
       </c>
       <c r="V71" s="1" t="inlineStr">
         <is>
-          <t>24.3</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W71" s="1" t="inlineStr">
         <is>
-          <t>2007-03-26</t>
+          <t>2008-06-23</t>
         </is>
       </c>
       <c r="X71" s="1" t="inlineStr">
@@ -10680,7 +10664,7 @@
       </c>
       <c r="Y71" s="1" t="inlineStr">
         <is>
-          <t>2019-10-15</t>
+          <t>2019-10-17</t>
         </is>
       </c>
       <c r="Z71" s="1" t="inlineStr">
@@ -10705,7 +10689,7 @@
       </c>
       <c r="AD71" s="1" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>130</t>
         </is>
       </c>
       <c r="AE71" s="1" t="inlineStr">
@@ -10728,7 +10712,7 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>R-39</t>
+          <t>R-32 S1</t>
         </is>
       </c>
       <c r="B72" s="1" t="inlineStr">
@@ -10738,52 +10722,40 @@
       </c>
       <c r="C72" s="1" t="inlineStr">
         <is>
-          <t>35.82754</t>
+          <t>35.83095</t>
         </is>
       </c>
       <c r="D72" s="1" t="inlineStr">
         <is>
-          <t>-106.23455</t>
+          <t>-106.24872</t>
         </is>
       </c>
       <c r="E72" s="1" t="inlineStr">
         <is>
-          <t>6580.86</t>
+          <t>6637.63</t>
         </is>
       </c>
       <c r="F72" s="1" t="inlineStr">
         <is>
-          <t>Tpf</t>
-        </is>
-      </c>
-      <c r="G72" s="1" t="inlineStr">
-        <is>
-          <t>2008-11-24 00:00:00</t>
-        </is>
-      </c>
-      <c r="H72" s="1" t="inlineStr">
-        <is>
-          <t>875.60</t>
-        </is>
-      </c>
-      <c r="I72" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>Tpt</t>
+        </is>
+      </c>
+      <c r="G72" s="1" t="inlineStr"/>
+      <c r="H72" s="1" t="inlineStr"/>
+      <c r="I72" s="1" t="inlineStr"/>
       <c r="J72" s="1" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>867.5</t>
         </is>
       </c>
       <c r="K72" s="1" t="inlineStr">
         <is>
-          <t>869.000</t>
+          <t>875.200</t>
         </is>
       </c>
       <c r="L72" s="1" t="inlineStr">
         <is>
-          <t>Brass cap location, Brass cap location</t>
+          <t>Location info taken from Brass cap monument survey data from R-32 WCR., Location info taken from Brass cap monument survey data from R-32 WCR.</t>
         </is>
       </c>
       <c r="M72" s="1" t="inlineStr"/>
@@ -10798,11 +10770,7 @@
           <t>Pajarito</t>
         </is>
       </c>
-      <c r="Q72" s="1" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+      <c r="Q72" s="1" t="inlineStr"/>
       <c r="R72" s="1" t="inlineStr"/>
       <c r="S72" s="1" t="inlineStr">
         <is>
@@ -10821,12 +10789,12 @@
       </c>
       <c r="V72" s="1" t="inlineStr">
         <is>
-          <t>7.25</t>
+          <t>24.3</t>
         </is>
       </c>
       <c r="W72" s="1" t="inlineStr">
         <is>
-          <t>2011-07-28</t>
+          <t>2007-03-26</t>
         </is>
       </c>
       <c r="X72" s="1" t="inlineStr">
@@ -10836,7 +10804,7 @@
       </c>
       <c r="Y72" s="1" t="inlineStr">
         <is>
-          <t>2019-10-23</t>
+          <t>2019-10-15</t>
         </is>
       </c>
       <c r="Z72" s="1" t="inlineStr">
@@ -10861,7 +10829,7 @@
       </c>
       <c r="AD72" s="1" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>71</t>
         </is>
       </c>
       <c r="AE72" s="1" t="inlineStr">
@@ -10869,7 +10837,11 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="AF72" s="1" t="inlineStr"/>
+      <c r="AF72" s="1" t="inlineStr">
+        <is>
+          <t>Exceedance</t>
+        </is>
+      </c>
       <c r="AG72" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -10880,7 +10852,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>R-40 S2</t>
+          <t>R-39</t>
         </is>
       </c>
       <c r="B73" s="1" t="inlineStr">
@@ -10890,17 +10862,17 @@
       </c>
       <c r="C73" s="1" t="inlineStr">
         <is>
-          <t>35.83939</t>
+          <t>35.82754</t>
         </is>
       </c>
       <c r="D73" s="1" t="inlineStr">
         <is>
-          <t>-106.26278</t>
+          <t>-106.23455</t>
         </is>
       </c>
       <c r="E73" s="1" t="inlineStr">
         <is>
-          <t>6719.24</t>
+          <t>6580.86</t>
         </is>
       </c>
       <c r="F73" s="1" t="inlineStr">
@@ -10908,17 +10880,29 @@
           <t>Tpf</t>
         </is>
       </c>
-      <c r="G73" s="1" t="inlineStr"/>
-      <c r="H73" s="1" t="inlineStr"/>
-      <c r="I73" s="1" t="inlineStr"/>
+      <c r="G73" s="1" t="inlineStr">
+        <is>
+          <t>2008-11-24 00:00:00</t>
+        </is>
+      </c>
+      <c r="H73" s="1" t="inlineStr">
+        <is>
+          <t>875.60</t>
+        </is>
+      </c>
+      <c r="I73" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="J73" s="1" t="inlineStr">
         <is>
-          <t>849.27</t>
+          <t>859</t>
         </is>
       </c>
       <c r="K73" s="1" t="inlineStr">
         <is>
-          <t>870.000</t>
+          <t>869.000</t>
         </is>
       </c>
       <c r="L73" s="1" t="inlineStr">
@@ -10938,7 +10922,11 @@
           <t>Pajarito</t>
         </is>
       </c>
-      <c r="Q73" s="1" t="inlineStr"/>
+      <c r="Q73" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="R73" s="1" t="inlineStr"/>
       <c r="S73" s="1" t="inlineStr">
         <is>
@@ -10957,12 +10945,12 @@
       </c>
       <c r="V73" s="1" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="W73" s="1" t="inlineStr">
         <is>
-          <t>2010-02-23</t>
+          <t>2011-07-28</t>
         </is>
       </c>
       <c r="X73" s="1" t="inlineStr">
@@ -10972,7 +10960,7 @@
       </c>
       <c r="Y73" s="1" t="inlineStr">
         <is>
-          <t>2019-10-30</t>
+          <t>2019-10-23</t>
         </is>
       </c>
       <c r="Z73" s="1" t="inlineStr">
@@ -10997,7 +10985,7 @@
       </c>
       <c r="AD73" s="1" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AE73" s="1" t="inlineStr">
@@ -11016,7 +11004,7 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>R-49 S1</t>
+          <t>R-40 S2</t>
         </is>
       </c>
       <c r="B74" s="1" t="inlineStr">
@@ -11026,22 +11014,22 @@
       </c>
       <c r="C74" s="1" t="inlineStr">
         <is>
-          <t>35.8273</t>
+          <t>35.83939</t>
         </is>
       </c>
       <c r="D74" s="1" t="inlineStr">
         <is>
-          <t>-106.23825</t>
+          <t>-106.26278</t>
         </is>
       </c>
       <c r="E74" s="1" t="inlineStr">
         <is>
-          <t>6584.54</t>
+          <t>6719.24</t>
         </is>
       </c>
       <c r="F74" s="1" t="inlineStr">
         <is>
-          <t>Tb4</t>
+          <t>Tpf</t>
         </is>
       </c>
       <c r="G74" s="1" t="inlineStr"/>
@@ -11049,17 +11037,17 @@
       <c r="I74" s="1" t="inlineStr"/>
       <c r="J74" s="1" t="inlineStr">
         <is>
-          <t>845</t>
+          <t>849.27</t>
         </is>
       </c>
       <c r="K74" s="1" t="inlineStr">
         <is>
-          <t>855.000</t>
+          <t>870.000</t>
         </is>
       </c>
       <c r="L74" s="1" t="inlineStr">
         <is>
-          <t>Brass cap location, Brass cap location, Coordinates supplied by Dave Broxton</t>
+          <t>Brass cap location, Brass cap location</t>
         </is>
       </c>
       <c r="M74" s="1" t="inlineStr"/>
@@ -11093,12 +11081,12 @@
       </c>
       <c r="V74" s="1" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W74" s="1" t="inlineStr">
         <is>
-          <t>2010-03-03</t>
+          <t>2009-09-03</t>
         </is>
       </c>
       <c r="X74" s="1" t="inlineStr">
@@ -11108,7 +11096,7 @@
       </c>
       <c r="Y74" s="1" t="inlineStr">
         <is>
-          <t>2019-10-29</t>
+          <t>2019-10-30</t>
         </is>
       </c>
       <c r="Z74" s="1" t="inlineStr">
@@ -11133,7 +11121,7 @@
       </c>
       <c r="AD74" s="1" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>31</t>
         </is>
       </c>
       <c r="AE74" s="1" t="inlineStr">
@@ -11141,11 +11129,7 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="AF74" s="1" t="inlineStr">
-        <is>
-          <t>Exceedance</t>
-        </is>
-      </c>
+      <c r="AF74" s="1" t="inlineStr"/>
       <c r="AG74" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -11156,7 +11140,7 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>R-49 S2</t>
+          <t>R-49 S1</t>
         </is>
       </c>
       <c r="B75" s="1" t="inlineStr">
@@ -11181,7 +11165,7 @@
       </c>
       <c r="F75" s="1" t="inlineStr">
         <is>
-          <t>Tpt</t>
+          <t>Tb4</t>
         </is>
       </c>
       <c r="G75" s="1" t="inlineStr"/>
@@ -11189,17 +11173,17 @@
       <c r="I75" s="1" t="inlineStr"/>
       <c r="J75" s="1" t="inlineStr">
         <is>
-          <t>905.6</t>
+          <t>845</t>
         </is>
       </c>
       <c r="K75" s="1" t="inlineStr">
         <is>
-          <t>926.400</t>
+          <t>855.000</t>
         </is>
       </c>
       <c r="L75" s="1" t="inlineStr">
         <is>
-          <t>Coordinates supplied by Dave Broxton, Brass cap location, Brass cap location</t>
+          <t>Brass cap location, Brass cap location, Coordinates supplied by Dave Broxton</t>
         </is>
       </c>
       <c r="M75" s="1" t="inlineStr"/>
@@ -11233,12 +11217,12 @@
       </c>
       <c r="V75" s="1" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W75" s="1" t="inlineStr">
         <is>
-          <t>2010-06-09</t>
+          <t>2009-06-23</t>
         </is>
       </c>
       <c r="X75" s="1" t="inlineStr">
@@ -11273,7 +11257,7 @@
       </c>
       <c r="AD75" s="1" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AE75" s="1" t="inlineStr">
@@ -11281,7 +11265,11 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="AF75" s="1" t="inlineStr"/>
+      <c r="AF75" s="1" t="inlineStr">
+        <is>
+          <t>Exceedance</t>
+        </is>
+      </c>
       <c r="AG75" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -11292,7 +11280,7 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>R-51 S1</t>
+          <t>R-49 S2</t>
         </is>
       </c>
       <c r="B76" s="1" t="inlineStr">
@@ -11302,22 +11290,22 @@
       </c>
       <c r="C76" s="1" t="inlineStr">
         <is>
-          <t>35.84263</t>
+          <t>35.8273</t>
         </is>
       </c>
       <c r="D76" s="1" t="inlineStr">
         <is>
-          <t>-106.26934</t>
+          <t>-106.23825</t>
         </is>
       </c>
       <c r="E76" s="1" t="inlineStr">
         <is>
-          <t>6762.17</t>
+          <t>6584.54</t>
         </is>
       </c>
       <c r="F76" s="1" t="inlineStr">
         <is>
-          <t>Tpf</t>
+          <t>Tpt</t>
         </is>
       </c>
       <c r="G76" s="1" t="inlineStr"/>
@@ -11325,17 +11313,17 @@
       <c r="I76" s="1" t="inlineStr"/>
       <c r="J76" s="1" t="inlineStr">
         <is>
-          <t>914.96</t>
+          <t>905.6</t>
         </is>
       </c>
       <c r="K76" s="1" t="inlineStr">
         <is>
-          <t>925.240</t>
+          <t>926.400</t>
         </is>
       </c>
       <c r="L76" s="1" t="inlineStr">
         <is>
-          <t>brass cap location, brass cap location, Brass cap location</t>
+          <t>Coordinates supplied by Dave Broxton, Brass cap location, Brass cap location</t>
         </is>
       </c>
       <c r="M76" s="1" t="inlineStr"/>
@@ -11369,12 +11357,12 @@
       </c>
       <c r="V76" s="1" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W76" s="1" t="inlineStr">
         <is>
-          <t>2011-07-28</t>
+          <t>2010-03-05</t>
         </is>
       </c>
       <c r="X76" s="1" t="inlineStr">
@@ -11409,7 +11397,7 @@
       </c>
       <c r="AD76" s="1" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>31</t>
         </is>
       </c>
       <c r="AE76" s="1" t="inlineStr">
@@ -11428,7 +11416,7 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>R-51 S2</t>
+          <t>R-51 S1</t>
         </is>
       </c>
       <c r="B77" s="1" t="inlineStr">
@@ -11461,17 +11449,17 @@
       <c r="I77" s="1" t="inlineStr"/>
       <c r="J77" s="1" t="inlineStr">
         <is>
-          <t>1030.96</t>
+          <t>914.96</t>
         </is>
       </c>
       <c r="K77" s="1" t="inlineStr">
         <is>
-          <t>1041.000</t>
+          <t>925.240</t>
         </is>
       </c>
       <c r="L77" s="1" t="inlineStr">
         <is>
-          <t>brass cap location, Brass cap location, brass cap location</t>
+          <t>brass cap location, brass cap location, Brass cap location</t>
         </is>
       </c>
       <c r="M77" s="1" t="inlineStr"/>
@@ -11505,12 +11493,12 @@
       </c>
       <c r="V77" s="1" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W77" s="1" t="inlineStr">
         <is>
-          <t>2011-07-28</t>
+          <t>2010-03-08</t>
         </is>
       </c>
       <c r="X77" s="1" t="inlineStr">
@@ -11564,7 +11552,7 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>R-54 S2</t>
+          <t>R-51 S2</t>
         </is>
       </c>
       <c r="B78" s="1" t="inlineStr">
@@ -11574,17 +11562,17 @@
       </c>
       <c r="C78" s="1" t="inlineStr">
         <is>
-          <t>35.83609</t>
+          <t>35.84263</t>
         </is>
       </c>
       <c r="D78" s="1" t="inlineStr">
         <is>
-          <t>-106.25544</t>
+          <t>-106.26934</t>
         </is>
       </c>
       <c r="E78" s="1" t="inlineStr">
         <is>
-          <t>6679.85</t>
+          <t>6762.17</t>
         </is>
       </c>
       <c r="F78" s="1" t="inlineStr">
@@ -11597,17 +11585,17 @@
       <c r="I78" s="1" t="inlineStr"/>
       <c r="J78" s="1" t="inlineStr">
         <is>
-          <t>915</t>
+          <t>1030.96</t>
         </is>
       </c>
       <c r="K78" s="1" t="inlineStr">
         <is>
-          <t>925.000</t>
+          <t>1041.000</t>
         </is>
       </c>
       <c r="L78" s="1" t="inlineStr">
         <is>
-          <t>Brass Cap location, Brass Cap location, Brass cap location</t>
+          <t>brass cap location, Brass cap location, brass cap location</t>
         </is>
       </c>
       <c r="M78" s="1" t="inlineStr"/>
@@ -11641,60 +11629,196 @@
       </c>
       <c r="V78" s="1" t="inlineStr">
         <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="W78" s="1" t="inlineStr">
+        <is>
+          <t>2010-10-19</t>
+        </is>
+      </c>
+      <c r="X78" s="1" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="Y78" s="1" t="inlineStr">
+        <is>
+          <t>2019-10-29</t>
+        </is>
+      </c>
+      <c r="Z78" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AA78" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AB78" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AC78" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AD78" s="1" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AE78" s="1" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="AF78" s="1" t="inlineStr"/>
+      <c r="AG78" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Substantial
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>R-54 S2</t>
+        </is>
+      </c>
+      <c r="B79" s="1" t="inlineStr">
+        <is>
+          <t>Regional</t>
+        </is>
+      </c>
+      <c r="C79" s="1" t="inlineStr">
+        <is>
+          <t>35.83609</t>
+        </is>
+      </c>
+      <c r="D79" s="1" t="inlineStr">
+        <is>
+          <t>-106.25544</t>
+        </is>
+      </c>
+      <c r="E79" s="1" t="inlineStr">
+        <is>
+          <t>6679.85</t>
+        </is>
+      </c>
+      <c r="F79" s="1" t="inlineStr">
+        <is>
+          <t>Tpf</t>
+        </is>
+      </c>
+      <c r="G79" s="1" t="inlineStr"/>
+      <c r="H79" s="1" t="inlineStr"/>
+      <c r="I79" s="1" t="inlineStr"/>
+      <c r="J79" s="1" t="inlineStr">
+        <is>
+          <t>915</t>
+        </is>
+      </c>
+      <c r="K79" s="1" t="inlineStr">
+        <is>
+          <t>925.000</t>
+        </is>
+      </c>
+      <c r="L79" s="1" t="inlineStr">
+        <is>
+          <t>Brass Cap location, Brass Cap location, Brass cap location</t>
+        </is>
+      </c>
+      <c r="M79" s="1" t="inlineStr"/>
+      <c r="N79" s="1" t="inlineStr"/>
+      <c r="O79" s="1" t="inlineStr">
+        <is>
+          <t>TA-54</t>
+        </is>
+      </c>
+      <c r="P79" s="1" t="inlineStr">
+        <is>
+          <t>Pajarito</t>
+        </is>
+      </c>
+      <c r="Q79" s="1" t="inlineStr"/>
+      <c r="R79" s="1" t="inlineStr"/>
+      <c r="S79" s="1" t="inlineStr">
+        <is>
+          <t>[84]</t>
+        </is>
+      </c>
+      <c r="T79" s="1" t="inlineStr">
+        <is>
+          <t>Ground Elevation updated from MW</t>
+        </is>
+      </c>
+      <c r="U79" s="1" t="inlineStr">
+        <is>
+          <t>Well Info</t>
+        </is>
+      </c>
+      <c r="V79" s="1" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="W79" s="1" t="inlineStr">
+        <is>
+          <t>2010-02-21</t>
+        </is>
+      </c>
+      <c r="X79" s="1" t="inlineStr">
+        <is>
           <t>9.03</t>
         </is>
       </c>
-      <c r="W78" s="1" t="inlineStr">
+      <c r="Y79" s="1" t="inlineStr">
         <is>
           <t>2019-10-21</t>
         </is>
       </c>
-      <c r="X78" s="1" t="inlineStr">
-        <is>
-          <t>9.03</t>
-        </is>
-      </c>
-      <c r="Y78" s="1" t="inlineStr">
-        <is>
-          <t>2019-10-21</t>
-        </is>
-      </c>
-      <c r="Z78" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AA78" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AB78" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AC78" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AD78" s="1" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="AE78" s="1" t="inlineStr">
+      <c r="Z79" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AA79" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AB79" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AC79" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="AD79" s="1" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AE79" s="1" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="AF78" s="1" t="inlineStr">
+      <c r="AF79" s="1" t="inlineStr">
         <is>
           <t>Exceedance</t>
         </is>
       </c>
-      <c r="AG78" s="1" t="inlineStr">
+      <c r="AG79" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
 </t>
@@ -11820,12 +11944,12 @@
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H4" s="1" t="inlineStr">
         <is>
-          <t>5/20/08</t>
+          <t>11/17/09</t>
         </is>
       </c>
     </row>
@@ -12270,1851 +12394,1877 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>R-14 S1</t>
+          <t>CrEX-3</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>35.86178</t>
+          <t>35.85967</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>-106.28565</t>
+          <t>-106.25495</t>
         </is>
       </c>
       <c r="D17" s="1" t="inlineStr"/>
-      <c r="E17" s="1" t="inlineStr"/>
+      <c r="E17" s="1" t="inlineStr">
+        <is>
+          <t>1004.5</t>
+        </is>
+      </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>1200.6 - 1233.2</t>
+          <t>909.6 - 948.8</t>
         </is>
       </c>
       <c r="G17" s="1" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>193</t>
         </is>
       </c>
       <c r="H17" s="1" t="inlineStr">
         <is>
-          <t>11/9/18</t>
+          <t>2/27/19</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>R-46</t>
+          <t>PM-4</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>35.85966</t>
+          <t>35.85021</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>-106.29382</t>
+          <t>-106.26618</t>
         </is>
       </c>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>2/26/09</t>
+          <t>8/15/81</t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>1382.2</t>
+          <t>2874</t>
         </is>
       </c>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>1340 - 1360.7</t>
+          <t>1260 - 2854</t>
         </is>
       </c>
       <c r="G18" s="1" t="inlineStr">
         <is>
-          <t>13.7</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H18" s="1" t="inlineStr">
         <is>
-          <t>3/11/09</t>
+          <t>5/16/16</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>R-60</t>
+          <t>PM-5</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>35.86057</t>
+          <t>35.85858</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>-106.29618</t>
+          <t>-106.27803</t>
         </is>
       </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>10/18/10</t>
+          <t>9/1/82</t>
         </is>
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>1360.9</t>
+          <t>3092</t>
         </is>
       </c>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>1330 - 1350.9</t>
+          <t>1440 - 3072</t>
         </is>
       </c>
       <c r="G19" s="1" t="inlineStr">
         <is>
-          <t>8.06</t>
+          <t>15.6</t>
         </is>
       </c>
       <c r="H19" s="1" t="inlineStr">
         <is>
-          <t>7/26/11</t>
+          <t>5/16/07</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="inlineStr">
-        <is>
-          <t>Mortendad Canyon</t>
-        </is>
-      </c>
-      <c r="H20" s="5" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>R-1</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>35.86356</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>-106.27721</t>
+        </is>
+      </c>
+      <c r="D20" s="1" t="inlineStr">
+        <is>
+          <t>3/12/04</t>
+        </is>
+      </c>
+      <c r="E20" s="1" t="inlineStr">
+        <is>
+          <t>1080.1</t>
+        </is>
+      </c>
+      <c r="F20" s="1" t="inlineStr">
+        <is>
+          <t>1031.12 - 1057.42</t>
+        </is>
+      </c>
+      <c r="G20" s="1" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="H20" s="1" t="inlineStr">
+        <is>
+          <t>5/4/16</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>CrEX-3</t>
+          <t>R-13</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>35.85967</t>
+          <t>35.8564</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>-106.25495</t>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr"/>
+          <t>-106.24806</t>
+        </is>
+      </c>
+      <c r="D21" s="1" t="inlineStr">
+        <is>
+          <t>10/6/01</t>
+        </is>
+      </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>1004.5</t>
+          <t>1029.4</t>
         </is>
       </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>909.6 - 948.8</t>
+          <t>958.33 - 1018.72</t>
         </is>
       </c>
       <c r="G21" s="1" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>12.7</t>
         </is>
       </c>
       <c r="H21" s="1" t="inlineStr">
         <is>
-          <t>2/27/19</t>
+          <t>4/30/09</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>PM-4</t>
+          <t>R-14 S1</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>35.85021</t>
+          <t>35.86178</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>-106.26618</t>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
-        <is>
-          <t>8/15/81</t>
-        </is>
-      </c>
-      <c r="E22" s="1" t="inlineStr">
-        <is>
-          <t>2874</t>
-        </is>
-      </c>
+          <t>-106.28565</t>
+        </is>
+      </c>
+      <c r="D22" s="1" t="inlineStr"/>
+      <c r="E22" s="1" t="inlineStr"/>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>1260 - 2854</t>
+          <t>1200.6 - 1233.2</t>
         </is>
       </c>
       <c r="G22" s="1" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H22" s="1" t="inlineStr">
         <is>
-          <t>5/16/16</t>
+          <t>11/9/18</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>PM-5</t>
+          <t>R-15</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>35.85858</t>
+          <t>35.85991</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>-106.27803</t>
+          <t>-106.26724</t>
         </is>
       </c>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>9/1/82</t>
+          <t>10/30/99</t>
         </is>
       </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>3092</t>
+          <t>1030.6</t>
         </is>
       </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>1440 - 3072</t>
+          <t>958.6 - 1020.3</t>
         </is>
       </c>
       <c r="G23" s="1" t="inlineStr">
         <is>
-          <t>15.6</t>
+          <t>18.2</t>
         </is>
       </c>
       <c r="H23" s="1" t="inlineStr">
         <is>
-          <t>5/16/07</t>
+          <t>2/11/10</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>R-1</t>
+          <t>R-21</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>35.86356</t>
+          <t>35.83483</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>-106.27721</t>
+          <t>-106.24707</t>
         </is>
       </c>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>3/12/04</t>
+          <t>11/26/02</t>
         </is>
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>1080.1</t>
+          <t>941.4</t>
         </is>
       </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>1031.12 - 1057.42</t>
+          <t>888.8 - 906.8</t>
         </is>
       </c>
       <c r="G24" s="1" t="inlineStr">
         <is>
-          <t>9.76</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H24" s="1" t="inlineStr">
         <is>
-          <t>5/4/16</t>
+          <t>5/23/08</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>R-13</t>
+          <t>R-23</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>35.8564</t>
+          <t>35.8239</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>-106.24806</t>
+          <t>-106.22471</t>
         </is>
       </c>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>10/6/01</t>
+          <t>10/2/02</t>
         </is>
       </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>1029.4</t>
+          <t>886.3</t>
         </is>
       </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>958.33 - 1018.72</t>
+          <t>816 - 873.2</t>
         </is>
       </c>
       <c r="G25" s="1" t="inlineStr">
         <is>
-          <t>12.7</t>
+          <t>20.1</t>
         </is>
       </c>
       <c r="H25" s="1" t="inlineStr">
         <is>
-          <t>4/30/09</t>
+          <t>2/25/09</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>R-15</t>
+          <t>R-28</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>35.85991</t>
+          <t>35.86015</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>-106.26724</t>
+          <t>-106.25482</t>
         </is>
       </c>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>10/30/99</t>
+          <t>12/17/03</t>
         </is>
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>1030.6</t>
+          <t>980.3</t>
         </is>
       </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>958.6 - 1020.3</t>
+          <t>934.3 - 958.1</t>
         </is>
       </c>
       <c r="G26" s="1" t="inlineStr">
         <is>
-          <t>18.2</t>
+          <t>605</t>
         </is>
       </c>
       <c r="H26" s="1" t="inlineStr">
         <is>
-          <t>2/11/10</t>
+          <t>2/7/17</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>R-21</t>
+          <t>R-33 S1</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>35.83483</t>
+          <t>35.86062</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>-106.24707</t>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
-        <is>
-          <t>11/26/02</t>
-        </is>
-      </c>
-      <c r="E27" s="1" t="inlineStr">
-        <is>
-          <t>941.4</t>
-        </is>
-      </c>
+          <t>-106.27368</t>
+        </is>
+      </c>
+      <c r="D27" s="1" t="inlineStr"/>
+      <c r="E27" s="1" t="inlineStr"/>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>888.8 - 906.8</t>
+          <t>995.5 - 1018.5</t>
         </is>
       </c>
       <c r="G27" s="1" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>12.3</t>
         </is>
       </c>
       <c r="H27" s="1" t="inlineStr">
         <is>
-          <t>5/23/08</t>
+          <t>9/14/05</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>R-23</t>
+          <t>R-33 S2</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>35.8239</t>
+          <t>35.86062</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>-106.22471</t>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
-        <is>
-          <t>10/2/02</t>
-        </is>
-      </c>
-      <c r="E28" s="1" t="inlineStr">
-        <is>
-          <t>886.3</t>
-        </is>
-      </c>
+          <t>-106.27368</t>
+        </is>
+      </c>
+      <c r="D28" s="1" t="inlineStr"/>
+      <c r="E28" s="1" t="inlineStr"/>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t>816 - 873.2</t>
+          <t>1112.4 - 1122.3</t>
         </is>
       </c>
       <c r="G28" s="1" t="inlineStr">
         <is>
-          <t>20.1</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="H28" s="1" t="inlineStr">
         <is>
-          <t>2/25/09</t>
+          <t>11/19/07</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>R-28</t>
+          <t>R-34</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>35.86015</t>
+          <t>35.84825</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>-106.25482</t>
+          <t>-106.23927</t>
         </is>
       </c>
       <c r="D29" s="1" t="inlineStr">
         <is>
-          <t>12/17/03</t>
+          <t>9/10/04</t>
         </is>
       </c>
       <c r="E29" s="1" t="inlineStr">
         <is>
-          <t>980.3</t>
+          <t>920.7</t>
         </is>
       </c>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>934.3 - 958.1</t>
+          <t>883.7 - 906.6</t>
         </is>
       </c>
       <c r="G29" s="1" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H29" s="1" t="inlineStr">
         <is>
-          <t>2/7/17</t>
+          <t>11/10/11</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>R-33 S1</t>
+          <t>R-37 S2</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>35.86062</t>
+          <t>35.84437</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>-106.27368</t>
+          <t>-106.25873</t>
         </is>
       </c>
       <c r="D30" s="1" t="inlineStr"/>
       <c r="E30" s="1" t="inlineStr"/>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>995.5 - 1018.5</t>
+          <t>1026 - 1046.6</t>
         </is>
       </c>
       <c r="G30" s="1" t="inlineStr">
         <is>
-          <t>12.3</t>
+          <t>21.5</t>
         </is>
       </c>
       <c r="H30" s="1" t="inlineStr">
         <is>
-          <t>9/14/05</t>
+          <t>10/14/10</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>R-33 S2</t>
+          <t>R-38</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>35.86062</t>
+          <t>35.83783</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>-106.27368</t>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr"/>
-      <c r="E31" s="1" t="inlineStr"/>
+          <t>-106.24804</t>
+        </is>
+      </c>
+      <c r="D31" s="1" t="inlineStr">
+        <is>
+          <t>12/7/08</t>
+        </is>
+      </c>
+      <c r="E31" s="1" t="inlineStr">
+        <is>
+          <t>853.4</t>
+        </is>
+      </c>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t>1112.4 - 1122.3</t>
+          <t>821.2 - 831.2</t>
         </is>
       </c>
       <c r="G31" s="1" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>11.9</t>
         </is>
       </c>
       <c r="H31" s="1" t="inlineStr">
         <is>
-          <t>11/19/07</t>
+          <t>2/6/09</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>R-34</t>
+          <t>R-41 S2</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>35.84825</t>
+          <t>35.83099</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>-106.23927</t>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
-        <is>
-          <t>9/10/04</t>
-        </is>
-      </c>
-      <c r="E32" s="1" t="inlineStr">
-        <is>
-          <t>920.7</t>
-        </is>
-      </c>
+          <t>-106.23381</t>
+        </is>
+      </c>
+      <c r="D32" s="1" t="inlineStr"/>
+      <c r="E32" s="1" t="inlineStr"/>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>883.7 - 906.6</t>
+          <t>965.3 - 975</t>
         </is>
       </c>
       <c r="G32" s="1" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H32" s="1" t="inlineStr">
         <is>
-          <t>11/10/11</t>
+          <t>9/1/09</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>R-37 S2</t>
+          <t>R-42</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>35.84437</t>
+          <t>35.86129</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>-106.25873</t>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr"/>
-      <c r="E33" s="1" t="inlineStr"/>
+          <t>-106.25914</t>
+        </is>
+      </c>
+      <c r="D33" s="1" t="inlineStr">
+        <is>
+          <t>8/27/08</t>
+        </is>
+      </c>
+      <c r="E33" s="1" t="inlineStr">
+        <is>
+          <t>973.5</t>
+        </is>
+      </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>1026 - 1046.6</t>
+          <t>931.8 - 952.9</t>
         </is>
       </c>
       <c r="G33" s="1" t="inlineStr">
         <is>
-          <t>21.5</t>
+          <t>1270</t>
         </is>
       </c>
       <c r="H33" s="1" t="inlineStr">
         <is>
-          <t>10/14/10</t>
+          <t>11/10/10</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>R-38</t>
+          <t>R-44 S1</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>35.83783</t>
+          <t>35.85672</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>-106.24804</t>
-        </is>
-      </c>
-      <c r="D34" s="1" t="inlineStr">
-        <is>
-          <t>12/7/08</t>
-        </is>
-      </c>
-      <c r="E34" s="1" t="inlineStr">
-        <is>
-          <t>853.4</t>
-        </is>
-      </c>
+          <t>-106.2512</t>
+        </is>
+      </c>
+      <c r="D34" s="1" t="inlineStr"/>
+      <c r="E34" s="1" t="inlineStr"/>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>821.2 - 831.2</t>
+          <t>895 - 905</t>
         </is>
       </c>
       <c r="G34" s="1" t="inlineStr">
         <is>
-          <t>11.9</t>
+          <t>21.8</t>
         </is>
       </c>
       <c r="H34" s="1" t="inlineStr">
         <is>
-          <t>2/6/09</t>
+          <t>5/3/16</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>R-41 S2</t>
+          <t>R-44 S2</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>35.83099</t>
+          <t>35.85672</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>-106.23381</t>
+          <t>-106.2512</t>
         </is>
       </c>
       <c r="D35" s="1" t="inlineStr"/>
       <c r="E35" s="1" t="inlineStr"/>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>965.3 - 975</t>
+          <t>985.3 - 995.2</t>
         </is>
       </c>
       <c r="G35" s="1" t="inlineStr">
         <is>
-          <t>6.66</t>
+          <t>16.8</t>
         </is>
       </c>
       <c r="H35" s="1" t="inlineStr">
         <is>
-          <t>6/9/10</t>
+          <t>2/10/10</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>R-42</t>
+          <t>R-45 S1</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>35.86129</t>
+          <t>35.85921</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>-106.25914</t>
-        </is>
-      </c>
-      <c r="D36" s="1" t="inlineStr">
-        <is>
-          <t>8/27/08</t>
-        </is>
-      </c>
-      <c r="E36" s="1" t="inlineStr">
-        <is>
-          <t>973.5</t>
-        </is>
-      </c>
+          <t>-106.25056</t>
+        </is>
+      </c>
+      <c r="D36" s="1" t="inlineStr"/>
+      <c r="E36" s="1" t="inlineStr"/>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>931.8 - 952.9</t>
+          <t>880 - 890</t>
         </is>
       </c>
       <c r="G36" s="1" t="inlineStr">
         <is>
-          <t>1270</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="H36" s="1" t="inlineStr">
         <is>
-          <t>11/10/10</t>
+          <t>12/18/17</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>R-44 S1</t>
+          <t>R-45 S2</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>35.85672</t>
+          <t>35.85921</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>-106.2512</t>
+          <t>-106.25056</t>
         </is>
       </c>
       <c r="D37" s="1" t="inlineStr"/>
       <c r="E37" s="1" t="inlineStr"/>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>895 - 905</t>
+          <t>974.9 - 994.9</t>
         </is>
       </c>
       <c r="G37" s="1" t="inlineStr">
         <is>
-          <t>21.8</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="H37" s="1" t="inlineStr">
         <is>
-          <t>5/3/16</t>
+          <t>10/31/17</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>R-44 S2</t>
+          <t>R-46</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>35.85672</t>
+          <t>35.85966</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>-106.2512</t>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr"/>
-      <c r="E38" s="1" t="inlineStr"/>
+          <t>-106.29382</t>
+        </is>
+      </c>
+      <c r="D38" s="1" t="inlineStr">
+        <is>
+          <t>2/26/09</t>
+        </is>
+      </c>
+      <c r="E38" s="1" t="inlineStr">
+        <is>
+          <t>1382.2</t>
+        </is>
+      </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>985.3 - 995.2</t>
+          <t>1340 - 1360.7</t>
         </is>
       </c>
       <c r="G38" s="1" t="inlineStr">
         <is>
-          <t>16.8</t>
+          <t>13.7</t>
         </is>
       </c>
       <c r="H38" s="1" t="inlineStr">
         <is>
-          <t>2/10/10</t>
+          <t>3/11/09</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>R-45 S1</t>
+          <t>R-50 S1</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>35.85921</t>
+          <t>35.85666</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>-106.25056</t>
+          <t>-106.25591</t>
         </is>
       </c>
       <c r="D39" s="1" t="inlineStr"/>
       <c r="E39" s="1" t="inlineStr"/>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>880 - 890</t>
+          <t>1077 - 1087</t>
         </is>
       </c>
       <c r="G39" s="1" t="inlineStr">
         <is>
-          <t>50.7</t>
+          <t>150</t>
         </is>
       </c>
       <c r="H39" s="1" t="inlineStr">
         <is>
-          <t>12/18/17</t>
+          <t>10/26/17</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>R-45 S2</t>
+          <t>R-50 S2</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>35.85921</t>
+          <t>35.85666</t>
         </is>
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>-106.25056</t>
+          <t>-106.25591</t>
         </is>
       </c>
       <c r="D40" s="1" t="inlineStr"/>
       <c r="E40" s="1" t="inlineStr"/>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>974.9 - 994.9</t>
+          <t>1185 - 1205.6</t>
         </is>
       </c>
       <c r="G40" s="1" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H40" s="1" t="inlineStr">
         <is>
-          <t>10/31/17</t>
+          <t>3/11/10</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>R-50 S1</t>
+          <t>R-52 S1</t>
         </is>
       </c>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>35.85666</t>
+          <t>35.84495</t>
         </is>
       </c>
       <c r="C41" s="1" t="inlineStr">
         <is>
-          <t>-106.25591</t>
+          <t>-106.26157</t>
         </is>
       </c>
       <c r="D41" s="1" t="inlineStr"/>
       <c r="E41" s="1" t="inlineStr"/>
       <c r="F41" s="1" t="inlineStr">
         <is>
-          <t>1077 - 1087</t>
+          <t>1035.2 - 1055.7</t>
         </is>
       </c>
       <c r="G41" s="1" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H41" s="1" t="inlineStr">
         <is>
-          <t>10/26/17</t>
+          <t>1/13/11</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>R-50 S2</t>
+          <t>R-52 S2</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>35.85666</t>
+          <t>35.84495</t>
         </is>
       </c>
       <c r="C42" s="1" t="inlineStr">
         <is>
-          <t>-106.25591</t>
+          <t>-106.26157</t>
         </is>
       </c>
       <c r="D42" s="1" t="inlineStr"/>
       <c r="E42" s="1" t="inlineStr"/>
       <c r="F42" s="1" t="inlineStr">
         <is>
-          <t>1185 - 1205.6</t>
+          <t>1107 - 1117</t>
         </is>
       </c>
       <c r="G42" s="1" t="inlineStr">
         <is>
-          <t>7.27</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H42" s="1" t="inlineStr">
         <is>
-          <t>7/2/10</t>
+          <t>1/13/11</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>R-52 S1</t>
+          <t>R-53 S1</t>
         </is>
       </c>
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>35.84495</t>
+          <t>35.8368</t>
         </is>
       </c>
       <c r="C43" s="1" t="inlineStr">
         <is>
-          <t>-106.26157</t>
+          <t>-106.25104</t>
         </is>
       </c>
       <c r="D43" s="1" t="inlineStr"/>
       <c r="E43" s="1" t="inlineStr"/>
       <c r="F43" s="1" t="inlineStr">
         <is>
-          <t>1035.2 - 1055.7</t>
+          <t>849.2 - 859.2</t>
         </is>
       </c>
       <c r="G43" s="1" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H43" s="1" t="inlineStr">
         <is>
-          <t>5/2/10</t>
+          <t>4/19/10</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>R-52 S2</t>
+          <t>R-53 S2</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>35.84495</t>
+          <t>35.8368</t>
         </is>
       </c>
       <c r="C44" s="1" t="inlineStr">
         <is>
-          <t>-106.26157</t>
+          <t>-106.25104</t>
         </is>
       </c>
       <c r="D44" s="1" t="inlineStr"/>
       <c r="E44" s="1" t="inlineStr"/>
       <c r="F44" s="1" t="inlineStr">
         <is>
-          <t>1107 - 1117</t>
+          <t>959.7 - 980.2</t>
         </is>
       </c>
       <c r="G44" s="1" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H44" s="1" t="inlineStr">
         <is>
-          <t>4/23/10</t>
+          <t>4/14/10</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>R-53 S1</t>
+          <t>R-55 S1</t>
         </is>
       </c>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>35.8368</t>
+          <t>35.82969</t>
         </is>
       </c>
       <c r="C45" s="1" t="inlineStr">
         <is>
-          <t>-106.25104</t>
+          <t>-106.22751</t>
         </is>
       </c>
       <c r="D45" s="1" t="inlineStr"/>
       <c r="E45" s="1" t="inlineStr"/>
       <c r="F45" s="1" t="inlineStr">
         <is>
-          <t>849.2 - 859.2</t>
+          <t>860 - 880.6</t>
         </is>
       </c>
       <c r="G45" s="1" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H45" s="1" t="inlineStr">
         <is>
-          <t>7/26/10</t>
+          <t>9/9/10</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>R-53 S2</t>
+          <t>R-55 S2</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>35.8368</t>
+          <t>35.82969</t>
         </is>
       </c>
       <c r="C46" s="1" t="inlineStr">
         <is>
-          <t>-106.25104</t>
+          <t>-106.22751</t>
         </is>
       </c>
       <c r="D46" s="1" t="inlineStr"/>
       <c r="E46" s="1" t="inlineStr"/>
       <c r="F46" s="1" t="inlineStr">
         <is>
-          <t>959.7 - 980.2</t>
+          <t>994.4 - 1015.4</t>
         </is>
       </c>
       <c r="G46" s="1" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H46" s="1" t="inlineStr">
         <is>
-          <t>10/12/10</t>
+          <t>4/28/11</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>R-55 S1</t>
+          <t>R-56 S1</t>
         </is>
       </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>35.82969</t>
+          <t>35.83456</t>
         </is>
       </c>
       <c r="C47" s="1" t="inlineStr">
         <is>
-          <t>-106.22751</t>
+          <t>-106.24969</t>
         </is>
       </c>
       <c r="D47" s="1" t="inlineStr"/>
       <c r="E47" s="1" t="inlineStr"/>
       <c r="F47" s="1" t="inlineStr">
         <is>
-          <t>860 - 880.6</t>
+          <t>945 - 965.6</t>
         </is>
       </c>
       <c r="G47" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H47" s="1" t="inlineStr">
         <is>
-          <t>10/28/11</t>
+          <t>8/19/10</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>R-55 S2</t>
+          <t>R-56 S2</t>
         </is>
       </c>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>35.82969</t>
+          <t>35.83456</t>
         </is>
       </c>
       <c r="C48" s="1" t="inlineStr">
         <is>
-          <t>-106.22751</t>
+          <t>-106.24969</t>
         </is>
       </c>
       <c r="D48" s="1" t="inlineStr"/>
       <c r="E48" s="1" t="inlineStr"/>
       <c r="F48" s="1" t="inlineStr">
         <is>
-          <t>994.4 - 1015.4</t>
+          <t>1046.6 - 1067.1</t>
         </is>
       </c>
       <c r="G48" s="1" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H48" s="1" t="inlineStr">
         <is>
-          <t>9/14/10</t>
+          <t>2/7/11</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>R-56 S1</t>
+          <t>R-57 S1</t>
         </is>
       </c>
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>35.83456</t>
+          <t>35.82987</t>
         </is>
       </c>
       <c r="C49" s="1" t="inlineStr">
         <is>
-          <t>-106.24969</t>
+          <t>-106.23417</t>
         </is>
       </c>
       <c r="D49" s="1" t="inlineStr"/>
       <c r="E49" s="1" t="inlineStr"/>
       <c r="F49" s="1" t="inlineStr">
         <is>
-          <t>945 - 965.6</t>
+          <t>910 - 930.5</t>
         </is>
       </c>
       <c r="G49" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H49" s="1" t="inlineStr">
         <is>
-          <t>10/26/17</t>
+          <t>10/19/18</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>R-56 S2</t>
+          <t>R-57 S2</t>
         </is>
       </c>
       <c r="B50" s="1" t="inlineStr">
         <is>
-          <t>35.83456</t>
+          <t>35.82987</t>
         </is>
       </c>
       <c r="C50" s="1" t="inlineStr">
         <is>
-          <t>-106.24969</t>
+          <t>-106.23417</t>
         </is>
       </c>
       <c r="D50" s="1" t="inlineStr"/>
       <c r="E50" s="1" t="inlineStr"/>
       <c r="F50" s="1" t="inlineStr">
         <is>
-          <t>1046.6 - 1067.1</t>
+          <t>971.5 - 992.1</t>
         </is>
       </c>
       <c r="G50" s="1" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H50" s="1" t="inlineStr">
         <is>
-          <t>8/13/10</t>
+          <t>10/19/18</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>R-57 S1</t>
+          <t>R-60</t>
         </is>
       </c>
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>35.82987</t>
+          <t>35.86057</t>
         </is>
       </c>
       <c r="C51" s="1" t="inlineStr">
         <is>
-          <t>-106.23417</t>
-        </is>
-      </c>
-      <c r="D51" s="1" t="inlineStr"/>
-      <c r="E51" s="1" t="inlineStr"/>
+          <t>-106.29618</t>
+        </is>
+      </c>
+      <c r="D51" s="1" t="inlineStr">
+        <is>
+          <t>10/18/10</t>
+        </is>
+      </c>
+      <c r="E51" s="1" t="inlineStr">
+        <is>
+          <t>1360.9</t>
+        </is>
+      </c>
       <c r="F51" s="1" t="inlineStr">
         <is>
-          <t>910 - 930.5</t>
+          <t>1330 - 1350.9</t>
         </is>
       </c>
       <c r="G51" s="1" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>8.06</t>
         </is>
       </c>
       <c r="H51" s="1" t="inlineStr">
         <is>
-          <t>10/19/18</t>
+          <t>7/26/11</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>R-57 S2</t>
+          <t>R-61 S1</t>
         </is>
       </c>
       <c r="B52" s="1" t="inlineStr">
         <is>
-          <t>35.82987</t>
+          <t>35.85758</t>
         </is>
       </c>
       <c r="C52" s="1" t="inlineStr">
         <is>
-          <t>-106.23417</t>
+          <t>-106.2612</t>
         </is>
       </c>
       <c r="D52" s="1" t="inlineStr"/>
       <c r="E52" s="1" t="inlineStr"/>
       <c r="F52" s="1" t="inlineStr">
         <is>
-          <t>971.5 - 992.1</t>
+          <t>1125 - 1135</t>
         </is>
       </c>
       <c r="G52" s="1" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>39.1</t>
         </is>
       </c>
       <c r="H52" s="1" t="inlineStr">
         <is>
-          <t>10/19/18</t>
+          <t>6/6/19</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>R-61 S1</t>
+          <t>R-62</t>
         </is>
       </c>
       <c r="B53" s="1" t="inlineStr">
         <is>
-          <t>35.85758</t>
+          <t>35.86312</t>
         </is>
       </c>
       <c r="C53" s="1" t="inlineStr">
         <is>
-          <t>-106.2612</t>
-        </is>
-      </c>
-      <c r="D53" s="1" t="inlineStr"/>
-      <c r="E53" s="1" t="inlineStr"/>
+          <t>-106.26647</t>
+        </is>
+      </c>
+      <c r="D53" s="1" t="inlineStr">
+        <is>
+          <t>10/3/11</t>
+        </is>
+      </c>
+      <c r="E53" s="1" t="inlineStr">
+        <is>
+          <t>1189.7</t>
+        </is>
+      </c>
       <c r="F53" s="1" t="inlineStr">
         <is>
-          <t>1125 - 1135</t>
+          <t>1158.4 - 1179.1</t>
         </is>
       </c>
       <c r="G53" s="1" t="inlineStr">
         <is>
-          <t>39.1</t>
+          <t>322</t>
         </is>
       </c>
       <c r="H53" s="1" t="inlineStr">
         <is>
-          <t>6/6/19</t>
+          <t>2/21/17</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>R-62</t>
+          <t>SIMR-2</t>
         </is>
       </c>
       <c r="B54" s="1" t="inlineStr">
         <is>
-          <t>35.86312</t>
+          <t>35.85399</t>
         </is>
       </c>
       <c r="C54" s="1" t="inlineStr">
         <is>
-          <t>-106.26647</t>
+          <t>-106.25103</t>
         </is>
       </c>
       <c r="D54" s="1" t="inlineStr">
         <is>
-          <t>10/3/11</t>
+          <t>6/16/15</t>
         </is>
       </c>
       <c r="E54" s="1" t="inlineStr">
         <is>
-          <t>1189.7</t>
+          <t>927</t>
         </is>
       </c>
       <c r="F54" s="1" t="inlineStr">
         <is>
-          <t>1158.4 - 1179.1</t>
+          <t>885 - 905.4</t>
         </is>
       </c>
       <c r="G54" s="1" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>9.41</t>
         </is>
       </c>
       <c r="H54" s="1" t="inlineStr">
         <is>
-          <t>2/21/17</t>
+          <t>11/15/17</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>SIMR-2</t>
-        </is>
-      </c>
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>35.85399</t>
-        </is>
-      </c>
-      <c r="C55" s="1" t="inlineStr">
-        <is>
-          <t>-106.25103</t>
-        </is>
-      </c>
-      <c r="D55" s="1" t="inlineStr">
-        <is>
-          <t>6/16/15</t>
-        </is>
-      </c>
-      <c r="E55" s="1" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="F55" s="1" t="inlineStr">
-        <is>
-          <t>885 - 905.4</t>
-        </is>
-      </c>
-      <c r="G55" s="1" t="inlineStr">
-        <is>
-          <t>9.41</t>
-        </is>
-      </c>
-      <c r="H55" s="1" t="inlineStr">
-        <is>
-          <t>11/15/17</t>
-        </is>
-      </c>
+      <c r="A55" s="4" t="inlineStr">
+        <is>
+          <t>Los Alamos and Pajarito Canyons</t>
+        </is>
+      </c>
+      <c r="H55" s="5" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="4" t="inlineStr">
-        <is>
-          <t>Mortendad Canyon</t>
-        </is>
-      </c>
-      <c r="H56" s="5" t="n"/>
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>O-1</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="inlineStr">
+        <is>
+          <t>35.87079</t>
+        </is>
+      </c>
+      <c r="C56" s="1" t="inlineStr">
+        <is>
+          <t>-106.21969</t>
+        </is>
+      </c>
+      <c r="D56" s="1" t="inlineStr">
+        <is>
+          <t>8/1/90</t>
+        </is>
+      </c>
+      <c r="E56" s="1" t="inlineStr">
+        <is>
+          <t>2497</t>
+        </is>
+      </c>
+      <c r="F56" s="1" t="inlineStr">
+        <is>
+          <t>1017 - 2477</t>
+        </is>
+      </c>
+      <c r="G56" s="1" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H56" s="1" t="inlineStr">
+        <is>
+          <t>6/2/16</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>O-1</t>
+          <t>O-4</t>
         </is>
       </c>
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>35.87079</t>
+          <t>35.87288</t>
         </is>
       </c>
       <c r="C57" s="1" t="inlineStr">
         <is>
-          <t>-106.21969</t>
+          <t>-106.26039</t>
         </is>
       </c>
       <c r="D57" s="1" t="inlineStr">
         <is>
-          <t>8/1/90</t>
+          <t>3/1/90</t>
         </is>
       </c>
       <c r="E57" s="1" t="inlineStr">
         <is>
-          <t>2497</t>
+          <t>2617</t>
         </is>
       </c>
       <c r="F57" s="1" t="inlineStr">
         <is>
-          <t>1017 - 2477</t>
+          <t>1115 - 2596</t>
         </is>
       </c>
       <c r="G57" s="1" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H57" s="1" t="inlineStr">
         <is>
-          <t>6/2/16</t>
+          <t>11/17/09</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>O-4</t>
+          <t>R-2</t>
         </is>
       </c>
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>35.87288</t>
+          <t>35.8874</t>
         </is>
       </c>
       <c r="C58" s="1" t="inlineStr">
         <is>
-          <t>-106.26039</t>
+          <t>-106.28679</t>
         </is>
       </c>
       <c r="D58" s="1" t="inlineStr">
         <is>
-          <t>3/1/90</t>
+          <t>10/28/03</t>
         </is>
       </c>
       <c r="E58" s="1" t="inlineStr">
         <is>
-          <t>2617</t>
+          <t>943.3</t>
         </is>
       </c>
       <c r="F58" s="1" t="inlineStr">
         <is>
-          <t>1115 - 2596</t>
+          <t>906.4 - 929.6</t>
         </is>
       </c>
       <c r="G58" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>25.9</t>
         </is>
       </c>
       <c r="H58" s="1" t="inlineStr">
         <is>
-          <t>5/20/08</t>
+          <t>1/11/08</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>R-2</t>
+          <t>R-24</t>
         </is>
       </c>
       <c r="B59" s="1" t="inlineStr">
         <is>
-          <t>35.8874</t>
+          <t>35.88551</t>
         </is>
       </c>
       <c r="C59" s="1" t="inlineStr">
         <is>
-          <t>-106.28679</t>
+          <t>-106.23941</t>
         </is>
       </c>
       <c r="D59" s="1" t="inlineStr">
         <is>
-          <t>10/28/03</t>
+          <t>9/12/05</t>
         </is>
       </c>
       <c r="E59" s="1" t="inlineStr">
         <is>
-          <t>943.3</t>
+          <t>861</t>
         </is>
       </c>
       <c r="F59" s="1" t="inlineStr">
         <is>
-          <t>906.4 - 929.6</t>
+          <t>825 - 848</t>
         </is>
       </c>
       <c r="G59" s="1" t="inlineStr">
         <is>
-          <t>25.9</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="H59" s="1" t="inlineStr">
         <is>
-          <t>1/11/08</t>
+          <t>9/20/05</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>R-24</t>
+          <t>R-3</t>
         </is>
       </c>
       <c r="B60" s="1" t="inlineStr">
         <is>
-          <t>35.88551</t>
+          <t>35.87179</t>
         </is>
       </c>
       <c r="C60" s="1" t="inlineStr">
         <is>
-          <t>-106.23941</t>
+          <t>-106.2209</t>
         </is>
       </c>
       <c r="D60" s="1" t="inlineStr">
         <is>
-          <t>9/12/05</t>
+          <t>6/21/10</t>
         </is>
       </c>
       <c r="E60" s="1" t="inlineStr">
         <is>
-          <t>861</t>
+          <t>1006.8</t>
         </is>
       </c>
       <c r="F60" s="1" t="inlineStr">
         <is>
-          <t>825 - 848</t>
+          <t>974.5 - 995</t>
         </is>
       </c>
       <c r="G60" s="1" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>27.7622</t>
         </is>
       </c>
       <c r="H60" s="1" t="inlineStr">
         <is>
-          <t>9/20/05</t>
+          <t>5/12/10</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>R-3</t>
+          <t>R-4</t>
         </is>
       </c>
       <c r="B61" s="1" t="inlineStr">
         <is>
-          <t>35.87179</t>
+          <t>35.8826</t>
         </is>
       </c>
       <c r="C61" s="1" t="inlineStr">
         <is>
-          <t>-106.2209</t>
+          <t>-106.25381</t>
         </is>
       </c>
       <c r="D61" s="1" t="inlineStr">
         <is>
-          <t>6/21/10</t>
+          <t>1/6/04</t>
         </is>
       </c>
       <c r="E61" s="1" t="inlineStr">
         <is>
-          <t>1006.8</t>
+          <t>840</t>
         </is>
       </c>
       <c r="F61" s="1" t="inlineStr">
         <is>
-          <t>974.5 - 995</t>
+          <t>792.9 - 816</t>
         </is>
       </c>
       <c r="G61" s="1" t="inlineStr">
         <is>
-          <t>27.7622</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="H61" s="1" t="inlineStr">
         <is>
-          <t>5/12/10</t>
+          <t>7/16/09</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>R-4</t>
+          <t>R-5 S3</t>
         </is>
       </c>
       <c r="B62" s="1" t="inlineStr">
         <is>
-          <t>35.8826</t>
+          <t>35.87307</t>
         </is>
       </c>
       <c r="C62" s="1" t="inlineStr">
         <is>
-          <t>-106.25381</t>
-        </is>
-      </c>
-      <c r="D62" s="1" t="inlineStr">
-        <is>
-          <t>1/6/04</t>
-        </is>
-      </c>
-      <c r="E62" s="1" t="inlineStr">
-        <is>
-          <t>840</t>
-        </is>
-      </c>
+          <t>-106.22877</t>
+        </is>
+      </c>
+      <c r="D62" s="1" t="inlineStr"/>
+      <c r="E62" s="1" t="inlineStr"/>
       <c r="F62" s="1" t="inlineStr">
         <is>
-          <t>792.9 - 816</t>
+          <t>676.9 - 720.3</t>
         </is>
       </c>
       <c r="G62" s="1" t="inlineStr">
         <is>
-          <t>8.05</t>
+          <t>17.1</t>
         </is>
       </c>
       <c r="H62" s="1" t="inlineStr">
         <is>
-          <t>7/16/09</t>
+          <t>4/18/07</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>R-5 S3</t>
+          <t>R-6</t>
         </is>
       </c>
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>35.87307</t>
+          <t>35.87533</t>
         </is>
       </c>
       <c r="C63" s="1" t="inlineStr">
         <is>
-          <t>-106.22877</t>
-        </is>
-      </c>
-      <c r="D63" s="1" t="inlineStr"/>
-      <c r="E63" s="1" t="inlineStr"/>
+          <t>-106.26487</t>
+        </is>
+      </c>
+      <c r="D63" s="1" t="inlineStr">
+        <is>
+          <t>12/4/04</t>
+        </is>
+      </c>
+      <c r="E63" s="1" t="inlineStr">
+        <is>
+          <t>1252</t>
+        </is>
+      </c>
       <c r="F63" s="1" t="inlineStr">
         <is>
-          <t>676.9 - 720.3</t>
+          <t>1205 - 1228</t>
         </is>
       </c>
       <c r="G63" s="1" t="inlineStr">
         <is>
-          <t>17.1</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="H63" s="1" t="inlineStr">
         <is>
-          <t>4/18/07</t>
+          <t>8/27/08</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>R-6</t>
+          <t>R-64</t>
         </is>
       </c>
       <c r="B64" s="1" t="inlineStr">
         <is>
-          <t>35.87533</t>
+          <t>35.8772</t>
         </is>
       </c>
       <c r="C64" s="1" t="inlineStr">
         <is>
-          <t>-106.26487</t>
+          <t>-106.27541</t>
         </is>
       </c>
       <c r="D64" s="1" t="inlineStr">
         <is>
-          <t>12/4/04</t>
+          <t>7/11/11</t>
         </is>
       </c>
       <c r="E64" s="1" t="inlineStr">
         <is>
-          <t>1252</t>
+          <t>1316.1</t>
         </is>
       </c>
       <c r="F64" s="1" t="inlineStr">
         <is>
-          <t>1205 - 1228</t>
+          <t>1285 - 1305.5</t>
         </is>
       </c>
       <c r="G64" s="1" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H64" s="1" t="inlineStr">
         <is>
-          <t>8/27/08</t>
+          <t>12/8/11</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>R-64</t>
+          <t>R-66</t>
         </is>
       </c>
       <c r="B65" s="1" t="inlineStr">
         <is>
-          <t>35.8772</t>
+          <t>35.87309</t>
         </is>
       </c>
       <c r="C65" s="1" t="inlineStr">
         <is>
-          <t>-106.27541</t>
+          <t>-106.25987</t>
         </is>
       </c>
       <c r="D65" s="1" t="inlineStr">
         <is>
-          <t>7/11/11</t>
+          <t>11/16/11</t>
         </is>
       </c>
       <c r="E65" s="1" t="inlineStr">
         <is>
-          <t>1316.1</t>
+          <t>849.8</t>
         </is>
       </c>
       <c r="F65" s="1" t="inlineStr">
         <is>
-          <t>1285 - 1305.5</t>
+          <t>819.4 - 839.7</t>
         </is>
       </c>
       <c r="G65" s="1" t="inlineStr">
         <is>
-          <t>6.22</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H65" s="1" t="inlineStr">
         <is>
-          <t>8/29/16</t>
+          <t>1/16/12</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>R-66</t>
+          <t>R-8 S1</t>
         </is>
       </c>
       <c r="B66" s="1" t="inlineStr">
         <is>
-          <t>35.87309</t>
+          <t>35.87168</t>
         </is>
       </c>
       <c r="C66" s="1" t="inlineStr">
         <is>
-          <t>-106.25987</t>
-        </is>
-      </c>
-      <c r="D66" s="1" t="inlineStr">
-        <is>
-          <t>11/16/11</t>
-        </is>
-      </c>
-      <c r="E66" s="1" t="inlineStr">
-        <is>
-          <t>849.8</t>
-        </is>
-      </c>
+          <t>-106.24756</t>
+        </is>
+      </c>
+      <c r="D66" s="1" t="inlineStr"/>
+      <c r="E66" s="1" t="inlineStr"/>
       <c r="F66" s="1" t="inlineStr">
         <is>
-          <t>819.4 - 839.7</t>
+          <t>705.31 - 755.7</t>
         </is>
       </c>
       <c r="G66" s="1" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>10.9</t>
         </is>
       </c>
       <c r="H66" s="1" t="inlineStr">
         <is>
-          <t>2/6/14</t>
+          <t>12/8/04</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>R-8 S1</t>
+          <t>R-8 S2</t>
         </is>
       </c>
       <c r="B67" s="1" t="inlineStr">
@@ -14131,7 +14281,7 @@
       <c r="E67" s="1" t="inlineStr"/>
       <c r="F67" s="1" t="inlineStr">
         <is>
-          <t>705.31 - 755.7</t>
+          <t>821 - 828</t>
         </is>
       </c>
       <c r="G67" s="1" t="inlineStr">
@@ -14141,132 +14291,132 @@
       </c>
       <c r="H67" s="1" t="inlineStr">
         <is>
-          <t>12/8/04</t>
+          <t>8/25/04</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>R-8 S2</t>
+          <t>R-9</t>
         </is>
       </c>
       <c r="B68" s="1" t="inlineStr">
         <is>
-          <t>35.87168</t>
+          <t>35.86698</t>
         </is>
       </c>
       <c r="C68" s="1" t="inlineStr">
         <is>
-          <t>-106.24756</t>
-        </is>
-      </c>
-      <c r="D68" s="1" t="inlineStr"/>
-      <c r="E68" s="1" t="inlineStr"/>
+          <t>-106.22361</t>
+        </is>
+      </c>
+      <c r="D68" s="1" t="inlineStr">
+        <is>
+          <t>10/18/99</t>
+        </is>
+      </c>
+      <c r="E68" s="1" t="inlineStr">
+        <is>
+          <t>758</t>
+        </is>
+      </c>
       <c r="F68" s="1" t="inlineStr">
         <is>
-          <t>821 - 828</t>
+          <t>683 - 748.5</t>
         </is>
       </c>
       <c r="G68" s="1" t="inlineStr">
         <is>
-          <t>10.9</t>
+          <t>2980</t>
         </is>
       </c>
       <c r="H68" s="1" t="inlineStr">
         <is>
-          <t>8/25/04</t>
+          <t>1/26/98</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>R-9</t>
+          <t>PM-2</t>
         </is>
       </c>
       <c r="B69" s="1" t="inlineStr">
         <is>
-          <t>35.86698</t>
+          <t>35.8383</t>
         </is>
       </c>
       <c r="C69" s="1" t="inlineStr">
         <is>
-          <t>-106.22361</t>
+          <t>-106.26255</t>
         </is>
       </c>
       <c r="D69" s="1" t="inlineStr">
         <is>
-          <t>10/18/99</t>
+          <t>7/15/65</t>
         </is>
       </c>
       <c r="E69" s="1" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>2300</t>
         </is>
       </c>
       <c r="F69" s="1" t="inlineStr">
         <is>
-          <t>683 - 748.5</t>
+          <t>1004 - 2280</t>
         </is>
       </c>
       <c r="G69" s="1" t="inlineStr">
         <is>
-          <t>2980</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H69" s="1" t="inlineStr">
         <is>
-          <t>1/26/98</t>
+          <t>6/24/14</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>PM-2</t>
+          <t>R-17 S1</t>
         </is>
       </c>
       <c r="B70" s="1" t="inlineStr">
         <is>
-          <t>35.8383</t>
+          <t>35.85328</t>
         </is>
       </c>
       <c r="C70" s="1" t="inlineStr">
         <is>
-          <t>-106.26255</t>
-        </is>
-      </c>
-      <c r="D70" s="1" t="inlineStr">
-        <is>
-          <t>7/15/65</t>
-        </is>
-      </c>
-      <c r="E70" s="1" t="inlineStr">
-        <is>
-          <t>2300</t>
-        </is>
-      </c>
+          <t>-106.29259</t>
+        </is>
+      </c>
+      <c r="D70" s="1" t="inlineStr"/>
+      <c r="E70" s="1" t="inlineStr"/>
       <c r="F70" s="1" t="inlineStr">
         <is>
-          <t>1004 - 2280</t>
+          <t>1057 - 1080</t>
         </is>
       </c>
       <c r="G70" s="1" t="inlineStr">
         <is>
-          <t>7.46</t>
+          <t>12.9</t>
         </is>
       </c>
       <c r="H70" s="1" t="inlineStr">
         <is>
-          <t>12/9/15</t>
+          <t>4/25/07</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>R-17 S1</t>
+          <t>R-17 S2</t>
         </is>
       </c>
       <c r="B71" s="1" t="inlineStr">
@@ -14283,58 +14433,58 @@
       <c r="E71" s="1" t="inlineStr"/>
       <c r="F71" s="1" t="inlineStr">
         <is>
-          <t>1057 - 1080</t>
+          <t>1124 - 1134</t>
         </is>
       </c>
       <c r="G71" s="1" t="inlineStr">
         <is>
-          <t>12.9</t>
+          <t>13.6</t>
         </is>
       </c>
       <c r="H71" s="1" t="inlineStr">
         <is>
-          <t>4/25/07</t>
+          <t>2/22/07</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>R-17 S2</t>
+          <t>R-19 S3</t>
         </is>
       </c>
       <c r="B72" s="1" t="inlineStr">
         <is>
-          <t>35.85328</t>
+          <t>35.83787</t>
         </is>
       </c>
       <c r="C72" s="1" t="inlineStr">
         <is>
-          <t>-106.29259</t>
+          <t>-106.28542</t>
         </is>
       </c>
       <c r="D72" s="1" t="inlineStr"/>
       <c r="E72" s="1" t="inlineStr"/>
       <c r="F72" s="1" t="inlineStr">
         <is>
-          <t>1124 - 1134</t>
+          <t>1171.4 - 1215.4</t>
         </is>
       </c>
       <c r="G72" s="1" t="inlineStr">
         <is>
-          <t>13.6</t>
+          <t>29</t>
         </is>
       </c>
       <c r="H72" s="1" t="inlineStr">
         <is>
-          <t>2/22/07</t>
+          <t>4/9/01</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>R-19 S3</t>
+          <t>R-19 S4</t>
         </is>
       </c>
       <c r="B73" s="1" t="inlineStr">
@@ -14351,17 +14501,17 @@
       <c r="E73" s="1" t="inlineStr"/>
       <c r="F73" s="1" t="inlineStr">
         <is>
-          <t>1171.4 - 1215.4</t>
+          <t>1410.2 - 1417.4</t>
         </is>
       </c>
       <c r="G73" s="1" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>37.3</t>
         </is>
       </c>
       <c r="H73" s="1" t="inlineStr">
         <is>
-          <t>4/9/01</t>
+          <t>8/16/06</t>
         </is>
       </c>
     </row>
@@ -14390,12 +14540,12 @@
       </c>
       <c r="G74" s="1" t="inlineStr">
         <is>
-          <t>6.7918</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H74" s="1" t="inlineStr">
         <is>
-          <t>11/30/07</t>
+          <t>9/2/09</t>
         </is>
       </c>
     </row>
@@ -14424,12 +14574,12 @@
       </c>
       <c r="G75" s="1" t="inlineStr">
         <is>
-          <t>9.5487</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H75" s="1" t="inlineStr">
         <is>
-          <t>12/3/07</t>
+          <t>6/23/08</t>
         </is>
       </c>
     </row>
@@ -14534,12 +14684,12 @@
       </c>
       <c r="G78" s="1" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H78" s="1" t="inlineStr">
         <is>
-          <t>2/23/10</t>
+          <t>9/3/09</t>
         </is>
       </c>
     </row>
@@ -14568,12 +14718,12 @@
       </c>
       <c r="G79" s="1" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H79" s="1" t="inlineStr">
         <is>
-          <t>3/3/10</t>
+          <t>6/23/09</t>
         </is>
       </c>
     </row>
@@ -14602,12 +14752,12 @@
       </c>
       <c r="G80" s="1" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H80" s="1" t="inlineStr">
         <is>
-          <t>6/9/10</t>
+          <t>3/5/10</t>
         </is>
       </c>
     </row>
@@ -14636,12 +14786,12 @@
       </c>
       <c r="G81" s="1" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H81" s="1" t="inlineStr">
         <is>
-          <t>7/28/11</t>
+          <t>3/8/10</t>
         </is>
       </c>
     </row>
@@ -14670,12 +14820,12 @@
       </c>
       <c r="G82" s="1" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H82" s="1" t="inlineStr">
         <is>
-          <t>7/28/11</t>
+          <t>10/19/10</t>
         </is>
       </c>
     </row>
@@ -14704,22 +14854,21 @@
       </c>
       <c r="G83" s="1" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H83" s="1" t="inlineStr">
         <is>
-          <t>10/21/19</t>
+          <t>2/21/10</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A56:H56"/>
+    <mergeCell ref="A55:H55"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Tables/Regional.xlsx
+++ b/Tables/Regional.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Regional for Mapping" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Regional Exhibit" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional for Mapping" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Exhibit" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -645,12 +645,12 @@
       </c>
       <c r="V2" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>7.57</t>
         </is>
       </c>
       <c r="W2" s="1" t="inlineStr">
         <is>
-          <t>2009-11-17</t>
+          <t>2012-08-28</t>
         </is>
       </c>
       <c r="X2" s="1" t="inlineStr">
@@ -1689,12 +1689,12 @@
       </c>
       <c r="V9" s="1" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>7.44</t>
         </is>
       </c>
       <c r="W9" s="1" t="inlineStr">
         <is>
-          <t>2010-02-11</t>
+          <t>2016-05-02</t>
         </is>
       </c>
       <c r="X9" s="1" t="inlineStr">
@@ -2853,12 +2853,12 @@
       </c>
       <c r="V17" s="1" t="inlineStr">
         <is>
-          <t>9.76</t>
+          <t>9.8</t>
         </is>
       </c>
       <c r="W17" s="1" t="inlineStr">
         <is>
-          <t>2016-05-04</t>
+          <t>2006-04-19</t>
         </is>
       </c>
       <c r="X17" s="1" t="inlineStr">
@@ -3149,12 +3149,12 @@
       </c>
       <c r="V19" s="1" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>9.9</t>
         </is>
       </c>
       <c r="W19" s="1" t="inlineStr">
         <is>
-          <t>2018-11-09</t>
+          <t>2010-05-03</t>
         </is>
       </c>
       <c r="X19" s="1" t="inlineStr">
@@ -3461,12 +3461,12 @@
       </c>
       <c r="V21" s="1" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="W21" s="1" t="inlineStr">
         <is>
-          <t>2008-05-23</t>
+          <t>2010-08-11</t>
         </is>
       </c>
       <c r="X21" s="1" t="inlineStr">
@@ -4205,12 +4205,12 @@
       </c>
       <c r="V26" s="1" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="W26" s="1" t="inlineStr">
         <is>
-          <t>2011-11-10</t>
+          <t>2006-01-31</t>
         </is>
       </c>
       <c r="X26" s="1" t="inlineStr">
@@ -4641,12 +4641,12 @@
       </c>
       <c r="V29" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>6.66</t>
         </is>
       </c>
       <c r="W29" s="1" t="inlineStr">
         <is>
-          <t>2009-09-01</t>
+          <t>2010-06-09</t>
         </is>
       </c>
       <c r="X29" s="1" t="inlineStr">
@@ -5509,12 +5509,12 @@
       </c>
       <c r="V35" s="1" t="inlineStr">
         <is>
-          <t>13.7</t>
+          <t>10.7</t>
         </is>
       </c>
       <c r="W35" s="1" t="inlineStr">
         <is>
-          <t>2009-03-11</t>
+          <t>2009-05-13</t>
         </is>
       </c>
       <c r="X35" s="1" t="inlineStr">
@@ -5789,12 +5789,12 @@
       </c>
       <c r="V37" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>7.27</t>
         </is>
       </c>
       <c r="W37" s="1" t="inlineStr">
         <is>
-          <t>2010-03-11</t>
+          <t>2010-07-02</t>
         </is>
       </c>
       <c r="X37" s="1" t="inlineStr">
@@ -5925,12 +5925,12 @@
       </c>
       <c r="V38" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="W38" s="1" t="inlineStr">
         <is>
-          <t>2011-01-13</t>
+          <t>2010-05-02</t>
         </is>
       </c>
       <c r="X38" s="1" t="inlineStr">
@@ -6061,12 +6061,12 @@
       </c>
       <c r="V39" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>6.32</t>
         </is>
       </c>
       <c r="W39" s="1" t="inlineStr">
         <is>
-          <t>2011-01-13</t>
+          <t>2010-04-23</t>
         </is>
       </c>
       <c r="X39" s="1" t="inlineStr">
@@ -6197,12 +6197,12 @@
       </c>
       <c r="V40" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="W40" s="1" t="inlineStr">
         <is>
-          <t>2010-04-19</t>
+          <t>2010-10-12</t>
         </is>
       </c>
       <c r="X40" s="1" t="inlineStr">
@@ -6333,12 +6333,12 @@
       </c>
       <c r="V41" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="W41" s="1" t="inlineStr">
         <is>
-          <t>2010-04-14</t>
+          <t>2010-10-12</t>
         </is>
       </c>
       <c r="X41" s="1" t="inlineStr">
@@ -6469,12 +6469,12 @@
       </c>
       <c r="V42" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="W42" s="1" t="inlineStr">
         <is>
-          <t>2010-09-09</t>
+          <t>2011-10-28</t>
         </is>
       </c>
       <c r="X42" s="1" t="inlineStr">
@@ -6605,12 +6605,12 @@
       </c>
       <c r="V43" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="W43" s="1" t="inlineStr">
         <is>
-          <t>2011-04-28</t>
+          <t>2010-09-14</t>
         </is>
       </c>
       <c r="X43" s="1" t="inlineStr">
@@ -6741,12 +6741,12 @@
       </c>
       <c r="V44" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>2.6603</t>
         </is>
       </c>
       <c r="W44" s="1" t="inlineStr">
         <is>
-          <t>2010-08-19</t>
+          <t>2011-07-20</t>
         </is>
       </c>
       <c r="X44" s="1" t="inlineStr">
@@ -6877,12 +6877,12 @@
       </c>
       <c r="V45" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="W45" s="1" t="inlineStr">
         <is>
-          <t>2011-02-07</t>
+          <t>2010-08-13</t>
         </is>
       </c>
       <c r="X45" s="1" t="inlineStr">
@@ -7013,12 +7013,12 @@
       </c>
       <c r="V46" s="1" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="W46" s="1" t="inlineStr">
         <is>
-          <t>2018-10-19</t>
+          <t>2011-07-13</t>
         </is>
       </c>
       <c r="X46" s="1" t="inlineStr">
@@ -7149,12 +7149,12 @@
       </c>
       <c r="V47" s="1" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>6.81</t>
         </is>
       </c>
       <c r="W47" s="1" t="inlineStr">
         <is>
-          <t>2018-10-19</t>
+          <t>2011-07-13</t>
         </is>
       </c>
       <c r="X47" s="1" t="inlineStr">
@@ -7301,12 +7301,12 @@
       </c>
       <c r="V48" s="1" t="inlineStr">
         <is>
-          <t>8.06</t>
+          <t>7.91</t>
         </is>
       </c>
       <c r="W48" s="1" t="inlineStr">
         <is>
-          <t>2011-07-26</t>
+          <t>2010-12-16</t>
         </is>
       </c>
       <c r="X48" s="1" t="inlineStr">
@@ -8021,12 +8021,12 @@
       </c>
       <c r="V53" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>7.61</t>
         </is>
       </c>
       <c r="W53" s="1" t="inlineStr">
         <is>
-          <t>2009-11-17</t>
+          <t>2012-08-28</t>
         </is>
       </c>
       <c r="X53" s="1" t="inlineStr">
@@ -8937,12 +8937,12 @@
       </c>
       <c r="V59" s="1" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="W59" s="1" t="inlineStr">
         <is>
-          <t>2008-08-27</t>
+          <t>2012-08-27</t>
         </is>
       </c>
       <c r="X59" s="1" t="inlineStr">
@@ -9093,12 +9093,12 @@
       </c>
       <c r="V60" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>6.22</t>
         </is>
       </c>
       <c r="W60" s="1" t="inlineStr">
         <is>
-          <t>2011-12-08</t>
+          <t>2016-08-29</t>
         </is>
       </c>
       <c r="X60" s="1" t="inlineStr">
@@ -9245,12 +9245,12 @@
       </c>
       <c r="V61" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="W61" s="1" t="inlineStr">
         <is>
-          <t>2012-01-16</t>
+          <t>2014-02-06</t>
         </is>
       </c>
       <c r="X61" s="1" t="inlineStr">
@@ -9817,12 +9817,12 @@
       </c>
       <c r="V65" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>7.46</t>
         </is>
       </c>
       <c r="W65" s="1" t="inlineStr">
         <is>
-          <t>2014-06-24</t>
+          <t>2015-12-09</t>
         </is>
       </c>
       <c r="X65" s="1" t="inlineStr">
@@ -10513,12 +10513,12 @@
       </c>
       <c r="V70" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>6.7918</t>
         </is>
       </c>
       <c r="W70" s="1" t="inlineStr">
         <is>
-          <t>2009-09-02</t>
+          <t>2007-11-30</t>
         </is>
       </c>
       <c r="X70" s="1" t="inlineStr">
@@ -10649,12 +10649,12 @@
       </c>
       <c r="V71" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>9.5487</t>
         </is>
       </c>
       <c r="W71" s="1" t="inlineStr">
         <is>
-          <t>2008-06-23</t>
+          <t>2007-12-03</t>
         </is>
       </c>
       <c r="X71" s="1" t="inlineStr">
@@ -10945,12 +10945,12 @@
       </c>
       <c r="V73" s="1" t="inlineStr">
         <is>
-          <t>7.25</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="W73" s="1" t="inlineStr">
         <is>
-          <t>2011-07-28</t>
+          <t>2010-06-02</t>
         </is>
       </c>
       <c r="X73" s="1" t="inlineStr">
@@ -11081,12 +11081,12 @@
       </c>
       <c r="V74" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="W74" s="1" t="inlineStr">
         <is>
-          <t>2009-09-03</t>
+          <t>2010-02-23</t>
         </is>
       </c>
       <c r="X74" s="1" t="inlineStr">
@@ -11217,12 +11217,12 @@
       </c>
       <c r="V75" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>7.82</t>
         </is>
       </c>
       <c r="W75" s="1" t="inlineStr">
         <is>
-          <t>2009-06-23</t>
+          <t>2009-12-07</t>
         </is>
       </c>
       <c r="X75" s="1" t="inlineStr">
@@ -11357,12 +11357,12 @@
       </c>
       <c r="V76" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="W76" s="1" t="inlineStr">
         <is>
-          <t>2010-03-05</t>
+          <t>2010-06-09</t>
         </is>
       </c>
       <c r="X76" s="1" t="inlineStr">
@@ -11493,12 +11493,12 @@
       </c>
       <c r="V77" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="W77" s="1" t="inlineStr">
         <is>
-          <t>2010-03-08</t>
+          <t>2010-07-26</t>
         </is>
       </c>
       <c r="X77" s="1" t="inlineStr">
@@ -11629,12 +11629,12 @@
       </c>
       <c r="V78" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="W78" s="1" t="inlineStr">
         <is>
-          <t>2010-10-19</t>
+          <t>2010-06-18</t>
         </is>
       </c>
       <c r="X78" s="1" t="inlineStr">
@@ -11765,12 +11765,12 @@
       </c>
       <c r="V79" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>9.03</t>
         </is>
       </c>
       <c r="W79" s="1" t="inlineStr">
         <is>
-          <t>2010-02-21</t>
+          <t>2019-10-21</t>
         </is>
       </c>
       <c r="X79" s="1" t="inlineStr">
@@ -11944,12 +11944,12 @@
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7.57</t>
         </is>
       </c>
       <c r="H4" s="1" t="inlineStr">
         <is>
-          <t>11/17/09</t>
+          <t>8/28/12</t>
         </is>
       </c>
     </row>
@@ -12222,12 +12222,12 @@
       </c>
       <c r="G11" s="1" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>7.44</t>
         </is>
       </c>
       <c r="H11" s="1" t="inlineStr">
         <is>
-          <t>2/11/10</t>
+          <t>5/2/16</t>
         </is>
       </c>
     </row>
@@ -12546,12 +12546,12 @@
       </c>
       <c r="G20" s="1" t="inlineStr">
         <is>
-          <t>9.76</t>
+          <t>9.8</t>
         </is>
       </c>
       <c r="H20" s="1" t="inlineStr">
         <is>
-          <t>5/4/16</t>
+          <t>4/19/06</t>
         </is>
       </c>
     </row>
@@ -12622,12 +12622,12 @@
       </c>
       <c r="G22" s="1" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>9.9</t>
         </is>
       </c>
       <c r="H22" s="1" t="inlineStr">
         <is>
-          <t>11/9/18</t>
+          <t>5/3/10</t>
         </is>
       </c>
     </row>
@@ -12706,12 +12706,12 @@
       </c>
       <c r="G24" s="1" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="H24" s="1" t="inlineStr">
         <is>
-          <t>5/23/08</t>
+          <t>8/11/10</t>
         </is>
       </c>
     </row>
@@ -12900,12 +12900,12 @@
       </c>
       <c r="G29" s="1" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H29" s="1" t="inlineStr">
         <is>
-          <t>11/10/11</t>
+          <t>1/31/06</t>
         </is>
       </c>
     </row>
@@ -13010,12 +13010,12 @@
       </c>
       <c r="G32" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6.66</t>
         </is>
       </c>
       <c r="H32" s="1" t="inlineStr">
         <is>
-          <t>9/1/09</t>
+          <t>6/9/10</t>
         </is>
       </c>
     </row>
@@ -13230,12 +13230,12 @@
       </c>
       <c r="G38" s="1" t="inlineStr">
         <is>
-          <t>13.7</t>
+          <t>10.7</t>
         </is>
       </c>
       <c r="H38" s="1" t="inlineStr">
         <is>
-          <t>3/11/09</t>
+          <t>5/13/09</t>
         </is>
       </c>
     </row>
@@ -13298,12 +13298,12 @@
       </c>
       <c r="G40" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7.27</t>
         </is>
       </c>
       <c r="H40" s="1" t="inlineStr">
         <is>
-          <t>3/11/10</t>
+          <t>7/2/10</t>
         </is>
       </c>
     </row>
@@ -13332,12 +13332,12 @@
       </c>
       <c r="G41" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H41" s="1" t="inlineStr">
         <is>
-          <t>1/13/11</t>
+          <t>5/2/10</t>
         </is>
       </c>
     </row>
@@ -13366,12 +13366,12 @@
       </c>
       <c r="G42" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6.32</t>
         </is>
       </c>
       <c r="H42" s="1" t="inlineStr">
         <is>
-          <t>1/13/11</t>
+          <t>4/23/10</t>
         </is>
       </c>
     </row>
@@ -13400,12 +13400,12 @@
       </c>
       <c r="G43" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="H43" s="1" t="inlineStr">
         <is>
-          <t>4/19/10</t>
+          <t>10/12/10</t>
         </is>
       </c>
     </row>
@@ -13434,12 +13434,12 @@
       </c>
       <c r="G44" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="H44" s="1" t="inlineStr">
         <is>
-          <t>4/14/10</t>
+          <t>10/12/10</t>
         </is>
       </c>
     </row>
@@ -13468,12 +13468,12 @@
       </c>
       <c r="G45" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H45" s="1" t="inlineStr">
         <is>
-          <t>9/9/10</t>
+          <t>10/28/11</t>
         </is>
       </c>
     </row>
@@ -13502,12 +13502,12 @@
       </c>
       <c r="G46" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="H46" s="1" t="inlineStr">
         <is>
-          <t>4/28/11</t>
+          <t>9/14/10</t>
         </is>
       </c>
     </row>
@@ -13536,12 +13536,12 @@
       </c>
       <c r="G47" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2.6603</t>
         </is>
       </c>
       <c r="H47" s="1" t="inlineStr">
         <is>
-          <t>8/19/10</t>
+          <t>7/20/11</t>
         </is>
       </c>
     </row>
@@ -13570,12 +13570,12 @@
       </c>
       <c r="G48" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="H48" s="1" t="inlineStr">
         <is>
-          <t>2/7/11</t>
+          <t>8/13/10</t>
         </is>
       </c>
     </row>
@@ -13604,12 +13604,12 @@
       </c>
       <c r="G49" s="1" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="H49" s="1" t="inlineStr">
         <is>
-          <t>10/19/18</t>
+          <t>7/13/11</t>
         </is>
       </c>
     </row>
@@ -13638,12 +13638,12 @@
       </c>
       <c r="G50" s="1" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6.81</t>
         </is>
       </c>
       <c r="H50" s="1" t="inlineStr">
         <is>
-          <t>10/19/18</t>
+          <t>7/13/11</t>
         </is>
       </c>
     </row>
@@ -13680,12 +13680,12 @@
       </c>
       <c r="G51" s="1" t="inlineStr">
         <is>
-          <t>8.06</t>
+          <t>7.91</t>
         </is>
       </c>
       <c r="H51" s="1" t="inlineStr">
         <is>
-          <t>7/26/11</t>
+          <t>12/16/10</t>
         </is>
       </c>
     </row>
@@ -13890,12 +13890,12 @@
       </c>
       <c r="G57" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7.61</t>
         </is>
       </c>
       <c r="H57" s="1" t="inlineStr">
         <is>
-          <t>11/17/09</t>
+          <t>8/28/12</t>
         </is>
       </c>
     </row>
@@ -14134,12 +14134,12 @@
       </c>
       <c r="G63" s="1" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="H63" s="1" t="inlineStr">
         <is>
-          <t>8/27/08</t>
+          <t>8/27/12</t>
         </is>
       </c>
     </row>
@@ -14176,12 +14176,12 @@
       </c>
       <c r="G64" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6.22</t>
         </is>
       </c>
       <c r="H64" s="1" t="inlineStr">
         <is>
-          <t>12/8/11</t>
+          <t>8/29/16</t>
         </is>
       </c>
     </row>
@@ -14218,12 +14218,12 @@
       </c>
       <c r="G65" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="H65" s="1" t="inlineStr">
         <is>
-          <t>1/16/12</t>
+          <t>2/6/14</t>
         </is>
       </c>
     </row>
@@ -14370,12 +14370,12 @@
       </c>
       <c r="G69" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7.46</t>
         </is>
       </c>
       <c r="H69" s="1" t="inlineStr">
         <is>
-          <t>6/24/14</t>
+          <t>12/9/15</t>
         </is>
       </c>
     </row>
@@ -14540,12 +14540,12 @@
       </c>
       <c r="G74" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6.7918</t>
         </is>
       </c>
       <c r="H74" s="1" t="inlineStr">
         <is>
-          <t>9/2/09</t>
+          <t>11/30/07</t>
         </is>
       </c>
     </row>
@@ -14574,12 +14574,12 @@
       </c>
       <c r="G75" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9.5487</t>
         </is>
       </c>
       <c r="H75" s="1" t="inlineStr">
         <is>
-          <t>6/23/08</t>
+          <t>12/3/07</t>
         </is>
       </c>
     </row>
@@ -14650,12 +14650,12 @@
       </c>
       <c r="G77" s="1" t="inlineStr">
         <is>
-          <t>7.25</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="H77" s="1" t="inlineStr">
         <is>
-          <t>7/28/11</t>
+          <t>6/2/10</t>
         </is>
       </c>
     </row>
@@ -14684,12 +14684,12 @@
       </c>
       <c r="G78" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="H78" s="1" t="inlineStr">
         <is>
-          <t>9/3/09</t>
+          <t>2/23/10</t>
         </is>
       </c>
     </row>
@@ -14718,12 +14718,12 @@
       </c>
       <c r="G79" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7.82</t>
         </is>
       </c>
       <c r="H79" s="1" t="inlineStr">
         <is>
-          <t>6/23/09</t>
+          <t>12/7/09</t>
         </is>
       </c>
     </row>
@@ -14752,12 +14752,12 @@
       </c>
       <c r="G80" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="H80" s="1" t="inlineStr">
         <is>
-          <t>3/5/10</t>
+          <t>6/9/10</t>
         </is>
       </c>
     </row>
@@ -14786,12 +14786,12 @@
       </c>
       <c r="G81" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="H81" s="1" t="inlineStr">
         <is>
-          <t>3/8/10</t>
+          <t>7/26/10</t>
         </is>
       </c>
     </row>
@@ -14820,12 +14820,12 @@
       </c>
       <c r="G82" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="H82" s="1" t="inlineStr">
         <is>
-          <t>10/19/10</t>
+          <t>6/18/10</t>
         </is>
       </c>
     </row>
@@ -14854,12 +14854,12 @@
       </c>
       <c r="G83" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9.03</t>
         </is>
       </c>
       <c r="H83" s="1" t="inlineStr">
         <is>
-          <t>2/21/10</t>
+          <t>10/21/19</t>
         </is>
       </c>
     </row>

--- a/Tables/Regional.xlsx
+++ b/Tables/Regional.xlsx
@@ -3471,12 +3471,12 @@
       </c>
       <c r="X21" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="Y21" s="1" t="inlineStr">
         <is>
-          <t>2019-10-24</t>
+          <t>2019-04-10</t>
         </is>
       </c>
       <c r="Z21" s="1" t="inlineStr">
@@ -4511,12 +4511,12 @@
       </c>
       <c r="X28" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="Y28" s="1" t="inlineStr">
         <is>
-          <t>2019-10-15</t>
+          <t>2015-10-19</t>
         </is>
       </c>
       <c r="Z28" s="1" t="inlineStr">
@@ -4803,12 +4803,12 @@
       </c>
       <c r="X30" s="1" t="inlineStr">
         <is>
-          <t>0.639</t>
+          <t>793.0</t>
         </is>
       </c>
       <c r="Y30" s="1" t="inlineStr">
         <is>
-          <t>2018-11-02</t>
+          <t>2017-07-28</t>
         </is>
       </c>
       <c r="Z30" s="1" t="inlineStr">
@@ -5935,12 +5935,12 @@
       </c>
       <c r="X38" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="Y38" s="1" t="inlineStr">
         <is>
-          <t>2019-10-16</t>
+          <t>2019-04-09</t>
         </is>
       </c>
       <c r="Z38" s="1" t="inlineStr">
@@ -6071,12 +6071,12 @@
       </c>
       <c r="X39" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="Y39" s="1" t="inlineStr">
         <is>
-          <t>2019-10-16</t>
+          <t>2019-04-09</t>
         </is>
       </c>
       <c r="Z39" s="1" t="inlineStr">
@@ -6207,12 +6207,12 @@
       </c>
       <c r="X40" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="Y40" s="1" t="inlineStr">
         <is>
-          <t>2019-10-25</t>
+          <t>2015-11-04</t>
         </is>
       </c>
       <c r="Z40" s="1" t="inlineStr">
@@ -6751,12 +6751,12 @@
       </c>
       <c r="X44" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="Y44" s="1" t="inlineStr">
         <is>
-          <t>2019-10-24</t>
+          <t>2015-11-03</t>
         </is>
       </c>
       <c r="Z44" s="1" t="inlineStr">
@@ -7023,12 +7023,12 @@
       </c>
       <c r="X46" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="Y46" s="1" t="inlineStr">
         <is>
-          <t>2019-10-18</t>
+          <t>2017-10-20</t>
         </is>
       </c>
       <c r="Z46" s="1" t="inlineStr">
@@ -8187,12 +8187,12 @@
       </c>
       <c r="X54" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="Y54" s="1" t="inlineStr">
         <is>
-          <t>2019-06-26</t>
+          <t>2018-09-20</t>
         </is>
       </c>
       <c r="Z54" s="1" t="inlineStr">
@@ -8495,12 +8495,12 @@
       </c>
       <c r="X56" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="Y56" s="1" t="inlineStr">
         <is>
-          <t>2019-06-17</t>
+          <t>2016-06-06</t>
         </is>
       </c>
       <c r="Z56" s="1" t="inlineStr">
@@ -9103,12 +9103,12 @@
       </c>
       <c r="X60" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="Y60" s="1" t="inlineStr">
         <is>
-          <t>2019-09-04</t>
+          <t>2017-03-23</t>
         </is>
       </c>
       <c r="Z60" s="1" t="inlineStr">
@@ -9963,12 +9963,12 @@
       </c>
       <c r="X66" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="Y66" s="1" t="inlineStr">
         <is>
-          <t>2019-04-18</t>
+          <t>2017-04-13</t>
         </is>
       </c>
       <c r="Z66" s="1" t="inlineStr">
@@ -10383,12 +10383,12 @@
       </c>
       <c r="X69" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="Y69" s="1" t="inlineStr">
         <is>
-          <t>2015-04-15</t>
+          <t>2014-04-11</t>
         </is>
       </c>
       <c r="Z69" s="1" t="inlineStr">
@@ -10523,12 +10523,12 @@
       </c>
       <c r="X70" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="Y70" s="1" t="inlineStr">
         <is>
-          <t>2019-10-23</t>
+          <t>2012-10-16</t>
         </is>
       </c>
       <c r="Z70" s="1" t="inlineStr">
@@ -10659,12 +10659,12 @@
       </c>
       <c r="X71" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>0.799</t>
         </is>
       </c>
       <c r="Y71" s="1" t="inlineStr">
         <is>
-          <t>2019-10-17</t>
+          <t>2012-10-17</t>
         </is>
       </c>
       <c r="Z71" s="1" t="inlineStr">
@@ -10799,12 +10799,12 @@
       </c>
       <c r="X72" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="Y72" s="1" t="inlineStr">
         <is>
-          <t>2019-10-15</t>
+          <t>2012-10-19</t>
         </is>
       </c>
       <c r="Z72" s="1" t="inlineStr">
@@ -10955,12 +10955,12 @@
       </c>
       <c r="X73" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="Y73" s="1" t="inlineStr">
         <is>
-          <t>2019-10-23</t>
+          <t>2017-10-25</t>
         </is>
       </c>
       <c r="Z73" s="1" t="inlineStr">
@@ -11091,12 +11091,12 @@
       </c>
       <c r="X74" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="Y74" s="1" t="inlineStr">
         <is>
-          <t>2019-10-30</t>
+          <t>2017-11-02</t>
         </is>
       </c>
       <c r="Z74" s="1" t="inlineStr">
@@ -11227,12 +11227,12 @@
       </c>
       <c r="X75" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="Y75" s="1" t="inlineStr">
         <is>
-          <t>2019-10-29</t>
+          <t>2015-10-22</t>
         </is>
       </c>
       <c r="Z75" s="1" t="inlineStr">
@@ -11367,12 +11367,12 @@
       </c>
       <c r="X76" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="Y76" s="1" t="inlineStr">
         <is>
-          <t>2019-10-29</t>
+          <t>2015-10-22</t>
         </is>
       </c>
       <c r="Z76" s="1" t="inlineStr">
@@ -11503,12 +11503,12 @@
       </c>
       <c r="X77" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="Y77" s="1" t="inlineStr">
         <is>
-          <t>2019-10-29</t>
+          <t>2015-10-22</t>
         </is>
       </c>
       <c r="Z77" s="1" t="inlineStr">
@@ -11639,12 +11639,12 @@
       </c>
       <c r="X78" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="Y78" s="1" t="inlineStr">
         <is>
-          <t>2019-10-29</t>
+          <t>2015-10-22</t>
         </is>
       </c>
       <c r="Z78" s="1" t="inlineStr">

--- a/Tables/Regional.xlsx
+++ b/Tables/Regional.xlsx
@@ -655,12 +655,12 @@
       </c>
       <c r="X2" s="1" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="Y2" s="1" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2020-03-11</t>
         </is>
       </c>
       <c r="Z2" s="1" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="AB2" s="1" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="AC2" s="1" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="AD2" s="1" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>95</t>
         </is>
       </c>
       <c r="AE2" s="1" t="inlineStr">
@@ -795,12 +795,12 @@
       </c>
       <c r="X3" s="1" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="Y3" s="1" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2020-03-11</t>
         </is>
       </c>
       <c r="Z3" s="1" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="AB3" s="1" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="AC3" s="1" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="AD3" s="1" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>87</t>
         </is>
       </c>
       <c r="AE3" s="1" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="Y7" s="1" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-03-16</t>
         </is>
       </c>
       <c r="Z7" s="1" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="AD7" s="1" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>127</t>
         </is>
       </c>
       <c r="AE7" s="1" t="inlineStr">
@@ -1543,12 +1543,12 @@
       </c>
       <c r="X8" s="1" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="Y8" s="1" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-03-17</t>
         </is>
       </c>
       <c r="Z8" s="1" t="inlineStr">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="AD8" s="1" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>103</t>
         </is>
       </c>
       <c r="AE8" s="1" t="inlineStr">
@@ -1699,12 +1699,12 @@
       </c>
       <c r="X9" s="1" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="Y9" s="1" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-03-16</t>
         </is>
       </c>
       <c r="Z9" s="1" t="inlineStr">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="AD9" s="1" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>96</t>
         </is>
       </c>
       <c r="AE9" s="1" t="inlineStr">
@@ -2587,7 +2587,7 @@
       </c>
       <c r="AB15" s="1" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="AC15" s="1" t="inlineStr">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="AD15" s="1" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>53</t>
         </is>
       </c>
       <c r="AE15" s="1" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="AD16" s="1" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>82</t>
         </is>
       </c>
       <c r="AE16" s="1" t="inlineStr">
@@ -2863,7 +2863,7 @@
       </c>
       <c r="X17" s="1" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>5.68</t>
         </is>
       </c>
       <c r="Y17" s="1" t="inlineStr">
@@ -3159,7 +3159,7 @@
       </c>
       <c r="X19" s="1" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="Y19" s="1" t="inlineStr">
@@ -4943,12 +4943,12 @@
       </c>
       <c r="X31" s="1" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>7.38</t>
         </is>
       </c>
       <c r="Y31" s="1" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-03-12</t>
         </is>
       </c>
       <c r="Z31" s="1" t="inlineStr">
@@ -4973,7 +4973,7 @@
       </c>
       <c r="AD31" s="1" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>98</t>
         </is>
       </c>
       <c r="AE31" s="1" t="inlineStr">
@@ -5083,12 +5083,12 @@
       </c>
       <c r="X32" s="1" t="inlineStr">
         <is>
-          <t>5.52</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="Y32" s="1" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-03-12</t>
         </is>
       </c>
       <c r="Z32" s="1" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="AD32" s="1" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>106</t>
         </is>
       </c>
       <c r="AE32" s="1" t="inlineStr">
@@ -5223,12 +5223,12 @@
       </c>
       <c r="X33" s="1" t="inlineStr">
         <is>
-          <t>23.8</t>
+          <t>25.7</t>
         </is>
       </c>
       <c r="Y33" s="1" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-03-13</t>
         </is>
       </c>
       <c r="Z33" s="1" t="inlineStr">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="AD33" s="1" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>94</t>
         </is>
       </c>
       <c r="AE33" s="1" t="inlineStr">
@@ -5353,22 +5353,22 @@
       </c>
       <c r="V34" s="1" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>47.6</t>
         </is>
       </c>
       <c r="W34" s="1" t="inlineStr">
         <is>
-          <t>2017-10-31</t>
+          <t>2020-03-13</t>
         </is>
       </c>
       <c r="X34" s="1" t="inlineStr">
         <is>
-          <t>38.1</t>
+          <t>47.6</t>
         </is>
       </c>
       <c r="Y34" s="1" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-03-13</t>
         </is>
       </c>
       <c r="Z34" s="1" t="inlineStr">
@@ -5393,7 +5393,7 @@
       </c>
       <c r="AD34" s="1" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>89</t>
         </is>
       </c>
       <c r="AE34" s="1" t="inlineStr">
@@ -7759,12 +7759,12 @@
       </c>
       <c r="X51" s="1" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>5.29</t>
         </is>
       </c>
       <c r="Y51" s="1" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2020-03-18</t>
         </is>
       </c>
       <c r="Z51" s="1" t="inlineStr">
@@ -7789,7 +7789,7 @@
       </c>
       <c r="AD51" s="1" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AE51" s="1" t="inlineStr">
@@ -8061,7 +8061,7 @@
       </c>
       <c r="AD53" s="1" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="AE53" s="1" t="inlineStr">
@@ -9103,7 +9103,7 @@
       </c>
       <c r="X60" s="1" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="Y60" s="1" t="inlineStr">
@@ -9857,7 +9857,7 @@
       </c>
       <c r="AD65" s="1" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="AE65" s="1" t="inlineStr">
@@ -11844,12 +11844,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="11.29"/>
+    <col customWidth="1" max="1" min="1" width="12.25"/>
     <col customWidth="1" max="2" min="2" width="10.14"/>
     <col customWidth="1" max="3" min="3" width="12"/>
     <col customWidth="1" max="4" min="4" width="9.15"/>
     <col customWidth="1" max="5" min="5" width="7"/>
-    <col customWidth="1" max="6" min="6" width="13.43"/>
+    <col customWidth="1" max="6" min="6" width="16.25"/>
     <col customWidth="1" max="7" min="7" width="8.43"/>
     <col customWidth="1" max="8" min="8" width="8.43"/>
   </cols>
@@ -13188,12 +13188,12 @@
       </c>
       <c r="G37" s="1" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>47.6</t>
         </is>
       </c>
       <c r="H37" s="1" t="inlineStr">
         <is>
-          <t>10/31/17</t>
+          <t>3/13/20</t>
         </is>
       </c>
     </row>

--- a/Tables/Regional.xlsx
+++ b/Tables/Regional.xlsx
@@ -2395,7 +2395,7 @@
       </c>
       <c r="P14" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q14" s="1" t="inlineStr"/>
@@ -2535,7 +2535,7 @@
       </c>
       <c r="P15" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q15" s="1" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="P16" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q16" s="1" t="inlineStr">
@@ -2827,7 +2827,7 @@
       </c>
       <c r="P17" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q17" s="1" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="P18" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q18" s="1" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="P19" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q19" s="1" t="inlineStr"/>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="P20" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q20" s="1" t="inlineStr">
@@ -3435,7 +3435,7 @@
       </c>
       <c r="P21" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q21" s="1" t="inlineStr">
@@ -3520,7 +3520,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>R-23</t>
+          <t>R-28</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
@@ -3530,32 +3530,32 @@
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>35.8239</t>
+          <t>35.86015</t>
         </is>
       </c>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>-106.22471</t>
+          <t>-106.25482</t>
         </is>
       </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t>6527.75</t>
+          <t>6728.61</t>
         </is>
       </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>Tpt</t>
+          <t>Tpf</t>
         </is>
       </c>
       <c r="G22" s="1" t="inlineStr">
         <is>
-          <t>2002-10-02 00:00:00</t>
+          <t>2003-12-17 00:00:00</t>
         </is>
       </c>
       <c r="H22" s="1" t="inlineStr">
         <is>
-          <t>886.30</t>
+          <t>980.30</t>
         </is>
       </c>
       <c r="I22" s="1" t="inlineStr">
@@ -3565,29 +3565,29 @@
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>934.3</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>873.200</t>
+          <t>958.100</t>
         </is>
       </c>
       <c r="L22" s="1" t="inlineStr">
         <is>
-          <t>Brass Monument location, Brass Monument location</t>
+          <t>original x, y, z = 1638357.25, 1768449.74, 6756, Location info taken from Brass cap monument survey data from R-28 WCR., Location info taken from Brass cap monument survey data from R-28 WCR.</t>
         </is>
       </c>
       <c r="M22" s="1" t="inlineStr"/>
       <c r="N22" s="1" t="inlineStr"/>
       <c r="O22" s="1" t="inlineStr">
         <is>
-          <t>TA-54</t>
+          <t>Chromium</t>
         </is>
       </c>
       <c r="P22" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q22" s="1" t="inlineStr">
@@ -3613,47 +3613,47 @@
       </c>
       <c r="V22" s="1" t="inlineStr">
         <is>
-          <t>20.1</t>
+          <t>605.0</t>
         </is>
       </c>
       <c r="W22" s="1" t="inlineStr">
         <is>
-          <t>2009-02-25</t>
+          <t>2017-02-07</t>
         </is>
       </c>
       <c r="X22" s="1" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>9.83</t>
         </is>
       </c>
       <c r="Y22" s="1" t="inlineStr">
         <is>
-          <t>2019-10-23</t>
+          <t>2018-11-02</t>
         </is>
       </c>
       <c r="Z22" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>443.0</t>
         </is>
       </c>
       <c r="AA22" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2006-04-19</t>
         </is>
       </c>
       <c r="AB22" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>428.587</t>
         </is>
       </c>
       <c r="AC22" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2008-05-14</t>
         </is>
       </c>
       <c r="AD22" s="1" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>164</t>
         </is>
       </c>
       <c r="AE22" s="1" t="inlineStr">
@@ -3676,7 +3676,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>R-28</t>
+          <t>R-33 S1</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
@@ -3686,52 +3686,40 @@
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>35.86015</t>
+          <t>35.86062</t>
         </is>
       </c>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>-106.25482</t>
+          <t>-106.27368</t>
         </is>
       </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>6728.61</t>
+          <t>6853.33</t>
         </is>
       </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>Tpf</t>
-        </is>
-      </c>
-      <c r="G23" s="1" t="inlineStr">
-        <is>
-          <t>2003-12-17 00:00:00</t>
-        </is>
-      </c>
-      <c r="H23" s="1" t="inlineStr">
-        <is>
-          <t>980.30</t>
-        </is>
-      </c>
-      <c r="I23" s="1" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
+          <t>Tpp</t>
+        </is>
+      </c>
+      <c r="G23" s="1" t="inlineStr"/>
+      <c r="H23" s="1" t="inlineStr"/>
+      <c r="I23" s="1" t="inlineStr"/>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>934.3</t>
+          <t>995.5</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>958.100</t>
+          <t>1018.500</t>
         </is>
       </c>
       <c r="L23" s="1" t="inlineStr">
         <is>
-          <t>original x, y, z = 1638357.25, 1768449.74, 6756, Location info taken from Brass cap monument survey data from R-28 WCR., Location info taken from Brass cap monument survey data from R-28 WCR.</t>
+          <t>Location on mesa top near PM-5, Location info taken from Brass cap monument survey data from R-33 WCR., Location info taken from Brass cap monument survey data from R-33 WCR.</t>
         </is>
       </c>
       <c r="M23" s="1" t="inlineStr"/>
@@ -3743,14 +3731,10 @@
       </c>
       <c r="P23" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
-        </is>
-      </c>
-      <c r="Q23" s="1" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+          <t>Mortandad</t>
+        </is>
+      </c>
+      <c r="Q23" s="1" t="inlineStr"/>
       <c r="R23" s="1" t="inlineStr"/>
       <c r="S23" s="1" t="inlineStr">
         <is>
@@ -3769,47 +3753,47 @@
       </c>
       <c r="V23" s="1" t="inlineStr">
         <is>
-          <t>605.0</t>
+          <t>12.3</t>
         </is>
       </c>
       <c r="W23" s="1" t="inlineStr">
         <is>
-          <t>2017-02-07</t>
+          <t>2005-09-14</t>
         </is>
       </c>
       <c r="X23" s="1" t="inlineStr">
         <is>
-          <t>9.83</t>
+          <t>9.04</t>
         </is>
       </c>
       <c r="Y23" s="1" t="inlineStr">
         <is>
-          <t>2018-11-02</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="Z23" s="1" t="inlineStr">
         <is>
-          <t>443.0</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="AA23" s="1" t="inlineStr">
         <is>
-          <t>2006-04-19</t>
+          <t>2018-05-09</t>
         </is>
       </c>
       <c r="AB23" s="1" t="inlineStr">
         <is>
-          <t>428.587</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="AC23" s="1" t="inlineStr">
         <is>
-          <t>2008-05-14</t>
+          <t>2018-05-09</t>
         </is>
       </c>
       <c r="AD23" s="1" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>107</t>
         </is>
       </c>
       <c r="AE23" s="1" t="inlineStr">
@@ -3832,7 +3816,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>R-33 S1</t>
+          <t>R-33 S2</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
@@ -3865,12 +3849,12 @@
       <c r="I24" s="1" t="inlineStr"/>
       <c r="J24" s="1" t="inlineStr">
         <is>
-          <t>995.5</t>
+          <t>1112.4</t>
         </is>
       </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
-          <t>1018.500</t>
+          <t>1122.300</t>
         </is>
       </c>
       <c r="L24" s="1" t="inlineStr">
@@ -3887,7 +3871,7 @@
       </c>
       <c r="P24" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q24" s="1" t="inlineStr"/>
@@ -3909,17 +3893,17 @@
       </c>
       <c r="V24" s="1" t="inlineStr">
         <is>
-          <t>12.3</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="W24" s="1" t="inlineStr">
         <is>
-          <t>2005-09-14</t>
+          <t>2007-11-19</t>
         </is>
       </c>
       <c r="X24" s="1" t="inlineStr">
         <is>
-          <t>9.04</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="Y24" s="1" t="inlineStr">
@@ -3929,7 +3913,7 @@
       </c>
       <c r="Z24" s="1" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="AA24" s="1" t="inlineStr">
@@ -3939,7 +3923,7 @@
       </c>
       <c r="AB24" s="1" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="AC24" s="1" t="inlineStr">
@@ -3949,7 +3933,7 @@
       </c>
       <c r="AD24" s="1" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>111</t>
         </is>
       </c>
       <c r="AE24" s="1" t="inlineStr">
@@ -3972,7 +3956,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>R-33 S2</t>
+          <t>R-34</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
@@ -3982,17 +3966,17 @@
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>35.86062</t>
+          <t>35.84825</t>
         </is>
       </c>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>-106.27368</t>
+          <t>-106.23927</t>
         </is>
       </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>6853.33</t>
+          <t>6629.99</t>
         </is>
       </c>
       <c r="F25" s="1" t="inlineStr">
@@ -4000,37 +3984,53 @@
           <t>Tpp</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr"/>
-      <c r="H25" s="1" t="inlineStr"/>
-      <c r="I25" s="1" t="inlineStr"/>
+      <c r="G25" s="1" t="inlineStr">
+        <is>
+          <t>2004-09-10 00:00:00</t>
+        </is>
+      </c>
+      <c r="H25" s="1" t="inlineStr">
+        <is>
+          <t>920.70</t>
+        </is>
+      </c>
+      <c r="I25" s="1" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
       <c r="J25" s="1" t="inlineStr">
         <is>
-          <t>1112.4</t>
+          <t>883.7</t>
         </is>
       </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
-          <t>1122.300</t>
+          <t>906.600</t>
         </is>
       </c>
       <c r="L25" s="1" t="inlineStr">
         <is>
-          <t>Location on mesa top near PM-5, Location info taken from Brass cap monument survey data from R-33 WCR., Location info taken from Brass cap monument survey data from R-33 WCR.</t>
+          <t>R-34 completed depth is 920.7 ft from the completion report, Figure 7.2-1., San I Property., Location info taken from Brass cap monument survey data from R-34 WCR., Location info taken from Brass cap monument survey data from R-34 WCR.</t>
         </is>
       </c>
       <c r="M25" s="1" t="inlineStr"/>
       <c r="N25" s="1" t="inlineStr"/>
       <c r="O25" s="1" t="inlineStr">
         <is>
-          <t>Chromium</t>
+          <t>General</t>
         </is>
       </c>
       <c r="P25" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
-        </is>
-      </c>
-      <c r="Q25" s="1" t="inlineStr"/>
+          <t>Mortandad</t>
+        </is>
+      </c>
+      <c r="Q25" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="R25" s="1" t="inlineStr"/>
       <c r="S25" s="1" t="inlineStr">
         <is>
@@ -4049,47 +4049,47 @@
       </c>
       <c r="V25" s="1" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="W25" s="1" t="inlineStr">
         <is>
-          <t>2007-11-19</t>
+          <t>2006-01-31</t>
         </is>
       </c>
       <c r="X25" s="1" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="Y25" s="1" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-11-13</t>
         </is>
       </c>
       <c r="Z25" s="1" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="AA25" s="1" t="inlineStr">
         <is>
-          <t>2018-05-09</t>
+          <t>2006-01-31</t>
         </is>
       </c>
       <c r="AB25" s="1" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>3.66108</t>
         </is>
       </c>
       <c r="AC25" s="1" t="inlineStr">
         <is>
-          <t>2018-05-09</t>
+          <t>2008-05-28</t>
         </is>
       </c>
       <c r="AD25" s="1" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>103</t>
         </is>
       </c>
       <c r="AE25" s="1" t="inlineStr">
@@ -4112,7 +4112,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>R-34</t>
+          <t>R-37 S2</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
@@ -4122,71 +4122,55 @@
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>35.84825</t>
+          <t>35.84437</t>
         </is>
       </c>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>-106.23927</t>
+          <t>-106.25873</t>
         </is>
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>6629.99</t>
+          <t>6870.59</t>
         </is>
       </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>Tpp</t>
-        </is>
-      </c>
-      <c r="G26" s="1" t="inlineStr">
-        <is>
-          <t>2004-09-10 00:00:00</t>
-        </is>
-      </c>
-      <c r="H26" s="1" t="inlineStr">
-        <is>
-          <t>920.70</t>
-        </is>
-      </c>
-      <c r="I26" s="1" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
+          <t>Tpf</t>
+        </is>
+      </c>
+      <c r="G26" s="1" t="inlineStr"/>
+      <c r="H26" s="1" t="inlineStr"/>
+      <c r="I26" s="1" t="inlineStr"/>
       <c r="J26" s="1" t="inlineStr">
         <is>
-          <t>883.7</t>
+          <t>1026</t>
         </is>
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
-          <t>906.600</t>
+          <t>1046.600</t>
         </is>
       </c>
       <c r="L26" s="1" t="inlineStr">
         <is>
-          <t>R-34 completed depth is 920.7 ft from the completion report, Figure 7.2-1., San I Property., Location info taken from Brass cap monument survey data from R-34 WCR., Location info taken from Brass cap monument survey data from R-34 WCR.</t>
+          <t>Brass monument location, Brass monument location</t>
         </is>
       </c>
       <c r="M26" s="1" t="inlineStr"/>
       <c r="N26" s="1" t="inlineStr"/>
       <c r="O26" s="1" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>TA-54</t>
         </is>
       </c>
       <c r="P26" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
-        </is>
-      </c>
-      <c r="Q26" s="1" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+          <t>Mortandad</t>
+        </is>
+      </c>
+      <c r="Q26" s="1" t="inlineStr"/>
       <c r="R26" s="1" t="inlineStr"/>
       <c r="S26" s="1" t="inlineStr">
         <is>
@@ -4205,47 +4189,47 @@
       </c>
       <c r="V26" s="1" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>21.5</t>
         </is>
       </c>
       <c r="W26" s="1" t="inlineStr">
         <is>
-          <t>2006-01-31</t>
+          <t>2010-10-14</t>
         </is>
       </c>
       <c r="X26" s="1" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="Y26" s="1" t="inlineStr">
         <is>
-          <t>2019-11-13</t>
+          <t>2019-10-17</t>
         </is>
       </c>
       <c r="Z26" s="1" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AA26" s="1" t="inlineStr">
         <is>
-          <t>2006-01-31</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AB26" s="1" t="inlineStr">
         <is>
-          <t>3.66108</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AC26" s="1" t="inlineStr">
         <is>
-          <t>2008-05-28</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AD26" s="1" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AE26" s="1" t="inlineStr">
@@ -4268,7 +4252,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>R-37 S2</t>
+          <t>R-38</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
@@ -4278,17 +4262,17 @@
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>35.84437</t>
+          <t>35.83783</t>
         </is>
       </c>
       <c r="D27" s="1" t="inlineStr">
         <is>
-          <t>-106.25873</t>
+          <t>-106.24804</t>
         </is>
       </c>
       <c r="E27" s="1" t="inlineStr">
         <is>
-          <t>6870.59</t>
+          <t>6668.58</t>
         </is>
       </c>
       <c r="F27" s="1" t="inlineStr">
@@ -4296,22 +4280,34 @@
           <t>Tpf</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr"/>
-      <c r="H27" s="1" t="inlineStr"/>
-      <c r="I27" s="1" t="inlineStr"/>
+      <c r="G27" s="1" t="inlineStr">
+        <is>
+          <t>2008-12-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="H27" s="1" t="inlineStr">
+        <is>
+          <t>853.40</t>
+        </is>
+      </c>
+      <c r="I27" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="J27" s="1" t="inlineStr">
         <is>
-          <t>1026</t>
+          <t>821.2</t>
         </is>
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>1046.600</t>
+          <t>831.200</t>
         </is>
       </c>
       <c r="L27" s="1" t="inlineStr">
         <is>
-          <t>Brass monument location, Brass monument location</t>
+          <t>Brass cap location, Brass cap location</t>
         </is>
       </c>
       <c r="M27" s="1" t="inlineStr"/>
@@ -4323,10 +4319,14 @@
       </c>
       <c r="P27" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
-        </is>
-      </c>
-      <c r="Q27" s="1" t="inlineStr"/>
+          <t>Mortandad</t>
+        </is>
+      </c>
+      <c r="Q27" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="R27" s="1" t="inlineStr"/>
       <c r="S27" s="1" t="inlineStr">
         <is>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="V27" s="1" t="inlineStr">
         <is>
-          <t>21.5</t>
+          <t>11.9</t>
         </is>
       </c>
       <c r="W27" s="1" t="inlineStr">
         <is>
-          <t>2010-10-14</t>
+          <t>2009-02-06</t>
         </is>
       </c>
       <c r="X27" s="1" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="Y27" s="1" t="inlineStr">
         <is>
-          <t>2019-10-17</t>
+          <t>2015-10-19</t>
         </is>
       </c>
       <c r="Z27" s="1" t="inlineStr">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="AD27" s="1" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="AE27" s="1" t="inlineStr">
@@ -4408,7 +4408,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>R-38</t>
+          <t>R-41 S2</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
@@ -4418,47 +4418,35 @@
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>35.83783</t>
+          <t>35.83099</t>
         </is>
       </c>
       <c r="D28" s="1" t="inlineStr">
         <is>
-          <t>-106.24804</t>
+          <t>-106.23381</t>
         </is>
       </c>
       <c r="E28" s="1" t="inlineStr">
         <is>
-          <t>6668.58</t>
+          <t>6660.53</t>
         </is>
       </c>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t>Tpf</t>
-        </is>
-      </c>
-      <c r="G28" s="1" t="inlineStr">
-        <is>
-          <t>2008-12-07 00:00:00</t>
-        </is>
-      </c>
-      <c r="H28" s="1" t="inlineStr">
-        <is>
-          <t>853.40</t>
-        </is>
-      </c>
-      <c r="I28" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>Tpt</t>
+        </is>
+      </c>
+      <c r="G28" s="1" t="inlineStr"/>
+      <c r="H28" s="1" t="inlineStr"/>
+      <c r="I28" s="1" t="inlineStr"/>
       <c r="J28" s="1" t="inlineStr">
         <is>
-          <t>821.2</t>
+          <t>965.3</t>
         </is>
       </c>
       <c r="K28" s="1" t="inlineStr">
         <is>
-          <t>831.200</t>
+          <t>975.000</t>
         </is>
       </c>
       <c r="L28" s="1" t="inlineStr">
@@ -4475,14 +4463,10 @@
       </c>
       <c r="P28" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
-        </is>
-      </c>
-      <c r="Q28" s="1" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+          <t>Mortandad</t>
+        </is>
+      </c>
+      <c r="Q28" s="1" t="inlineStr"/>
       <c r="R28" s="1" t="inlineStr"/>
       <c r="S28" s="1" t="inlineStr">
         <is>
@@ -4501,22 +4485,22 @@
       </c>
       <c r="V28" s="1" t="inlineStr">
         <is>
-          <t>11.9</t>
+          <t>6.66</t>
         </is>
       </c>
       <c r="W28" s="1" t="inlineStr">
         <is>
-          <t>2009-02-06</t>
+          <t>2010-06-09</t>
         </is>
       </c>
       <c r="X28" s="1" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="Y28" s="1" t="inlineStr">
         <is>
-          <t>2015-10-19</t>
+          <t>2019-10-17</t>
         </is>
       </c>
       <c r="Z28" s="1" t="inlineStr">
@@ -4541,7 +4525,7 @@
       </c>
       <c r="AD28" s="1" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AE28" s="1" t="inlineStr">
@@ -4549,11 +4533,7 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="AF28" s="1" t="inlineStr">
-        <is>
-          <t>Exceedance</t>
-        </is>
-      </c>
+      <c r="AF28" s="1" t="inlineStr"/>
       <c r="AG28" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -4564,7 +4544,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>R-41 S2</t>
+          <t>R-42</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
@@ -4574,55 +4554,71 @@
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>35.83099</t>
+          <t>35.86129</t>
         </is>
       </c>
       <c r="D29" s="1" t="inlineStr">
         <is>
-          <t>-106.23381</t>
+          <t>-106.25914</t>
         </is>
       </c>
       <c r="E29" s="1" t="inlineStr">
         <is>
-          <t>6660.53</t>
+          <t>6759.02</t>
         </is>
       </c>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>Tpt</t>
-        </is>
-      </c>
-      <c r="G29" s="1" t="inlineStr"/>
-      <c r="H29" s="1" t="inlineStr"/>
-      <c r="I29" s="1" t="inlineStr"/>
+          <t>Tsfuv</t>
+        </is>
+      </c>
+      <c r="G29" s="1" t="inlineStr">
+        <is>
+          <t>2008-08-27 00:00:00</t>
+        </is>
+      </c>
+      <c r="H29" s="1" t="inlineStr">
+        <is>
+          <t>973.50</t>
+        </is>
+      </c>
+      <c r="I29" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="J29" s="1" t="inlineStr">
         <is>
-          <t>965.3</t>
+          <t>931.8</t>
         </is>
       </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
-          <t>975.000</t>
+          <t>952.900</t>
         </is>
       </c>
       <c r="L29" s="1" t="inlineStr">
         <is>
-          <t>Brass cap location, Brass cap location</t>
+          <t>Brass Monument, Brass Monument</t>
         </is>
       </c>
       <c r="M29" s="1" t="inlineStr"/>
       <c r="N29" s="1" t="inlineStr"/>
       <c r="O29" s="1" t="inlineStr">
         <is>
-          <t>TA-54</t>
+          <t>Chromium</t>
         </is>
       </c>
       <c r="P29" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
-        </is>
-      </c>
-      <c r="Q29" s="1" t="inlineStr"/>
+          <t>Mortandad</t>
+        </is>
+      </c>
+      <c r="Q29" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="R29" s="1" t="inlineStr"/>
       <c r="S29" s="1" t="inlineStr">
         <is>
@@ -4641,22 +4637,22 @@
       </c>
       <c r="V29" s="1" t="inlineStr">
         <is>
-          <t>6.66</t>
+          <t>1270.0</t>
         </is>
       </c>
       <c r="W29" s="1" t="inlineStr">
         <is>
-          <t>2010-06-09</t>
+          <t>2010-11-10</t>
         </is>
       </c>
       <c r="X29" s="1" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>793.0</t>
         </is>
       </c>
       <c r="Y29" s="1" t="inlineStr">
         <is>
-          <t>2019-10-17</t>
+          <t>2017-07-28</t>
         </is>
       </c>
       <c r="Z29" s="1" t="inlineStr">
@@ -4681,7 +4677,7 @@
       </c>
       <c r="AD29" s="1" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>66</t>
         </is>
       </c>
       <c r="AE29" s="1" t="inlineStr">
@@ -4689,7 +4685,11 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="AF29" s="1" t="inlineStr"/>
+      <c r="AF29" s="1" t="inlineStr">
+        <is>
+          <t>Exceedance</t>
+        </is>
+      </c>
       <c r="AG29" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -4700,7 +4700,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>R-42</t>
+          <t>R-44 S1</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
@@ -4710,52 +4710,40 @@
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>35.86129</t>
+          <t>35.85672</t>
         </is>
       </c>
       <c r="D30" s="1" t="inlineStr">
         <is>
-          <t>-106.25914</t>
+          <t>-106.2512</t>
         </is>
       </c>
       <c r="E30" s="1" t="inlineStr">
         <is>
-          <t>6759.02</t>
+          <t>6714.91</t>
         </is>
       </c>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>Tsfuv</t>
-        </is>
-      </c>
-      <c r="G30" s="1" t="inlineStr">
-        <is>
-          <t>2008-08-27 00:00:00</t>
-        </is>
-      </c>
-      <c r="H30" s="1" t="inlineStr">
-        <is>
-          <t>973.50</t>
-        </is>
-      </c>
-      <c r="I30" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>Tpf</t>
+        </is>
+      </c>
+      <c r="G30" s="1" t="inlineStr"/>
+      <c r="H30" s="1" t="inlineStr"/>
+      <c r="I30" s="1" t="inlineStr"/>
       <c r="J30" s="1" t="inlineStr">
         <is>
-          <t>931.8</t>
+          <t>895</t>
         </is>
       </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
-          <t>952.900</t>
+          <t>905.000</t>
         </is>
       </c>
       <c r="L30" s="1" t="inlineStr">
         <is>
-          <t>Brass Monument, Brass Monument</t>
+          <t>Brass cap location, Brass cap location</t>
         </is>
       </c>
       <c r="M30" s="1" t="inlineStr"/>
@@ -4767,14 +4755,10 @@
       </c>
       <c r="P30" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
-        </is>
-      </c>
-      <c r="Q30" s="1" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+          <t>Mortandad</t>
+        </is>
+      </c>
+      <c r="Q30" s="1" t="inlineStr"/>
       <c r="R30" s="1" t="inlineStr"/>
       <c r="S30" s="1" t="inlineStr">
         <is>
@@ -4793,47 +4777,47 @@
       </c>
       <c r="V30" s="1" t="inlineStr">
         <is>
-          <t>1270.0</t>
+          <t>21.8</t>
         </is>
       </c>
       <c r="W30" s="1" t="inlineStr">
         <is>
-          <t>2010-11-10</t>
+          <t>2016-05-03</t>
         </is>
       </c>
       <c r="X30" s="1" t="inlineStr">
         <is>
-          <t>793.0</t>
+          <t>7.38</t>
         </is>
       </c>
       <c r="Y30" s="1" t="inlineStr">
         <is>
-          <t>2017-07-28</t>
+          <t>2020-03-12</t>
         </is>
       </c>
       <c r="Z30" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="AA30" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2018-05-16</t>
         </is>
       </c>
       <c r="AB30" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>5.57</t>
         </is>
       </c>
       <c r="AC30" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2019-05-15</t>
         </is>
       </c>
       <c r="AD30" s="1" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>98</t>
         </is>
       </c>
       <c r="AE30" s="1" t="inlineStr">
@@ -4856,7 +4840,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>R-44 S1</t>
+          <t>R-44 S2</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
@@ -4889,12 +4873,12 @@
       <c r="I31" s="1" t="inlineStr"/>
       <c r="J31" s="1" t="inlineStr">
         <is>
-          <t>895</t>
+          <t>985.3</t>
         </is>
       </c>
       <c r="K31" s="1" t="inlineStr">
         <is>
-          <t>905.000</t>
+          <t>995.200</t>
         </is>
       </c>
       <c r="L31" s="1" t="inlineStr">
@@ -4911,7 +4895,7 @@
       </c>
       <c r="P31" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q31" s="1" t="inlineStr"/>
@@ -4933,17 +4917,17 @@
       </c>
       <c r="V31" s="1" t="inlineStr">
         <is>
-          <t>21.8</t>
+          <t>16.8</t>
         </is>
       </c>
       <c r="W31" s="1" t="inlineStr">
         <is>
-          <t>2016-05-03</t>
+          <t>2010-02-10</t>
         </is>
       </c>
       <c r="X31" s="1" t="inlineStr">
         <is>
-          <t>7.38</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="Y31" s="1" t="inlineStr">
@@ -4953,7 +4937,7 @@
       </c>
       <c r="Z31" s="1" t="inlineStr">
         <is>
-          <t>12.5</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="AA31" s="1" t="inlineStr">
@@ -4963,17 +4947,17 @@
       </c>
       <c r="AB31" s="1" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="AC31" s="1" t="inlineStr">
         <is>
-          <t>2019-05-15</t>
+          <t>2018-05-16</t>
         </is>
       </c>
       <c r="AD31" s="1" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>106</t>
         </is>
       </c>
       <c r="AE31" s="1" t="inlineStr">
@@ -4996,7 +4980,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>R-44 S2</t>
+          <t>R-45 S1</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
@@ -5006,17 +4990,17 @@
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>35.85672</t>
+          <t>35.85921</t>
         </is>
       </c>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>-106.2512</t>
+          <t>-106.25056</t>
         </is>
       </c>
       <c r="E32" s="1" t="inlineStr">
         <is>
-          <t>6714.91</t>
+          <t>6704.02</t>
         </is>
       </c>
       <c r="F32" s="1" t="inlineStr">
@@ -5029,12 +5013,12 @@
       <c r="I32" s="1" t="inlineStr"/>
       <c r="J32" s="1" t="inlineStr">
         <is>
-          <t>985.3</t>
+          <t>880</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
-          <t>995.200</t>
+          <t>890.000</t>
         </is>
       </c>
       <c r="L32" s="1" t="inlineStr">
@@ -5051,7 +5035,7 @@
       </c>
       <c r="P32" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q32" s="1" t="inlineStr"/>
@@ -5073,27 +5057,27 @@
       </c>
       <c r="V32" s="1" t="inlineStr">
         <is>
-          <t>16.8</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="W32" s="1" t="inlineStr">
         <is>
-          <t>2010-02-10</t>
+          <t>2017-12-18</t>
         </is>
       </c>
       <c r="X32" s="1" t="inlineStr">
         <is>
-          <t>8.04</t>
+          <t>25.7</t>
         </is>
       </c>
       <c r="Y32" s="1" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-03-13</t>
         </is>
       </c>
       <c r="Z32" s="1" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>42.8</t>
         </is>
       </c>
       <c r="AA32" s="1" t="inlineStr">
@@ -5103,17 +5087,17 @@
       </c>
       <c r="AB32" s="1" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>32.9</t>
         </is>
       </c>
       <c r="AC32" s="1" t="inlineStr">
         <is>
-          <t>2018-05-16</t>
+          <t>2019-05-15</t>
         </is>
       </c>
       <c r="AD32" s="1" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>94</t>
         </is>
       </c>
       <c r="AE32" s="1" t="inlineStr">
@@ -5136,7 +5120,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>R-45 S1</t>
+          <t>R-45 S2</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
@@ -5161,7 +5145,7 @@
       </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>Tpf</t>
+          <t>Tjfp</t>
         </is>
       </c>
       <c r="G33" s="1" t="inlineStr"/>
@@ -5169,12 +5153,12 @@
       <c r="I33" s="1" t="inlineStr"/>
       <c r="J33" s="1" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>974.9</t>
         </is>
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
-          <t>890.000</t>
+          <t>994.900</t>
         </is>
       </c>
       <c r="L33" s="1" t="inlineStr">
@@ -5191,7 +5175,7 @@
       </c>
       <c r="P33" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q33" s="1" t="inlineStr"/>
@@ -5213,17 +5197,17 @@
       </c>
       <c r="V33" s="1" t="inlineStr">
         <is>
-          <t>50.7</t>
+          <t>47.6</t>
         </is>
       </c>
       <c r="W33" s="1" t="inlineStr">
         <is>
-          <t>2017-12-18</t>
+          <t>2020-03-13</t>
         </is>
       </c>
       <c r="X33" s="1" t="inlineStr">
         <is>
-          <t>25.7</t>
+          <t>47.6</t>
         </is>
       </c>
       <c r="Y33" s="1" t="inlineStr">
@@ -5233,7 +5217,7 @@
       </c>
       <c r="Z33" s="1" t="inlineStr">
         <is>
-          <t>42.8</t>
+          <t>24.2</t>
         </is>
       </c>
       <c r="AA33" s="1" t="inlineStr">
@@ -5243,17 +5227,17 @@
       </c>
       <c r="AB33" s="1" t="inlineStr">
         <is>
-          <t>32.9</t>
+          <t>24.2</t>
         </is>
       </c>
       <c r="AC33" s="1" t="inlineStr">
         <is>
-          <t>2019-05-15</t>
+          <t>2018-05-16</t>
         </is>
       </c>
       <c r="AD33" s="1" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>89</t>
         </is>
       </c>
       <c r="AE33" s="1" t="inlineStr">
@@ -5276,7 +5260,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>R-45 S2</t>
+          <t>R-46</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
@@ -5286,35 +5270,47 @@
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>35.85921</t>
+          <t>35.85966</t>
         </is>
       </c>
       <c r="D34" s="1" t="inlineStr">
         <is>
-          <t>-106.25056</t>
+          <t>-106.29382</t>
         </is>
       </c>
       <c r="E34" s="1" t="inlineStr">
         <is>
-          <t>6704.02</t>
+          <t>7213.33</t>
         </is>
       </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>Tjfp</t>
-        </is>
-      </c>
-      <c r="G34" s="1" t="inlineStr"/>
-      <c r="H34" s="1" t="inlineStr"/>
-      <c r="I34" s="1" t="inlineStr"/>
+          <t>Tpf</t>
+        </is>
+      </c>
+      <c r="G34" s="1" t="inlineStr">
+        <is>
+          <t>2009-02-26 00:00:00</t>
+        </is>
+      </c>
+      <c r="H34" s="1" t="inlineStr">
+        <is>
+          <t>1382.2</t>
+        </is>
+      </c>
+      <c r="I34" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="J34" s="1" t="inlineStr">
         <is>
-          <t>974.9</t>
+          <t>1340</t>
         </is>
       </c>
       <c r="K34" s="1" t="inlineStr">
         <is>
-          <t>994.900</t>
+          <t>1360.700</t>
         </is>
       </c>
       <c r="L34" s="1" t="inlineStr">
@@ -5326,15 +5322,19 @@
       <c r="N34" s="1" t="inlineStr"/>
       <c r="O34" s="1" t="inlineStr">
         <is>
-          <t>Chromium</t>
+          <t>MDA C</t>
         </is>
       </c>
       <c r="P34" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
-        </is>
-      </c>
-      <c r="Q34" s="1" t="inlineStr"/>
+          <t>Mortandad</t>
+        </is>
+      </c>
+      <c r="Q34" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="R34" s="1" t="inlineStr"/>
       <c r="S34" s="1" t="inlineStr">
         <is>
@@ -5353,47 +5353,47 @@
       </c>
       <c r="V34" s="1" t="inlineStr">
         <is>
-          <t>47.6</t>
+          <t>10.7</t>
         </is>
       </c>
       <c r="W34" s="1" t="inlineStr">
         <is>
-          <t>2020-03-13</t>
+          <t>2009-05-13</t>
         </is>
       </c>
       <c r="X34" s="1" t="inlineStr">
         <is>
-          <t>47.6</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="Y34" s="1" t="inlineStr">
         <is>
-          <t>2020-03-13</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="Z34" s="1" t="inlineStr">
         <is>
-          <t>24.2</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AA34" s="1" t="inlineStr">
         <is>
-          <t>2018-05-16</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AB34" s="1" t="inlineStr">
         <is>
-          <t>24.2</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AC34" s="1" t="inlineStr">
         <is>
-          <t>2018-05-16</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AD34" s="1" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>39</t>
         </is>
       </c>
       <c r="AE34" s="1" t="inlineStr">
@@ -5416,7 +5416,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>R-46</t>
+          <t>R-50 S1</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
@@ -5426,17 +5426,17 @@
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>35.85966</t>
+          <t>35.85666</t>
         </is>
       </c>
       <c r="D35" s="1" t="inlineStr">
         <is>
-          <t>-106.29382</t>
+          <t>-106.25591</t>
         </is>
       </c>
       <c r="E35" s="1" t="inlineStr">
         <is>
-          <t>7213.33</t>
+          <t>6904.11</t>
         </is>
       </c>
       <c r="F35" s="1" t="inlineStr">
@@ -5444,53 +5444,37 @@
           <t>Tpf</t>
         </is>
       </c>
-      <c r="G35" s="1" t="inlineStr">
-        <is>
-          <t>2009-02-26 00:00:00</t>
-        </is>
-      </c>
-      <c r="H35" s="1" t="inlineStr">
-        <is>
-          <t>1382.2</t>
-        </is>
-      </c>
-      <c r="I35" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="G35" s="1" t="inlineStr"/>
+      <c r="H35" s="1" t="inlineStr"/>
+      <c r="I35" s="1" t="inlineStr"/>
       <c r="J35" s="1" t="inlineStr">
         <is>
-          <t>1340</t>
+          <t>1077</t>
         </is>
       </c>
       <c r="K35" s="1" t="inlineStr">
         <is>
-          <t>1360.700</t>
+          <t>1087.000</t>
         </is>
       </c>
       <c r="L35" s="1" t="inlineStr">
         <is>
-          <t>Brass cap location, Brass cap location</t>
+          <t>Brass cap location, Brass Cap location, Brass Cap location</t>
         </is>
       </c>
       <c r="M35" s="1" t="inlineStr"/>
       <c r="N35" s="1" t="inlineStr"/>
       <c r="O35" s="1" t="inlineStr">
         <is>
-          <t>MDA C</t>
+          <t>Chromium</t>
         </is>
       </c>
       <c r="P35" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
-        </is>
-      </c>
-      <c r="Q35" s="1" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+          <t>Mortandad</t>
+        </is>
+      </c>
+      <c r="Q35" s="1" t="inlineStr"/>
       <c r="R35" s="1" t="inlineStr"/>
       <c r="S35" s="1" t="inlineStr">
         <is>
@@ -5509,47 +5493,47 @@
       </c>
       <c r="V35" s="1" t="inlineStr">
         <is>
-          <t>10.7</t>
+          <t>150.0</t>
         </is>
       </c>
       <c r="W35" s="1" t="inlineStr">
         <is>
-          <t>2009-05-13</t>
+          <t>2017-10-26</t>
         </is>
       </c>
       <c r="X35" s="1" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>26.4</t>
         </is>
       </c>
       <c r="Y35" s="1" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2020-03-04</t>
         </is>
       </c>
       <c r="Z35" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>129.0</t>
         </is>
       </c>
       <c r="AA35" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2018-05-14</t>
         </is>
       </c>
       <c r="AB35" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>53.2</t>
         </is>
       </c>
       <c r="AC35" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2019-05-09</t>
         </is>
       </c>
       <c r="AD35" s="1" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>105</t>
         </is>
       </c>
       <c r="AE35" s="1" t="inlineStr">
@@ -5572,7 +5556,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>R-50 S1</t>
+          <t>R-50 S2</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
@@ -5597,7 +5581,7 @@
       </c>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>Tpf</t>
+          <t>Tsfu</t>
         </is>
       </c>
       <c r="G36" s="1" t="inlineStr"/>
@@ -5605,12 +5589,12 @@
       <c r="I36" s="1" t="inlineStr"/>
       <c r="J36" s="1" t="inlineStr">
         <is>
-          <t>1077</t>
+          <t>1185</t>
         </is>
       </c>
       <c r="K36" s="1" t="inlineStr">
         <is>
-          <t>1087.000</t>
+          <t>1205.600</t>
         </is>
       </c>
       <c r="L36" s="1" t="inlineStr">
@@ -5627,7 +5611,7 @@
       </c>
       <c r="P36" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q36" s="1" t="inlineStr"/>
@@ -5649,47 +5633,47 @@
       </c>
       <c r="V36" s="1" t="inlineStr">
         <is>
-          <t>150.0</t>
+          <t>7.27</t>
         </is>
       </c>
       <c r="W36" s="1" t="inlineStr">
         <is>
-          <t>2017-10-26</t>
+          <t>2010-07-02</t>
         </is>
       </c>
       <c r="X36" s="1" t="inlineStr">
         <is>
-          <t>26.4</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="Y36" s="1" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="Z36" s="1" t="inlineStr">
         <is>
-          <t>129.0</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="AA36" s="1" t="inlineStr">
         <is>
-          <t>2018-05-14</t>
+          <t>2018-05-15</t>
         </is>
       </c>
       <c r="AB36" s="1" t="inlineStr">
         <is>
-          <t>53.2</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="AC36" s="1" t="inlineStr">
         <is>
-          <t>2019-05-09</t>
+          <t>2018-05-15</t>
         </is>
       </c>
       <c r="AD36" s="1" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>106</t>
         </is>
       </c>
       <c r="AE36" s="1" t="inlineStr">
@@ -5697,11 +5681,7 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="AF36" s="1" t="inlineStr">
-        <is>
-          <t>Exceedance</t>
-        </is>
-      </c>
+      <c r="AF36" s="1" t="inlineStr"/>
       <c r="AG36" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -5712,7 +5692,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>R-50 S2</t>
+          <t>R-52 S1</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
@@ -5722,22 +5702,22 @@
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>35.85666</t>
+          <t>35.84495</t>
         </is>
       </c>
       <c r="D37" s="1" t="inlineStr">
         <is>
-          <t>-106.25591</t>
+          <t>-106.26157</t>
         </is>
       </c>
       <c r="E37" s="1" t="inlineStr">
         <is>
-          <t>6904.11</t>
+          <t>6883.04</t>
         </is>
       </c>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>Tsfu</t>
+          <t>Tpf</t>
         </is>
       </c>
       <c r="G37" s="1" t="inlineStr"/>
@@ -5745,29 +5725,29 @@
       <c r="I37" s="1" t="inlineStr"/>
       <c r="J37" s="1" t="inlineStr">
         <is>
-          <t>1185</t>
+          <t>1035.2</t>
         </is>
       </c>
       <c r="K37" s="1" t="inlineStr">
         <is>
-          <t>1205.600</t>
+          <t>1055.700</t>
         </is>
       </c>
       <c r="L37" s="1" t="inlineStr">
         <is>
-          <t>Brass cap location, Brass Cap location, Brass Cap location</t>
+          <t>Brass cap location, Brass cap location, Brass cap location</t>
         </is>
       </c>
       <c r="M37" s="1" t="inlineStr"/>
       <c r="N37" s="1" t="inlineStr"/>
       <c r="O37" s="1" t="inlineStr">
         <is>
-          <t>Chromium</t>
+          <t>TA-54</t>
         </is>
       </c>
       <c r="P37" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q37" s="1" t="inlineStr"/>
@@ -5789,47 +5769,47 @@
       </c>
       <c r="V37" s="1" t="inlineStr">
         <is>
-          <t>7.27</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="W37" s="1" t="inlineStr">
         <is>
-          <t>2010-07-02</t>
+          <t>2010-05-02</t>
         </is>
       </c>
       <c r="X37" s="1" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="Y37" s="1" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2019-04-09</t>
         </is>
       </c>
       <c r="Z37" s="1" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AA37" s="1" t="inlineStr">
         <is>
-          <t>2018-05-15</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AB37" s="1" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AC37" s="1" t="inlineStr">
         <is>
-          <t>2018-05-15</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AD37" s="1" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>26</t>
         </is>
       </c>
       <c r="AE37" s="1" t="inlineStr">
@@ -5848,7 +5828,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>R-52 S1</t>
+          <t>R-52 S2</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
@@ -5881,12 +5861,12 @@
       <c r="I38" s="1" t="inlineStr"/>
       <c r="J38" s="1" t="inlineStr">
         <is>
-          <t>1035.2</t>
+          <t>1107</t>
         </is>
       </c>
       <c r="K38" s="1" t="inlineStr">
         <is>
-          <t>1055.700</t>
+          <t>1117.000</t>
         </is>
       </c>
       <c r="L38" s="1" t="inlineStr">
@@ -5903,7 +5883,7 @@
       </c>
       <c r="P38" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q38" s="1" t="inlineStr"/>
@@ -5925,17 +5905,17 @@
       </c>
       <c r="V38" s="1" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>6.32</t>
         </is>
       </c>
       <c r="W38" s="1" t="inlineStr">
         <is>
-          <t>2010-05-02</t>
+          <t>2010-04-23</t>
         </is>
       </c>
       <c r="X38" s="1" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="Y38" s="1" t="inlineStr">
@@ -5965,7 +5945,7 @@
       </c>
       <c r="AD38" s="1" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>40</t>
         </is>
       </c>
       <c r="AE38" s="1" t="inlineStr">
@@ -5984,7 +5964,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>R-52 S2</t>
+          <t>R-53 S1</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
@@ -5994,17 +5974,17 @@
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>35.84495</t>
+          <t>35.8368</t>
         </is>
       </c>
       <c r="D39" s="1" t="inlineStr">
         <is>
-          <t>-106.26157</t>
+          <t>-106.25104</t>
         </is>
       </c>
       <c r="E39" s="1" t="inlineStr">
         <is>
-          <t>6883.04</t>
+          <t>6689.98</t>
         </is>
       </c>
       <c r="F39" s="1" t="inlineStr">
@@ -6017,17 +5997,17 @@
       <c r="I39" s="1" t="inlineStr"/>
       <c r="J39" s="1" t="inlineStr">
         <is>
-          <t>1107</t>
+          <t>849.2</t>
         </is>
       </c>
       <c r="K39" s="1" t="inlineStr">
         <is>
-          <t>1117.000</t>
+          <t>859.200</t>
         </is>
       </c>
       <c r="L39" s="1" t="inlineStr">
         <is>
-          <t>Brass cap location, Brass cap location, Brass cap location</t>
+          <t>estimated location pending survey, brass cap location, brass cap location</t>
         </is>
       </c>
       <c r="M39" s="1" t="inlineStr"/>
@@ -6039,7 +6019,7 @@
       </c>
       <c r="P39" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q39" s="1" t="inlineStr"/>
@@ -6061,22 +6041,22 @@
       </c>
       <c r="V39" s="1" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="W39" s="1" t="inlineStr">
         <is>
-          <t>2010-04-23</t>
+          <t>2010-10-12</t>
         </is>
       </c>
       <c r="X39" s="1" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="Y39" s="1" t="inlineStr">
         <is>
-          <t>2019-04-09</t>
+          <t>2015-11-04</t>
         </is>
       </c>
       <c r="Z39" s="1" t="inlineStr">
@@ -6101,7 +6081,7 @@
       </c>
       <c r="AD39" s="1" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AE39" s="1" t="inlineStr">
@@ -6120,7 +6100,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>R-53 S1</t>
+          <t>R-53 S2</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
@@ -6153,17 +6133,17 @@
       <c r="I40" s="1" t="inlineStr"/>
       <c r="J40" s="1" t="inlineStr">
         <is>
-          <t>849.2</t>
+          <t>959.7</t>
         </is>
       </c>
       <c r="K40" s="1" t="inlineStr">
         <is>
-          <t>859.200</t>
+          <t>980.200</t>
         </is>
       </c>
       <c r="L40" s="1" t="inlineStr">
         <is>
-          <t>estimated location pending survey, brass cap location, brass cap location</t>
+          <t>brass cap location, estimated location pending survey, brass cap location</t>
         </is>
       </c>
       <c r="M40" s="1" t="inlineStr"/>
@@ -6175,7 +6155,7 @@
       </c>
       <c r="P40" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q40" s="1" t="inlineStr"/>
@@ -6197,7 +6177,7 @@
       </c>
       <c r="V40" s="1" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="W40" s="1" t="inlineStr">
@@ -6207,12 +6187,12 @@
       </c>
       <c r="X40" s="1" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="Y40" s="1" t="inlineStr">
         <is>
-          <t>2015-11-04</t>
+          <t>2019-10-25</t>
         </is>
       </c>
       <c r="Z40" s="1" t="inlineStr">
@@ -6256,7 +6236,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>R-53 S2</t>
+          <t>R-55 S1</t>
         </is>
       </c>
       <c r="B41" s="1" t="inlineStr">
@@ -6266,22 +6246,22 @@
       </c>
       <c r="C41" s="1" t="inlineStr">
         <is>
-          <t>35.8368</t>
+          <t>35.82969</t>
         </is>
       </c>
       <c r="D41" s="1" t="inlineStr">
         <is>
-          <t>-106.25104</t>
+          <t>-106.22751</t>
         </is>
       </c>
       <c r="E41" s="1" t="inlineStr">
         <is>
-          <t>6689.98</t>
+          <t>6533.86</t>
         </is>
       </c>
       <c r="F41" s="1" t="inlineStr">
         <is>
-          <t>Tpf</t>
+          <t>Tpt</t>
         </is>
       </c>
       <c r="G41" s="1" t="inlineStr"/>
@@ -6289,17 +6269,17 @@
       <c r="I41" s="1" t="inlineStr"/>
       <c r="J41" s="1" t="inlineStr">
         <is>
-          <t>959.7</t>
+          <t>860</t>
         </is>
       </c>
       <c r="K41" s="1" t="inlineStr">
         <is>
-          <t>980.200</t>
+          <t>880.600</t>
         </is>
       </c>
       <c r="L41" s="1" t="inlineStr">
         <is>
-          <t>brass cap location, estimated location pending survey, brass cap location</t>
+          <t>Brass cap surveyed location, brass cap surveyed location, brass cap surveyed location</t>
         </is>
       </c>
       <c r="M41" s="1" t="inlineStr"/>
@@ -6311,7 +6291,7 @@
       </c>
       <c r="P41" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q41" s="1" t="inlineStr"/>
@@ -6333,22 +6313,22 @@
       </c>
       <c r="V41" s="1" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="W41" s="1" t="inlineStr">
         <is>
-          <t>2010-10-12</t>
+          <t>2011-10-28</t>
         </is>
       </c>
       <c r="X41" s="1" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="Y41" s="1" t="inlineStr">
         <is>
-          <t>2019-10-25</t>
+          <t>2019-10-16</t>
         </is>
       </c>
       <c r="Z41" s="1" t="inlineStr">
@@ -6373,7 +6353,7 @@
       </c>
       <c r="AD41" s="1" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AE41" s="1" t="inlineStr">
@@ -6392,7 +6372,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>R-55 S1</t>
+          <t>R-55 S2</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
@@ -6417,7 +6397,7 @@
       </c>
       <c r="F42" s="1" t="inlineStr">
         <is>
-          <t>Tpt</t>
+          <t>Tcar</t>
         </is>
       </c>
       <c r="G42" s="1" t="inlineStr"/>
@@ -6425,12 +6405,12 @@
       <c r="I42" s="1" t="inlineStr"/>
       <c r="J42" s="1" t="inlineStr">
         <is>
-          <t>860</t>
+          <t>994.4</t>
         </is>
       </c>
       <c r="K42" s="1" t="inlineStr">
         <is>
-          <t>880.600</t>
+          <t>1015.400</t>
         </is>
       </c>
       <c r="L42" s="1" t="inlineStr">
@@ -6447,7 +6427,7 @@
       </c>
       <c r="P42" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q42" s="1" t="inlineStr"/>
@@ -6469,17 +6449,17 @@
       </c>
       <c r="V42" s="1" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="W42" s="1" t="inlineStr">
         <is>
-          <t>2011-10-28</t>
+          <t>2010-09-14</t>
         </is>
       </c>
       <c r="X42" s="1" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="Y42" s="1" t="inlineStr">
@@ -6528,7 +6508,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>R-55 S2</t>
+          <t>R-56 S1</t>
         </is>
       </c>
       <c r="B43" s="1" t="inlineStr">
@@ -6538,22 +6518,22 @@
       </c>
       <c r="C43" s="1" t="inlineStr">
         <is>
-          <t>35.82969</t>
+          <t>35.83456</t>
         </is>
       </c>
       <c r="D43" s="1" t="inlineStr">
         <is>
-          <t>-106.22751</t>
+          <t>-106.24969</t>
         </is>
       </c>
       <c r="E43" s="1" t="inlineStr">
         <is>
-          <t>6533.86</t>
+          <t>6780.88</t>
         </is>
       </c>
       <c r="F43" s="1" t="inlineStr">
         <is>
-          <t>Tcar</t>
+          <t>Tpf</t>
         </is>
       </c>
       <c r="G43" s="1" t="inlineStr"/>
@@ -6561,17 +6541,17 @@
       <c r="I43" s="1" t="inlineStr"/>
       <c r="J43" s="1" t="inlineStr">
         <is>
-          <t>994.4</t>
+          <t>945</t>
         </is>
       </c>
       <c r="K43" s="1" t="inlineStr">
         <is>
-          <t>1015.400</t>
+          <t>965.600</t>
         </is>
       </c>
       <c r="L43" s="1" t="inlineStr">
         <is>
-          <t>Brass cap surveyed location, brass cap surveyed location, brass cap surveyed location</t>
+          <t>brass cap location, brass cap location, Brass cap location</t>
         </is>
       </c>
       <c r="M43" s="1" t="inlineStr"/>
@@ -6583,7 +6563,7 @@
       </c>
       <c r="P43" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q43" s="1" t="inlineStr"/>
@@ -6605,22 +6585,22 @@
       </c>
       <c r="V43" s="1" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>2.6603</t>
         </is>
       </c>
       <c r="W43" s="1" t="inlineStr">
         <is>
-          <t>2010-09-14</t>
+          <t>2011-07-20</t>
         </is>
       </c>
       <c r="X43" s="1" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="Y43" s="1" t="inlineStr">
         <is>
-          <t>2019-10-16</t>
+          <t>2015-11-03</t>
         </is>
       </c>
       <c r="Z43" s="1" t="inlineStr">
@@ -6664,7 +6644,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>R-56 S1</t>
+          <t>R-56 S2</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
@@ -6697,17 +6677,17 @@
       <c r="I44" s="1" t="inlineStr"/>
       <c r="J44" s="1" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>1046.6</t>
         </is>
       </c>
       <c r="K44" s="1" t="inlineStr">
         <is>
-          <t>965.600</t>
+          <t>1067.100</t>
         </is>
       </c>
       <c r="L44" s="1" t="inlineStr">
         <is>
-          <t>brass cap location, brass cap location, Brass cap location</t>
+          <t>brass cap location, Brass cap location, brass cap location</t>
         </is>
       </c>
       <c r="M44" s="1" t="inlineStr"/>
@@ -6719,7 +6699,7 @@
       </c>
       <c r="P44" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q44" s="1" t="inlineStr"/>
@@ -6741,22 +6721,22 @@
       </c>
       <c r="V44" s="1" t="inlineStr">
         <is>
-          <t>2.6603</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="W44" s="1" t="inlineStr">
         <is>
-          <t>2011-07-20</t>
+          <t>2010-08-13</t>
         </is>
       </c>
       <c r="X44" s="1" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="Y44" s="1" t="inlineStr">
         <is>
-          <t>2015-11-03</t>
+          <t>2019-10-24</t>
         </is>
       </c>
       <c r="Z44" s="1" t="inlineStr">
@@ -6800,7 +6780,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>R-56 S2</t>
+          <t>R-57 S1</t>
         </is>
       </c>
       <c r="B45" s="1" t="inlineStr">
@@ -6810,22 +6790,22 @@
       </c>
       <c r="C45" s="1" t="inlineStr">
         <is>
-          <t>35.83456</t>
+          <t>35.82987</t>
         </is>
       </c>
       <c r="D45" s="1" t="inlineStr">
         <is>
-          <t>-106.24969</t>
+          <t>-106.23417</t>
         </is>
       </c>
       <c r="E45" s="1" t="inlineStr">
         <is>
-          <t>6780.88</t>
+          <t>6648.04</t>
         </is>
       </c>
       <c r="F45" s="1" t="inlineStr">
         <is>
-          <t>Tpf</t>
+          <t>Tb4</t>
         </is>
       </c>
       <c r="G45" s="1" t="inlineStr"/>
@@ -6833,17 +6813,17 @@
       <c r="I45" s="1" t="inlineStr"/>
       <c r="J45" s="1" t="inlineStr">
         <is>
-          <t>1046.6</t>
+          <t>910</t>
         </is>
       </c>
       <c r="K45" s="1" t="inlineStr">
         <is>
-          <t>1067.100</t>
+          <t>930.500</t>
         </is>
       </c>
       <c r="L45" s="1" t="inlineStr">
         <is>
-          <t>brass cap location, Brass cap location, brass cap location</t>
+          <t>Brass cap location, Brass cap location, Brass cap location</t>
         </is>
       </c>
       <c r="M45" s="1" t="inlineStr"/>
@@ -6855,7 +6835,7 @@
       </c>
       <c r="P45" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q45" s="1" t="inlineStr"/>
@@ -6877,22 +6857,22 @@
       </c>
       <c r="V45" s="1" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="W45" s="1" t="inlineStr">
         <is>
-          <t>2010-08-13</t>
+          <t>2011-07-13</t>
         </is>
       </c>
       <c r="X45" s="1" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="Y45" s="1" t="inlineStr">
         <is>
-          <t>2019-10-24</t>
+          <t>2017-10-20</t>
         </is>
       </c>
       <c r="Z45" s="1" t="inlineStr">
@@ -6917,7 +6897,7 @@
       </c>
       <c r="AD45" s="1" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AE45" s="1" t="inlineStr">
@@ -6936,7 +6916,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>R-57 S1</t>
+          <t>R-57 S2</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr">
@@ -6961,7 +6941,7 @@
       </c>
       <c r="F46" s="1" t="inlineStr">
         <is>
-          <t>Tb4</t>
+          <t>Tpt</t>
         </is>
       </c>
       <c r="G46" s="1" t="inlineStr"/>
@@ -6969,12 +6949,12 @@
       <c r="I46" s="1" t="inlineStr"/>
       <c r="J46" s="1" t="inlineStr">
         <is>
-          <t>910</t>
+          <t>971.5</t>
         </is>
       </c>
       <c r="K46" s="1" t="inlineStr">
         <is>
-          <t>930.500</t>
+          <t>992.100</t>
         </is>
       </c>
       <c r="L46" s="1" t="inlineStr">
@@ -6991,7 +6971,7 @@
       </c>
       <c r="P46" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q46" s="1" t="inlineStr"/>
@@ -7013,7 +6993,7 @@
       </c>
       <c r="V46" s="1" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>6.81</t>
         </is>
       </c>
       <c r="W46" s="1" t="inlineStr">
@@ -7023,12 +7003,12 @@
       </c>
       <c r="X46" s="1" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="Y46" s="1" t="inlineStr">
         <is>
-          <t>2017-10-20</t>
+          <t>2019-10-18</t>
         </is>
       </c>
       <c r="Z46" s="1" t="inlineStr">
@@ -7072,7 +7052,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>R-57 S2</t>
+          <t>R-60</t>
         </is>
       </c>
       <c r="B47" s="1" t="inlineStr">
@@ -7082,55 +7062,71 @@
       </c>
       <c r="C47" s="1" t="inlineStr">
         <is>
-          <t>35.82987</t>
+          <t>35.86057</t>
         </is>
       </c>
       <c r="D47" s="1" t="inlineStr">
         <is>
-          <t>-106.23417</t>
+          <t>-106.29618</t>
         </is>
       </c>
       <c r="E47" s="1" t="inlineStr">
         <is>
-          <t>6648.04</t>
+          <t>7228.17</t>
         </is>
       </c>
       <c r="F47" s="1" t="inlineStr">
         <is>
-          <t>Tpt</t>
-        </is>
-      </c>
-      <c r="G47" s="1" t="inlineStr"/>
-      <c r="H47" s="1" t="inlineStr"/>
-      <c r="I47" s="1" t="inlineStr"/>
+          <t>Tpf</t>
+        </is>
+      </c>
+      <c r="G47" s="1" t="inlineStr">
+        <is>
+          <t>2010-10-18 00:00:00</t>
+        </is>
+      </c>
+      <c r="H47" s="1" t="inlineStr">
+        <is>
+          <t>1360.90</t>
+        </is>
+      </c>
+      <c r="I47" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="J47" s="1" t="inlineStr">
         <is>
-          <t>971.5</t>
+          <t>1330</t>
         </is>
       </c>
       <c r="K47" s="1" t="inlineStr">
         <is>
-          <t>992.100</t>
+          <t>1350.900</t>
         </is>
       </c>
       <c r="L47" s="1" t="inlineStr">
         <is>
-          <t>Brass cap location, Brass cap location, Brass cap location</t>
+          <t>Brass Cap location from well completion report, Brass Cap location from well completion report, Brass Cap location from well completion report</t>
         </is>
       </c>
       <c r="M47" s="1" t="inlineStr"/>
       <c r="N47" s="1" t="inlineStr"/>
       <c r="O47" s="1" t="inlineStr">
         <is>
-          <t>TA-54</t>
+          <t>MDA C</t>
         </is>
       </c>
       <c r="P47" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
-        </is>
-      </c>
-      <c r="Q47" s="1" t="inlineStr"/>
+          <t>Mortandad</t>
+        </is>
+      </c>
+      <c r="Q47" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="R47" s="1" t="inlineStr"/>
       <c r="S47" s="1" t="inlineStr">
         <is>
@@ -7149,22 +7145,22 @@
       </c>
       <c r="V47" s="1" t="inlineStr">
         <is>
-          <t>6.81</t>
+          <t>7.91</t>
         </is>
       </c>
       <c r="W47" s="1" t="inlineStr">
         <is>
-          <t>2011-07-13</t>
+          <t>2010-12-16</t>
         </is>
       </c>
       <c r="X47" s="1" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="Y47" s="1" t="inlineStr">
         <is>
-          <t>2019-10-18</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="Z47" s="1" t="inlineStr">
@@ -7189,7 +7185,7 @@
       </c>
       <c r="AD47" s="1" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AE47" s="1" t="inlineStr">
@@ -7197,7 +7193,11 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="AF47" s="1" t="inlineStr"/>
+      <c r="AF47" s="1" t="inlineStr">
+        <is>
+          <t>Exceedance</t>
+        </is>
+      </c>
       <c r="AG47" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -7208,7 +7208,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>R-60</t>
+          <t>R-61 S1</t>
         </is>
       </c>
       <c r="B48" s="1" t="inlineStr">
@@ -7218,17 +7218,17 @@
       </c>
       <c r="C48" s="1" t="inlineStr">
         <is>
-          <t>35.86057</t>
+          <t>35.85758</t>
         </is>
       </c>
       <c r="D48" s="1" t="inlineStr">
         <is>
-          <t>-106.29618</t>
+          <t>-106.2612</t>
         </is>
       </c>
       <c r="E48" s="1" t="inlineStr">
         <is>
-          <t>7228.17</t>
+          <t>6940.12</t>
         </is>
       </c>
       <c r="F48" s="1" t="inlineStr">
@@ -7236,53 +7236,37 @@
           <t>Tpf</t>
         </is>
       </c>
-      <c r="G48" s="1" t="inlineStr">
-        <is>
-          <t>2010-10-18 00:00:00</t>
-        </is>
-      </c>
-      <c r="H48" s="1" t="inlineStr">
-        <is>
-          <t>1360.90</t>
-        </is>
-      </c>
-      <c r="I48" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="G48" s="1" t="inlineStr"/>
+      <c r="H48" s="1" t="inlineStr"/>
+      <c r="I48" s="1" t="inlineStr"/>
       <c r="J48" s="1" t="inlineStr">
         <is>
-          <t>1330</t>
+          <t>1125</t>
         </is>
       </c>
       <c r="K48" s="1" t="inlineStr">
         <is>
-          <t>1350.900</t>
+          <t>1135.000</t>
         </is>
       </c>
       <c r="L48" s="1" t="inlineStr">
         <is>
-          <t>Brass Cap location from well completion report, Brass Cap location from well completion report, Brass Cap location from well completion report</t>
+          <t>Preliminary information, Brass cap location from WCR, rounded to 2 digits, Brass cap location from WCR, rounded to 2 digits</t>
         </is>
       </c>
       <c r="M48" s="1" t="inlineStr"/>
       <c r="N48" s="1" t="inlineStr"/>
       <c r="O48" s="1" t="inlineStr">
         <is>
-          <t>MDA C</t>
+          <t>Chromium</t>
         </is>
       </c>
       <c r="P48" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
-        </is>
-      </c>
-      <c r="Q48" s="1" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+          <t>Mortandad</t>
+        </is>
+      </c>
+      <c r="Q48" s="1" t="inlineStr"/>
       <c r="R48" s="1" t="inlineStr"/>
       <c r="S48" s="1" t="inlineStr">
         <is>
@@ -7301,22 +7285,22 @@
       </c>
       <c r="V48" s="1" t="inlineStr">
         <is>
-          <t>7.91</t>
+          <t>39.1</t>
         </is>
       </c>
       <c r="W48" s="1" t="inlineStr">
         <is>
-          <t>2010-12-16</t>
+          <t>2019-06-06</t>
         </is>
       </c>
       <c r="X48" s="1" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>36.8</t>
         </is>
       </c>
       <c r="Y48" s="1" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2020-03-06</t>
         </is>
       </c>
       <c r="Z48" s="1" t="inlineStr">
@@ -7341,7 +7325,7 @@
       </c>
       <c r="AD48" s="1" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>99</t>
         </is>
       </c>
       <c r="AE48" s="1" t="inlineStr">
@@ -7364,7 +7348,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>R-61 S1</t>
+          <t>R-62</t>
         </is>
       </c>
       <c r="B49" s="1" t="inlineStr">
@@ -7374,17 +7358,17 @@
       </c>
       <c r="C49" s="1" t="inlineStr">
         <is>
-          <t>35.85758</t>
+          <t>35.86312</t>
         </is>
       </c>
       <c r="D49" s="1" t="inlineStr">
         <is>
-          <t>-106.2612</t>
+          <t>-106.26647</t>
         </is>
       </c>
       <c r="E49" s="1" t="inlineStr">
         <is>
-          <t>6940.12</t>
+          <t>6984.88</t>
         </is>
       </c>
       <c r="F49" s="1" t="inlineStr">
@@ -7392,22 +7376,34 @@
           <t>Tpf</t>
         </is>
       </c>
-      <c r="G49" s="1" t="inlineStr"/>
-      <c r="H49" s="1" t="inlineStr"/>
-      <c r="I49" s="1" t="inlineStr"/>
+      <c r="G49" s="1" t="inlineStr">
+        <is>
+          <t>2011-10-03 00:00:00</t>
+        </is>
+      </c>
+      <c r="H49" s="1" t="inlineStr">
+        <is>
+          <t>1189.7</t>
+        </is>
+      </c>
+      <c r="I49" s="1" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
       <c r="J49" s="1" t="inlineStr">
         <is>
-          <t>1125</t>
+          <t>1158.4</t>
         </is>
       </c>
       <c r="K49" s="1" t="inlineStr">
         <is>
-          <t>1135.000</t>
+          <t>1179.1</t>
         </is>
       </c>
       <c r="L49" s="1" t="inlineStr">
         <is>
-          <t>Preliminary information, Brass cap location from WCR, rounded to 2 digits, Brass cap location from WCR, rounded to 2 digits</t>
+          <t>Updated Location information from e-mail from RJK 4/2/2012, Updated Location information from e-mail from RJK 4/2/2012</t>
         </is>
       </c>
       <c r="M49" s="1" t="inlineStr"/>
@@ -7419,10 +7415,14 @@
       </c>
       <c r="P49" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
-        </is>
-      </c>
-      <c r="Q49" s="1" t="inlineStr"/>
+          <t>Mortandad</t>
+        </is>
+      </c>
+      <c r="Q49" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="R49" s="1" t="inlineStr"/>
       <c r="S49" s="1" t="inlineStr">
         <is>
@@ -7441,47 +7441,47 @@
       </c>
       <c r="V49" s="1" t="inlineStr">
         <is>
-          <t>39.1</t>
+          <t>322.0</t>
         </is>
       </c>
       <c r="W49" s="1" t="inlineStr">
         <is>
-          <t>2019-06-06</t>
+          <t>2017-02-21</t>
         </is>
       </c>
       <c r="X49" s="1" t="inlineStr">
         <is>
-          <t>36.8</t>
+          <t>294.0</t>
         </is>
       </c>
       <c r="Y49" s="1" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2019-11-12</t>
         </is>
       </c>
       <c r="Z49" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>326.0</t>
         </is>
       </c>
       <c r="AA49" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2019-05-14</t>
         </is>
       </c>
       <c r="AB49" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>326.0</t>
         </is>
       </c>
       <c r="AC49" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2019-05-14</t>
         </is>
       </c>
       <c r="AD49" s="1" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>61</t>
         </is>
       </c>
       <c r="AE49" s="1" t="inlineStr">
@@ -7504,7 +7504,7 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>R-62</t>
+          <t>SIMR-2</t>
         </is>
       </c>
       <c r="B50" s="1" t="inlineStr">
@@ -7514,17 +7514,17 @@
       </c>
       <c r="C50" s="1" t="inlineStr">
         <is>
-          <t>35.86312</t>
+          <t>35.85399</t>
         </is>
       </c>
       <c r="D50" s="1" t="inlineStr">
         <is>
-          <t>-106.26647</t>
+          <t>-106.25103</t>
         </is>
       </c>
       <c r="E50" s="1" t="inlineStr">
         <is>
-          <t>6984.88</t>
+          <t>6702.3</t>
         </is>
       </c>
       <c r="F50" s="1" t="inlineStr">
@@ -7534,34 +7534,30 @@
       </c>
       <c r="G50" s="1" t="inlineStr">
         <is>
-          <t>2011-10-03 00:00:00</t>
+          <t>2015-06-16 00:00:00</t>
         </is>
       </c>
       <c r="H50" s="1" t="inlineStr">
         <is>
-          <t>1189.7</t>
+          <t>927.0</t>
         </is>
       </c>
       <c r="I50" s="1" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J50" s="1" t="inlineStr">
         <is>
-          <t>1158.4</t>
+          <t>885</t>
         </is>
       </c>
       <c r="K50" s="1" t="inlineStr">
         <is>
-          <t>1179.1</t>
-        </is>
-      </c>
-      <c r="L50" s="1" t="inlineStr">
-        <is>
-          <t>Updated Location information from e-mail from RJK 4/2/2012, Updated Location information from e-mail from RJK 4/2/2012</t>
-        </is>
-      </c>
+          <t>905.4</t>
+        </is>
+      </c>
+      <c r="L50" s="1" t="inlineStr"/>
       <c r="M50" s="1" t="inlineStr"/>
       <c r="N50" s="1" t="inlineStr"/>
       <c r="O50" s="1" t="inlineStr">
@@ -7571,7 +7567,7 @@
       </c>
       <c r="P50" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q50" s="1" t="inlineStr">
@@ -7587,7 +7583,7 @@
       </c>
       <c r="T50" s="1" t="inlineStr">
         <is>
-          <t>Ground Elevation updated from MW</t>
+          <t>Ground Elevation updated from MW, Geologic Unit Code updated from MW</t>
         </is>
       </c>
       <c r="U50" s="1" t="inlineStr">
@@ -7597,47 +7593,47 @@
       </c>
       <c r="V50" s="1" t="inlineStr">
         <is>
-          <t>322.0</t>
+          <t>9.41</t>
         </is>
       </c>
       <c r="W50" s="1" t="inlineStr">
         <is>
-          <t>2017-02-21</t>
+          <t>2017-11-15</t>
         </is>
       </c>
       <c r="X50" s="1" t="inlineStr">
         <is>
-          <t>294.0</t>
+          <t>5.29</t>
         </is>
       </c>
       <c r="Y50" s="1" t="inlineStr">
         <is>
-          <t>2019-11-12</t>
+          <t>2020-03-18</t>
         </is>
       </c>
       <c r="Z50" s="1" t="inlineStr">
         <is>
-          <t>326.0</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="AA50" s="1" t="inlineStr">
         <is>
-          <t>2019-05-14</t>
+          <t>2019-10-15</t>
         </is>
       </c>
       <c r="AB50" s="1" t="inlineStr">
         <is>
-          <t>326.0</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="AC50" s="1" t="inlineStr">
         <is>
-          <t>2019-05-14</t>
+          <t>2019-10-15</t>
         </is>
       </c>
       <c r="AD50" s="1" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AE50" s="1" t="inlineStr">
@@ -7660,7 +7656,7 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>SIMR-2</t>
+          <t>O-1</t>
         </is>
       </c>
       <c r="B51" s="1" t="inlineStr">
@@ -7670,47 +7666,35 @@
       </c>
       <c r="C51" s="1" t="inlineStr">
         <is>
-          <t>35.85399</t>
+          <t>35.87079</t>
         </is>
       </c>
       <c r="D51" s="1" t="inlineStr">
         <is>
-          <t>-106.25103</t>
-        </is>
-      </c>
-      <c r="E51" s="1" t="inlineStr">
-        <is>
-          <t>6702.3</t>
-        </is>
-      </c>
-      <c r="F51" s="1" t="inlineStr">
-        <is>
-          <t>Tpf</t>
-        </is>
-      </c>
+          <t>-106.21969</t>
+        </is>
+      </c>
+      <c r="E51" s="1" t="inlineStr"/>
+      <c r="F51" s="1" t="inlineStr"/>
       <c r="G51" s="1" t="inlineStr">
         <is>
-          <t>2015-06-16 00:00:00</t>
+          <t>1990-08-01 00:00:00</t>
         </is>
       </c>
       <c r="H51" s="1" t="inlineStr">
         <is>
-          <t>927.0</t>
-        </is>
-      </c>
-      <c r="I51" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>2497.00</t>
+        </is>
+      </c>
+      <c r="I51" s="1" t="inlineStr"/>
       <c r="J51" s="1" t="inlineStr">
         <is>
-          <t>885</t>
+          <t>1017</t>
         </is>
       </c>
       <c r="K51" s="1" t="inlineStr">
         <is>
-          <t>905.4</t>
+          <t>2477.000</t>
         </is>
       </c>
       <c r="L51" s="1" t="inlineStr"/>
@@ -7718,12 +7702,12 @@
       <c r="N51" s="1" t="inlineStr"/>
       <c r="O51" s="1" t="inlineStr">
         <is>
-          <t>Chromium</t>
+          <t>General</t>
         </is>
       </c>
       <c r="P51" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Los Alamos</t>
         </is>
       </c>
       <c r="Q51" s="1" t="inlineStr">
@@ -7737,11 +7721,7 @@
           <t>[84]</t>
         </is>
       </c>
-      <c r="T51" s="1" t="inlineStr">
-        <is>
-          <t>Ground Elevation updated from MW, Geologic Unit Code updated from MW</t>
-        </is>
-      </c>
+      <c r="T51" s="1" t="inlineStr"/>
       <c r="U51" s="1" t="inlineStr">
         <is>
           <t>Well Info</t>
@@ -7749,47 +7729,47 @@
       </c>
       <c r="V51" s="1" t="inlineStr">
         <is>
-          <t>9.41</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="W51" s="1" t="inlineStr">
         <is>
-          <t>2017-11-15</t>
+          <t>2016-06-02</t>
         </is>
       </c>
       <c r="X51" s="1" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>12.7</t>
         </is>
       </c>
       <c r="Y51" s="1" t="inlineStr">
         <is>
-          <t>2020-03-18</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="Z51" s="1" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="AA51" s="1" t="inlineStr">
         <is>
-          <t>2019-10-15</t>
+          <t>2006-05-24</t>
         </is>
       </c>
       <c r="AB51" s="1" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="AC51" s="1" t="inlineStr">
         <is>
-          <t>2019-10-15</t>
+          <t>2006-05-24</t>
         </is>
       </c>
       <c r="AD51" s="1" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AE51" s="1" t="inlineStr">
@@ -7812,7 +7792,7 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>O-1</t>
+          <t>O-4</t>
         </is>
       </c>
       <c r="B52" s="1" t="inlineStr">
@@ -7822,35 +7802,35 @@
       </c>
       <c r="C52" s="1" t="inlineStr">
         <is>
-          <t>35.87079</t>
+          <t>35.87288</t>
         </is>
       </c>
       <c r="D52" s="1" t="inlineStr">
         <is>
-          <t>-106.21969</t>
+          <t>-106.26039</t>
         </is>
       </c>
       <c r="E52" s="1" t="inlineStr"/>
       <c r="F52" s="1" t="inlineStr"/>
       <c r="G52" s="1" t="inlineStr">
         <is>
-          <t>1990-08-01 00:00:00</t>
+          <t>1990-03-01 00:00:00</t>
         </is>
       </c>
       <c r="H52" s="1" t="inlineStr">
         <is>
-          <t>2497.00</t>
+          <t>2617.00</t>
         </is>
       </c>
       <c r="I52" s="1" t="inlineStr"/>
       <c r="J52" s="1" t="inlineStr">
         <is>
-          <t>1017</t>
+          <t>1115</t>
         </is>
       </c>
       <c r="K52" s="1" t="inlineStr">
         <is>
-          <t>2477.000</t>
+          <t>2596.000</t>
         </is>
       </c>
       <c r="L52" s="1" t="inlineStr"/>
@@ -7858,7 +7838,7 @@
       <c r="N52" s="1" t="inlineStr"/>
       <c r="O52" s="1" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>TA-21</t>
         </is>
       </c>
       <c r="P52" s="1" t="inlineStr">
@@ -7885,17 +7865,17 @@
       </c>
       <c r="V52" s="1" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>7.61</t>
         </is>
       </c>
       <c r="W52" s="1" t="inlineStr">
         <is>
-          <t>2016-06-02</t>
+          <t>2012-08-28</t>
         </is>
       </c>
       <c r="X52" s="1" t="inlineStr">
         <is>
-          <t>12.7</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="Y52" s="1" t="inlineStr">
@@ -7905,27 +7885,27 @@
       </c>
       <c r="Z52" s="1" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="AA52" s="1" t="inlineStr">
         <is>
-          <t>2006-05-24</t>
+          <t>2006-12-06</t>
         </is>
       </c>
       <c r="AB52" s="1" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="AC52" s="1" t="inlineStr">
         <is>
-          <t>2006-05-24</t>
+          <t>2007-02-28</t>
         </is>
       </c>
       <c r="AD52" s="1" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>79</t>
         </is>
       </c>
       <c r="AE52" s="1" t="inlineStr">
@@ -7948,7 +7928,7 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>O-4</t>
+          <t>R-2</t>
         </is>
       </c>
       <c r="B53" s="1" t="inlineStr">
@@ -7958,43 +7938,59 @@
       </c>
       <c r="C53" s="1" t="inlineStr">
         <is>
-          <t>35.87288</t>
+          <t>35.8874</t>
         </is>
       </c>
       <c r="D53" s="1" t="inlineStr">
         <is>
-          <t>-106.26039</t>
-        </is>
-      </c>
-      <c r="E53" s="1" t="inlineStr"/>
-      <c r="F53" s="1" t="inlineStr"/>
+          <t>-106.28679</t>
+        </is>
+      </c>
+      <c r="E53" s="1" t="inlineStr">
+        <is>
+          <t>6770.38</t>
+        </is>
+      </c>
+      <c r="F53" s="1" t="inlineStr">
+        <is>
+          <t>Tpf</t>
+        </is>
+      </c>
       <c r="G53" s="1" t="inlineStr">
         <is>
-          <t>1990-03-01 00:00:00</t>
+          <t>2003-10-28 00:00:00</t>
         </is>
       </c>
       <c r="H53" s="1" t="inlineStr">
         <is>
-          <t>2617.00</t>
-        </is>
-      </c>
-      <c r="I53" s="1" t="inlineStr"/>
+          <t>943.30</t>
+        </is>
+      </c>
+      <c r="I53" s="1" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
       <c r="J53" s="1" t="inlineStr">
         <is>
-          <t>1115</t>
+          <t>906.4</t>
         </is>
       </c>
       <c r="K53" s="1" t="inlineStr">
         <is>
-          <t>2596.000</t>
-        </is>
-      </c>
-      <c r="L53" s="1" t="inlineStr"/>
+          <t>929.600</t>
+        </is>
+      </c>
+      <c r="L53" s="1" t="inlineStr">
+        <is>
+          <t>Well Development information from the field can be found in \\win.lanl.gov\dfs root\Pueblo\GWFA\Hard forms\Construction\R-2\Final Well IM Forms2., Brass Cap xyz data taken by Lynn Engineering using static GPS elevation NGVD29., Brass Cap xyz data taken by Lynn Engineering using static GPS elevation NGVD29., Brass Cap xyz data taken by Lynn Engineering using static GPS elevation NGVD29.</t>
+        </is>
+      </c>
       <c r="M53" s="1" t="inlineStr"/>
       <c r="N53" s="1" t="inlineStr"/>
       <c r="O53" s="1" t="inlineStr">
         <is>
-          <t>TA-21</t>
+          <t>General</t>
         </is>
       </c>
       <c r="P53" s="1" t="inlineStr">
@@ -8013,7 +8009,11 @@
           <t>[84]</t>
         </is>
       </c>
-      <c r="T53" s="1" t="inlineStr"/>
+      <c r="T53" s="1" t="inlineStr">
+        <is>
+          <t>Ground Elevation updated from MW</t>
+        </is>
+      </c>
       <c r="U53" s="1" t="inlineStr">
         <is>
           <t>Well Info</t>
@@ -8021,47 +8021,47 @@
       </c>
       <c r="V53" s="1" t="inlineStr">
         <is>
-          <t>7.61</t>
+          <t>25.9</t>
         </is>
       </c>
       <c r="W53" s="1" t="inlineStr">
         <is>
-          <t>2012-08-28</t>
+          <t>2008-01-11</t>
         </is>
       </c>
       <c r="X53" s="1" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="Y53" s="1" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2018-09-20</t>
         </is>
       </c>
       <c r="Z53" s="1" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="AA53" s="1" t="inlineStr">
         <is>
-          <t>2006-12-06</t>
+          <t>2006-02-27</t>
         </is>
       </c>
       <c r="AB53" s="1" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="AC53" s="1" t="inlineStr">
         <is>
-          <t>2007-02-28</t>
+          <t>2006-02-27</t>
         </is>
       </c>
       <c r="AD53" s="1" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AE53" s="1" t="inlineStr">
@@ -8084,7 +8084,7 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>R-2</t>
+          <t>R-24</t>
         </is>
       </c>
       <c r="B54" s="1" t="inlineStr">
@@ -8094,52 +8094,52 @@
       </c>
       <c r="C54" s="1" t="inlineStr">
         <is>
-          <t>35.8874</t>
+          <t>35.88551</t>
         </is>
       </c>
       <c r="D54" s="1" t="inlineStr">
         <is>
-          <t>-106.28679</t>
+          <t>-106.23941</t>
         </is>
       </c>
       <c r="E54" s="1" t="inlineStr">
         <is>
-          <t>6770.38</t>
+          <t>6547.38</t>
         </is>
       </c>
       <c r="F54" s="1" t="inlineStr">
         <is>
-          <t>Tpf</t>
+          <t>Tsf</t>
         </is>
       </c>
       <c r="G54" s="1" t="inlineStr">
         <is>
-          <t>2003-10-28 00:00:00</t>
+          <t>2005-09-12 00:00:00</t>
         </is>
       </c>
       <c r="H54" s="1" t="inlineStr">
         <is>
-          <t>943.30</t>
+          <t>861.00</t>
         </is>
       </c>
       <c r="I54" s="1" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="J54" s="1" t="inlineStr">
         <is>
-          <t>906.4</t>
+          <t>825</t>
         </is>
       </c>
       <c r="K54" s="1" t="inlineStr">
         <is>
-          <t>929.600</t>
+          <t>848.000</t>
         </is>
       </c>
       <c r="L54" s="1" t="inlineStr">
         <is>
-          <t>Well Development information from the field can be found in \\win.lanl.gov\dfs root\Pueblo\GWFA\Hard forms\Construction\R-2\Final Well IM Forms2., Brass Cap xyz data taken by Lynn Engineering using static GPS elevation NGVD29., Brass Cap xyz data taken by Lynn Engineering using static GPS elevation NGVD29., Brass Cap xyz data taken by Lynn Engineering using static GPS elevation NGVD29.</t>
+          <t>Kleinfelder survey Brass Cap location, Kleinfelder survey Brass Cap location, Brass cap</t>
         </is>
       </c>
       <c r="M54" s="1" t="inlineStr"/>
@@ -8177,47 +8177,47 @@
       </c>
       <c r="V54" s="1" t="inlineStr">
         <is>
-          <t>25.9</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="W54" s="1" t="inlineStr">
         <is>
-          <t>2008-01-11</t>
+          <t>2005-09-20</t>
         </is>
       </c>
       <c r="X54" s="1" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="Y54" s="1" t="inlineStr">
         <is>
-          <t>2018-09-20</t>
+          <t>2019-06-14</t>
         </is>
       </c>
       <c r="Z54" s="1" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AA54" s="1" t="inlineStr">
         <is>
-          <t>2006-02-27</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AB54" s="1" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AC54" s="1" t="inlineStr">
         <is>
-          <t>2006-02-27</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AD54" s="1" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>32</t>
         </is>
       </c>
       <c r="AE54" s="1" t="inlineStr">
@@ -8225,11 +8225,7 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="AF54" s="1" t="inlineStr">
-        <is>
-          <t>Exceedance</t>
-        </is>
-      </c>
+      <c r="AF54" s="1" t="inlineStr"/>
       <c r="AG54" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -8240,7 +8236,7 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>R-24</t>
+          <t>R-3</t>
         </is>
       </c>
       <c r="B55" s="1" t="inlineStr">
@@ -8250,17 +8246,17 @@
       </c>
       <c r="C55" s="1" t="inlineStr">
         <is>
-          <t>35.88551</t>
+          <t>35.87179</t>
         </is>
       </c>
       <c r="D55" s="1" t="inlineStr">
         <is>
-          <t>-106.23941</t>
+          <t>-106.2209</t>
         </is>
       </c>
       <c r="E55" s="1" t="inlineStr">
         <is>
-          <t>6547.38</t>
+          <t>6395.88</t>
         </is>
       </c>
       <c r="F55" s="1" t="inlineStr">
@@ -8270,32 +8266,32 @@
       </c>
       <c r="G55" s="1" t="inlineStr">
         <is>
-          <t>2005-09-12 00:00:00</t>
+          <t>2010-06-21 00:00:00</t>
         </is>
       </c>
       <c r="H55" s="1" t="inlineStr">
         <is>
-          <t>861.00</t>
+          <t>1006.80</t>
         </is>
       </c>
       <c r="I55" s="1" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>5 in</t>
         </is>
       </c>
       <c r="J55" s="1" t="inlineStr">
         <is>
-          <t>825</t>
+          <t>974.5</t>
         </is>
       </c>
       <c r="K55" s="1" t="inlineStr">
         <is>
-          <t>848.000</t>
+          <t>995.000</t>
         </is>
       </c>
       <c r="L55" s="1" t="inlineStr">
         <is>
-          <t>Kleinfelder survey Brass Cap location, Kleinfelder survey Brass Cap location, Brass cap</t>
+          <t>Brass cap survey location, Planned CY05 Location, Brass cap survey location</t>
         </is>
       </c>
       <c r="M55" s="1" t="inlineStr"/>
@@ -8323,7 +8319,7 @@
       </c>
       <c r="T55" s="1" t="inlineStr">
         <is>
-          <t>Ground Elevation updated from MW</t>
+          <t>Ground Elevation updated from MW, Geologic Unit Code updated from MW, Well Diameter [in] updated from MW</t>
         </is>
       </c>
       <c r="U55" s="1" t="inlineStr">
@@ -8333,22 +8329,22 @@
       </c>
       <c r="V55" s="1" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>27.7622</t>
         </is>
       </c>
       <c r="W55" s="1" t="inlineStr">
         <is>
-          <t>2005-09-20</t>
+          <t>2010-05-12</t>
         </is>
       </c>
       <c r="X55" s="1" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="Y55" s="1" t="inlineStr">
         <is>
-          <t>2019-06-14</t>
+          <t>2016-06-06</t>
         </is>
       </c>
       <c r="Z55" s="1" t="inlineStr">
@@ -8373,7 +8369,7 @@
       </c>
       <c r="AD55" s="1" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>50</t>
         </is>
       </c>
       <c r="AE55" s="1" t="inlineStr">
@@ -8381,7 +8377,11 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="AF55" s="1" t="inlineStr"/>
+      <c r="AF55" s="1" t="inlineStr">
+        <is>
+          <t>Exceedance</t>
+        </is>
+      </c>
       <c r="AG55" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -8392,7 +8392,7 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>R-3</t>
+          <t>R-4</t>
         </is>
       </c>
       <c r="B56" s="1" t="inlineStr">
@@ -8402,52 +8402,52 @@
       </c>
       <c r="C56" s="1" t="inlineStr">
         <is>
-          <t>35.87179</t>
+          <t>35.8826</t>
         </is>
       </c>
       <c r="D56" s="1" t="inlineStr">
         <is>
-          <t>-106.2209</t>
+          <t>-106.25381</t>
         </is>
       </c>
       <c r="E56" s="1" t="inlineStr">
         <is>
-          <t>6395.88</t>
+          <t>6577.49</t>
         </is>
       </c>
       <c r="F56" s="1" t="inlineStr">
         <is>
-          <t>Tsf</t>
+          <t>Tp</t>
         </is>
       </c>
       <c r="G56" s="1" t="inlineStr">
         <is>
-          <t>2010-06-21 00:00:00</t>
+          <t>2004-01-06 00:00:00</t>
         </is>
       </c>
       <c r="H56" s="1" t="inlineStr">
         <is>
-          <t>1006.80</t>
+          <t>840.00</t>
         </is>
       </c>
       <c r="I56" s="1" t="inlineStr">
         <is>
-          <t>5 in</t>
+          <t>4.5 in</t>
         </is>
       </c>
       <c r="J56" s="1" t="inlineStr">
         <is>
-          <t>974.5</t>
+          <t>792.9</t>
         </is>
       </c>
       <c r="K56" s="1" t="inlineStr">
         <is>
-          <t>995.000</t>
+          <t>816.000</t>
         </is>
       </c>
       <c r="L56" s="1" t="inlineStr">
         <is>
-          <t>Brass cap survey location, Planned CY05 Location, Brass cap survey location</t>
+          <t>Inactive emergency landing strip in Pueblo Canyon; TA-74. Location info taken from Brass cap monument survey data from R-4 WCR., Inactive emergency landing strip in Pueblo Canyon; TA-74. Location info taken from Brass cap monument survey data from R-4 WCR.</t>
         </is>
       </c>
       <c r="M56" s="1" t="inlineStr"/>
@@ -8485,47 +8485,47 @@
       </c>
       <c r="V56" s="1" t="inlineStr">
         <is>
-          <t>27.7622</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="W56" s="1" t="inlineStr">
         <is>
-          <t>2010-05-12</t>
+          <t>2009-07-16</t>
         </is>
       </c>
       <c r="X56" s="1" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="Y56" s="1" t="inlineStr">
         <is>
-          <t>2016-06-06</t>
+          <t>2019-06-13</t>
         </is>
       </c>
       <c r="Z56" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="AA56" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2006-02-28</t>
         </is>
       </c>
       <c r="AB56" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="AC56" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2006-02-28</t>
         </is>
       </c>
       <c r="AD56" s="1" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>36</t>
         </is>
       </c>
       <c r="AE56" s="1" t="inlineStr">
@@ -8548,7 +8548,7 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>R-4</t>
+          <t>R-5 S3</t>
         </is>
       </c>
       <c r="B57" s="1" t="inlineStr">
@@ -8558,59 +8558,47 @@
       </c>
       <c r="C57" s="1" t="inlineStr">
         <is>
-          <t>35.8826</t>
+          <t>35.87307</t>
         </is>
       </c>
       <c r="D57" s="1" t="inlineStr">
         <is>
-          <t>-106.25381</t>
+          <t>-106.22877</t>
         </is>
       </c>
       <c r="E57" s="1" t="inlineStr">
         <is>
-          <t>6577.49</t>
+          <t>6472.6</t>
         </is>
       </c>
       <c r="F57" s="1" t="inlineStr">
         <is>
-          <t>Tp</t>
-        </is>
-      </c>
-      <c r="G57" s="1" t="inlineStr">
-        <is>
-          <t>2004-01-06 00:00:00</t>
-        </is>
-      </c>
-      <c r="H57" s="1" t="inlineStr">
-        <is>
-          <t>840.00</t>
-        </is>
-      </c>
-      <c r="I57" s="1" t="inlineStr">
-        <is>
-          <t>4.5 in</t>
-        </is>
-      </c>
+          <t>Tsf</t>
+        </is>
+      </c>
+      <c r="G57" s="1" t="inlineStr"/>
+      <c r="H57" s="1" t="inlineStr"/>
+      <c r="I57" s="1" t="inlineStr"/>
       <c r="J57" s="1" t="inlineStr">
         <is>
-          <t>792.9</t>
+          <t>676.9</t>
         </is>
       </c>
       <c r="K57" s="1" t="inlineStr">
         <is>
-          <t>816.000</t>
+          <t>720.300</t>
         </is>
       </c>
       <c r="L57" s="1" t="inlineStr">
         <is>
-          <t>Inactive emergency landing strip in Pueblo Canyon; TA-74. Location info taken from Brass cap monument survey data from R-4 WCR., Inactive emergency landing strip in Pueblo Canyon; TA-74. Location info taken from Brass cap monument survey data from R-4 WCR.</t>
+          <t>Location info taken from Brass cap monument survey data from R-5 WCR., Original x, y = 1646709, 1773061, Location info taken from Brass cap monument survey data from R-5 WCR.</t>
         </is>
       </c>
       <c r="M57" s="1" t="inlineStr"/>
       <c r="N57" s="1" t="inlineStr"/>
       <c r="O57" s="1" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>TA-21</t>
         </is>
       </c>
       <c r="P57" s="1" t="inlineStr">
@@ -8618,11 +8606,7 @@
           <t>Los Alamos</t>
         </is>
       </c>
-      <c r="Q57" s="1" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+      <c r="Q57" s="1" t="inlineStr"/>
       <c r="R57" s="1" t="inlineStr"/>
       <c r="S57" s="1" t="inlineStr">
         <is>
@@ -8631,7 +8615,7 @@
       </c>
       <c r="T57" s="1" t="inlineStr">
         <is>
-          <t>Ground Elevation updated from MW, Geologic Unit Code updated from MW, Well Diameter [in] updated from MW</t>
+          <t>Ground Elevation updated from MW</t>
         </is>
       </c>
       <c r="U57" s="1" t="inlineStr">
@@ -8641,47 +8625,47 @@
       </c>
       <c r="V57" s="1" t="inlineStr">
         <is>
-          <t>8.05</t>
+          <t>17.1</t>
         </is>
       </c>
       <c r="W57" s="1" t="inlineStr">
         <is>
-          <t>2009-07-16</t>
+          <t>2007-04-18</t>
         </is>
       </c>
       <c r="X57" s="1" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>7.84</t>
         </is>
       </c>
       <c r="Y57" s="1" t="inlineStr">
         <is>
-          <t>2019-06-13</t>
+          <t>2016-08-24</t>
         </is>
       </c>
       <c r="Z57" s="1" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AA57" s="1" t="inlineStr">
         <is>
-          <t>2006-02-28</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AB57" s="1" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AC57" s="1" t="inlineStr">
         <is>
-          <t>2006-02-28</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AD57" s="1" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AE57" s="1" t="inlineStr">
@@ -8704,7 +8688,7 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>R-5 S3</t>
+          <t>R-6</t>
         </is>
       </c>
       <c r="B58" s="1" t="inlineStr">
@@ -8714,40 +8698,52 @@
       </c>
       <c r="C58" s="1" t="inlineStr">
         <is>
-          <t>35.87307</t>
+          <t>35.87533</t>
         </is>
       </c>
       <c r="D58" s="1" t="inlineStr">
         <is>
-          <t>-106.22877</t>
+          <t>-106.26487</t>
         </is>
       </c>
       <c r="E58" s="1" t="inlineStr">
         <is>
-          <t>6472.6</t>
+          <t>6995.8</t>
         </is>
       </c>
       <c r="F58" s="1" t="inlineStr">
         <is>
-          <t>Tsf</t>
-        </is>
-      </c>
-      <c r="G58" s="1" t="inlineStr"/>
-      <c r="H58" s="1" t="inlineStr"/>
-      <c r="I58" s="1" t="inlineStr"/>
+          <t>Tf</t>
+        </is>
+      </c>
+      <c r="G58" s="1" t="inlineStr">
+        <is>
+          <t>2004-12-04 00:00:00</t>
+        </is>
+      </c>
+      <c r="H58" s="1" t="inlineStr">
+        <is>
+          <t>1252.00</t>
+        </is>
+      </c>
+      <c r="I58" s="1" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
       <c r="J58" s="1" t="inlineStr">
         <is>
-          <t>676.9</t>
+          <t>1205</t>
         </is>
       </c>
       <c r="K58" s="1" t="inlineStr">
         <is>
-          <t>720.300</t>
+          <t>1228.000</t>
         </is>
       </c>
       <c r="L58" s="1" t="inlineStr">
         <is>
-          <t>Location info taken from Brass cap monument survey data from R-5 WCR., Original x, y = 1646709, 1773061, Location info taken from Brass cap monument survey data from R-5 WCR.</t>
+          <t>Surface Pad installation date is Surface Pad Start Date on IMF. Comp Depth set at bottom of casing. Surface pad thickness reported as 6, Location info taken from Brass cap monument survey data from R-6/R-6i WCR., Location info taken from Brass cap monument survey data from R-6/R-6i WCR.</t>
         </is>
       </c>
       <c r="M58" s="1" t="inlineStr"/>
@@ -8762,7 +8758,11 @@
           <t>Los Alamos</t>
         </is>
       </c>
-      <c r="Q58" s="1" t="inlineStr"/>
+      <c r="Q58" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="R58" s="1" t="inlineStr"/>
       <c r="S58" s="1" t="inlineStr">
         <is>
@@ -8781,47 +8781,47 @@
       </c>
       <c r="V58" s="1" t="inlineStr">
         <is>
-          <t>17.1</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="W58" s="1" t="inlineStr">
         <is>
-          <t>2007-04-18</t>
+          <t>2012-08-27</t>
         </is>
       </c>
       <c r="X58" s="1" t="inlineStr">
         <is>
-          <t>7.84</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="Y58" s="1" t="inlineStr">
         <is>
-          <t>2016-08-24</t>
+          <t>2019-09-09</t>
         </is>
       </c>
       <c r="Z58" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="AA58" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2006-03-01</t>
         </is>
       </c>
       <c r="AB58" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="AC58" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2006-03-01</t>
         </is>
       </c>
       <c r="AD58" s="1" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>41</t>
         </is>
       </c>
       <c r="AE58" s="1" t="inlineStr">
@@ -8844,7 +8844,7 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>R-6</t>
+          <t>R-64</t>
         </is>
       </c>
       <c r="B59" s="1" t="inlineStr">
@@ -8854,52 +8854,52 @@
       </c>
       <c r="C59" s="1" t="inlineStr">
         <is>
-          <t>35.87533</t>
+          <t>35.8772</t>
         </is>
       </c>
       <c r="D59" s="1" t="inlineStr">
         <is>
-          <t>-106.26487</t>
+          <t>-106.27541</t>
         </is>
       </c>
       <c r="E59" s="1" t="inlineStr">
         <is>
-          <t>6995.8</t>
+          <t>7121.74</t>
         </is>
       </c>
       <c r="F59" s="1" t="inlineStr">
         <is>
-          <t>Tf</t>
+          <t>Tjfp</t>
         </is>
       </c>
       <c r="G59" s="1" t="inlineStr">
         <is>
-          <t>2004-12-04 00:00:00</t>
+          <t>2011-07-11 00:00:00</t>
         </is>
       </c>
       <c r="H59" s="1" t="inlineStr">
         <is>
-          <t>1252.00</t>
+          <t>1316.10</t>
         </is>
       </c>
       <c r="I59" s="1" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J59" s="1" t="inlineStr">
         <is>
-          <t>1205</t>
+          <t>1285</t>
         </is>
       </c>
       <c r="K59" s="1" t="inlineStr">
         <is>
-          <t>1228.000</t>
+          <t>1305.500</t>
         </is>
       </c>
       <c r="L59" s="1" t="inlineStr">
         <is>
-          <t>Surface Pad installation date is Surface Pad Start Date on IMF. Comp Depth set at bottom of casing. Surface pad thickness reported as 6, Location info taken from Brass cap monument survey data from R-6/R-6i WCR., Location info taken from Brass cap monument survey data from R-6/R-6i WCR.</t>
+          <t>Preliminary information, brass cap location rounded to decimal places, brass cap location rounded to decimal places</t>
         </is>
       </c>
       <c r="M59" s="1" t="inlineStr"/>
@@ -8937,47 +8937,47 @@
       </c>
       <c r="V59" s="1" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>6.22</t>
         </is>
       </c>
       <c r="W59" s="1" t="inlineStr">
         <is>
-          <t>2012-08-27</t>
+          <t>2016-08-29</t>
         </is>
       </c>
       <c r="X59" s="1" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="Y59" s="1" t="inlineStr">
         <is>
-          <t>2019-09-09</t>
+          <t>2017-03-23</t>
         </is>
       </c>
       <c r="Z59" s="1" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AA59" s="1" t="inlineStr">
         <is>
-          <t>2006-03-01</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AB59" s="1" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AC59" s="1" t="inlineStr">
         <is>
-          <t>2006-03-01</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AD59" s="1" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AE59" s="1" t="inlineStr">
@@ -8985,11 +8985,7 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="AF59" s="1" t="inlineStr">
-        <is>
-          <t>Exceedance</t>
-        </is>
-      </c>
+      <c r="AF59" s="1" t="inlineStr"/>
       <c r="AG59" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -9000,7 +8996,7 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>R-64</t>
+          <t>R-66</t>
         </is>
       </c>
       <c r="B60" s="1" t="inlineStr">
@@ -9010,52 +9006,52 @@
       </c>
       <c r="C60" s="1" t="inlineStr">
         <is>
-          <t>35.8772</t>
+          <t>35.87309</t>
         </is>
       </c>
       <c r="D60" s="1" t="inlineStr">
         <is>
-          <t>-106.27541</t>
+          <t>-106.25987</t>
         </is>
       </c>
       <c r="E60" s="1" t="inlineStr">
         <is>
-          <t>7121.74</t>
+          <t>6626.96</t>
         </is>
       </c>
       <c r="F60" s="1" t="inlineStr">
         <is>
-          <t>Tjfp</t>
+          <t>Tcar</t>
         </is>
       </c>
       <c r="G60" s="1" t="inlineStr">
         <is>
-          <t>2011-07-11 00:00:00</t>
+          <t>2011-11-16 00:00:00</t>
         </is>
       </c>
       <c r="H60" s="1" t="inlineStr">
         <is>
-          <t>1316.10</t>
+          <t>849.8</t>
         </is>
       </c>
       <c r="I60" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="J60" s="1" t="inlineStr">
         <is>
-          <t>1285</t>
+          <t>819.4</t>
         </is>
       </c>
       <c r="K60" s="1" t="inlineStr">
         <is>
-          <t>1305.500</t>
+          <t>839.7</t>
         </is>
       </c>
       <c r="L60" s="1" t="inlineStr">
         <is>
-          <t>Preliminary information, brass cap location rounded to decimal places, brass cap location rounded to decimal places</t>
+          <t>Top of outer casing 3.59 ft above brass cap, Replacement well located just to the east of O-4.  TW-3 replacement well.   Location for potential contaminants  from upper Los Alamos and  DP Canyons and TA-21.</t>
         </is>
       </c>
       <c r="M60" s="1" t="inlineStr"/>
@@ -9093,22 +9089,22 @@
       </c>
       <c r="V60" s="1" t="inlineStr">
         <is>
-          <t>6.22</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="W60" s="1" t="inlineStr">
         <is>
-          <t>2016-08-29</t>
+          <t>2014-02-06</t>
         </is>
       </c>
       <c r="X60" s="1" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="Y60" s="1" t="inlineStr">
         <is>
-          <t>2017-03-23</t>
+          <t>2019-09-12</t>
         </is>
       </c>
       <c r="Z60" s="1" t="inlineStr">
@@ -9133,7 +9129,7 @@
       </c>
       <c r="AD60" s="1" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>24</t>
         </is>
       </c>
       <c r="AE60" s="1" t="inlineStr">
@@ -9152,7 +9148,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>R-66</t>
+          <t>R-8 S1</t>
         </is>
       </c>
       <c r="B61" s="1" t="inlineStr">
@@ -9162,52 +9158,40 @@
       </c>
       <c r="C61" s="1" t="inlineStr">
         <is>
-          <t>35.87309</t>
+          <t>35.87168</t>
         </is>
       </c>
       <c r="D61" s="1" t="inlineStr">
         <is>
-          <t>-106.25987</t>
+          <t>-106.24756</t>
         </is>
       </c>
       <c r="E61" s="1" t="inlineStr">
         <is>
-          <t>6626.96</t>
+          <t>6544.74</t>
         </is>
       </c>
       <c r="F61" s="1" t="inlineStr">
         <is>
-          <t>Tcar</t>
-        </is>
-      </c>
-      <c r="G61" s="1" t="inlineStr">
-        <is>
-          <t>2011-11-16 00:00:00</t>
-        </is>
-      </c>
-      <c r="H61" s="1" t="inlineStr">
-        <is>
-          <t>849.8</t>
-        </is>
-      </c>
-      <c r="I61" s="1" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
+          <t>Tp</t>
+        </is>
+      </c>
+      <c r="G61" s="1" t="inlineStr"/>
+      <c r="H61" s="1" t="inlineStr"/>
+      <c r="I61" s="1" t="inlineStr"/>
       <c r="J61" s="1" t="inlineStr">
         <is>
-          <t>819.4</t>
+          <t>705.31</t>
         </is>
       </c>
       <c r="K61" s="1" t="inlineStr">
         <is>
-          <t>839.7</t>
+          <t>755.700</t>
         </is>
       </c>
       <c r="L61" s="1" t="inlineStr">
         <is>
-          <t>Top of outer casing 3.59 ft above brass cap, Replacement well located just to the east of O-4.  TW-3 replacement well.   Location for potential contaminants  from upper Los Alamos and  DP Canyons and TA-21.</t>
+          <t>Location info taken from Brass cap monument survey data from R-8 WCR., Location info taken from Brass cap monument survey data from R-8 WCR., Note:  Original hole P &amp; Ad.  Original hole is 62 ' due east of this one.</t>
         </is>
       </c>
       <c r="M61" s="1" t="inlineStr"/>
@@ -9222,11 +9206,7 @@
           <t>Los Alamos</t>
         </is>
       </c>
-      <c r="Q61" s="1" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+      <c r="Q61" s="1" t="inlineStr"/>
       <c r="R61" s="1" t="inlineStr"/>
       <c r="S61" s="1" t="inlineStr">
         <is>
@@ -9245,22 +9225,22 @@
       </c>
       <c r="V61" s="1" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>10.9</t>
         </is>
       </c>
       <c r="W61" s="1" t="inlineStr">
         <is>
-          <t>2014-02-06</t>
+          <t>2004-12-08</t>
         </is>
       </c>
       <c r="X61" s="1" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="Y61" s="1" t="inlineStr">
         <is>
-          <t>2019-09-12</t>
+          <t>2016-08-31</t>
         </is>
       </c>
       <c r="Z61" s="1" t="inlineStr">
@@ -9285,7 +9265,7 @@
       </c>
       <c r="AD61" s="1" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>33</t>
         </is>
       </c>
       <c r="AE61" s="1" t="inlineStr">
@@ -9293,7 +9273,11 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="AF61" s="1" t="inlineStr"/>
+      <c r="AF61" s="1" t="inlineStr">
+        <is>
+          <t>Exceedance</t>
+        </is>
+      </c>
       <c r="AG61" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -9304,7 +9288,7 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>R-8 S1</t>
+          <t>R-8 S2</t>
         </is>
       </c>
       <c r="B62" s="1" t="inlineStr">
@@ -9337,17 +9321,17 @@
       <c r="I62" s="1" t="inlineStr"/>
       <c r="J62" s="1" t="inlineStr">
         <is>
-          <t>705.31</t>
+          <t>821</t>
         </is>
       </c>
       <c r="K62" s="1" t="inlineStr">
         <is>
-          <t>755.700</t>
+          <t>828.000</t>
         </is>
       </c>
       <c r="L62" s="1" t="inlineStr">
         <is>
-          <t>Location info taken from Brass cap monument survey data from R-8 WCR., Location info taken from Brass cap monument survey data from R-8 WCR., Note:  Original hole P &amp; Ad.  Original hole is 62 ' due east of this one.</t>
+          <t>Location info taken from Brass cap monument survey data from R-8 WCR., Location info taken from Brass cap monument survey data from R-8 WCR.</t>
         </is>
       </c>
       <c r="M62" s="1" t="inlineStr"/>
@@ -9386,17 +9370,17 @@
       </c>
       <c r="W62" s="1" t="inlineStr">
         <is>
-          <t>2004-12-08</t>
+          <t>2004-08-25</t>
         </is>
       </c>
       <c r="X62" s="1" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="Y62" s="1" t="inlineStr">
         <is>
-          <t>2016-08-31</t>
+          <t>2016-09-01</t>
         </is>
       </c>
       <c r="Z62" s="1" t="inlineStr">
@@ -9421,7 +9405,7 @@
       </c>
       <c r="AD62" s="1" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32</t>
         </is>
       </c>
       <c r="AE62" s="1" t="inlineStr">
@@ -9444,7 +9428,7 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>R-8 S2</t>
+          <t>R-9</t>
         </is>
       </c>
       <c r="B63" s="1" t="inlineStr">
@@ -9454,40 +9438,52 @@
       </c>
       <c r="C63" s="1" t="inlineStr">
         <is>
-          <t>35.87168</t>
+          <t>35.86698</t>
         </is>
       </c>
       <c r="D63" s="1" t="inlineStr">
         <is>
-          <t>-106.24756</t>
+          <t>-106.22361</t>
         </is>
       </c>
       <c r="E63" s="1" t="inlineStr">
         <is>
-          <t>6544.74</t>
+          <t>6382.8</t>
         </is>
       </c>
       <c r="F63" s="1" t="inlineStr">
         <is>
-          <t>Tp</t>
-        </is>
-      </c>
-      <c r="G63" s="1" t="inlineStr"/>
-      <c r="H63" s="1" t="inlineStr"/>
-      <c r="I63" s="1" t="inlineStr"/>
+          <t>Tsfb</t>
+        </is>
+      </c>
+      <c r="G63" s="1" t="inlineStr">
+        <is>
+          <t>1999-10-18 00:00:00</t>
+        </is>
+      </c>
+      <c r="H63" s="1" t="inlineStr">
+        <is>
+          <t>758.00</t>
+        </is>
+      </c>
+      <c r="I63" s="1" t="inlineStr">
+        <is>
+          <t>4.5 in</t>
+        </is>
+      </c>
       <c r="J63" s="1" t="inlineStr">
         <is>
-          <t>821</t>
+          <t>683</t>
         </is>
       </c>
       <c r="K63" s="1" t="inlineStr">
         <is>
-          <t>828.000</t>
+          <t>748.500</t>
         </is>
       </c>
       <c r="L63" s="1" t="inlineStr">
         <is>
-          <t>Location info taken from Brass cap monument survey data from R-8 WCR., Location info taken from Brass cap monument survey data from R-8 WCR.</t>
+          <t>Survey pin was installed with on 9/13/00., Original x, y, z = 1648241.4, 1770843.9, 6385.36, Location info taken from Brass monument survey data from R-9 WCR., Location info taken from Brass monument survey data from R-9 WCR.</t>
         </is>
       </c>
       <c r="M63" s="1" t="inlineStr"/>
@@ -9502,7 +9498,11 @@
           <t>Los Alamos</t>
         </is>
       </c>
-      <c r="Q63" s="1" t="inlineStr"/>
+      <c r="Q63" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="R63" s="1" t="inlineStr"/>
       <c r="S63" s="1" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
       </c>
       <c r="T63" s="1" t="inlineStr">
         <is>
-          <t>Ground Elevation updated from MW</t>
+          <t>Ground Elevation updated from MW, Well Diameter [in] updated from MW, Geologic Unit Code updated from MW</t>
         </is>
       </c>
       <c r="U63" s="1" t="inlineStr">
@@ -9521,22 +9521,22 @@
       </c>
       <c r="V63" s="1" t="inlineStr">
         <is>
-          <t>10.9</t>
+          <t>2980.0</t>
         </is>
       </c>
       <c r="W63" s="1" t="inlineStr">
         <is>
-          <t>2004-08-25</t>
+          <t>1998-01-26</t>
         </is>
       </c>
       <c r="X63" s="1" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="Y63" s="1" t="inlineStr">
         <is>
-          <t>2016-09-01</t>
+          <t>2019-09-16</t>
         </is>
       </c>
       <c r="Z63" s="1" t="inlineStr">
@@ -9561,7 +9561,7 @@
       </c>
       <c r="AD63" s="1" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>53</t>
         </is>
       </c>
       <c r="AE63" s="1" t="inlineStr">
@@ -9584,7 +9584,7 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>R-9</t>
+          <t>PM-2</t>
         </is>
       </c>
       <c r="B64" s="1" t="inlineStr">
@@ -9594,64 +9594,52 @@
       </c>
       <c r="C64" s="1" t="inlineStr">
         <is>
-          <t>35.86698</t>
+          <t>35.8383</t>
         </is>
       </c>
       <c r="D64" s="1" t="inlineStr">
         <is>
-          <t>-106.22361</t>
-        </is>
-      </c>
-      <c r="E64" s="1" t="inlineStr">
-        <is>
-          <t>6382.8</t>
-        </is>
-      </c>
-      <c r="F64" s="1" t="inlineStr">
-        <is>
-          <t>Tsfb</t>
-        </is>
-      </c>
+          <t>-106.26255</t>
+        </is>
+      </c>
+      <c r="E64" s="1" t="inlineStr"/>
+      <c r="F64" s="1" t="inlineStr"/>
       <c r="G64" s="1" t="inlineStr">
         <is>
-          <t>1999-10-18 00:00:00</t>
+          <t>1965-07-15 00:00:00</t>
         </is>
       </c>
       <c r="H64" s="1" t="inlineStr">
         <is>
-          <t>758.00</t>
-        </is>
-      </c>
-      <c r="I64" s="1" t="inlineStr">
-        <is>
-          <t>4.5 in</t>
-        </is>
-      </c>
+          <t>2300.00</t>
+        </is>
+      </c>
+      <c r="I64" s="1" t="inlineStr"/>
       <c r="J64" s="1" t="inlineStr">
         <is>
-          <t>683</t>
+          <t>1004</t>
         </is>
       </c>
       <c r="K64" s="1" t="inlineStr">
         <is>
-          <t>748.500</t>
+          <t>2280.000</t>
         </is>
       </c>
       <c r="L64" s="1" t="inlineStr">
         <is>
-          <t>Survey pin was installed with on 9/13/00., Original x, y, z = 1648241.4, 1770843.9, 6385.36, Location info taken from Brass monument survey data from R-9 WCR., Location info taken from Brass monument survey data from R-9 WCR.</t>
+          <t>Water supply well</t>
         </is>
       </c>
       <c r="M64" s="1" t="inlineStr"/>
       <c r="N64" s="1" t="inlineStr"/>
       <c r="O64" s="1" t="inlineStr">
         <is>
-          <t>TA-21</t>
+          <t>TA-54</t>
         </is>
       </c>
       <c r="P64" s="1" t="inlineStr">
         <is>
-          <t>Los Alamos</t>
+          <t>Pajarito</t>
         </is>
       </c>
       <c r="Q64" s="1" t="inlineStr">
@@ -9665,11 +9653,7 @@
           <t>[84]</t>
         </is>
       </c>
-      <c r="T64" s="1" t="inlineStr">
-        <is>
-          <t>Ground Elevation updated from MW, Well Diameter [in] updated from MW, Geologic Unit Code updated from MW</t>
-        </is>
-      </c>
+      <c r="T64" s="1" t="inlineStr"/>
       <c r="U64" s="1" t="inlineStr">
         <is>
           <t>Well Info</t>
@@ -9677,47 +9661,47 @@
       </c>
       <c r="V64" s="1" t="inlineStr">
         <is>
-          <t>2980.0</t>
+          <t>7.46</t>
         </is>
       </c>
       <c r="W64" s="1" t="inlineStr">
         <is>
-          <t>1998-01-26</t>
+          <t>2015-12-09</t>
         </is>
       </c>
       <c r="X64" s="1" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="Y64" s="1" t="inlineStr">
         <is>
-          <t>2019-09-16</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="Z64" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="AA64" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2006-08-24</t>
         </is>
       </c>
       <c r="AB64" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="AC64" s="1" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>2007-02-28</t>
         </is>
       </c>
       <c r="AD64" s="1" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>46</t>
         </is>
       </c>
       <c r="AE64" s="1" t="inlineStr">
@@ -9725,11 +9709,7 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="AF64" s="1" t="inlineStr">
-        <is>
-          <t>Exceedance</t>
-        </is>
-      </c>
+      <c r="AF64" s="1" t="inlineStr"/>
       <c r="AG64" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -9740,7 +9720,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>PM-2</t>
+          <t>R-17 S1</t>
         </is>
       </c>
       <c r="B65" s="1" t="inlineStr">
@@ -9750,47 +9730,47 @@
       </c>
       <c r="C65" s="1" t="inlineStr">
         <is>
-          <t>35.8383</t>
+          <t>35.85328</t>
         </is>
       </c>
       <c r="D65" s="1" t="inlineStr">
         <is>
-          <t>-106.26255</t>
-        </is>
-      </c>
-      <c r="E65" s="1" t="inlineStr"/>
-      <c r="F65" s="1" t="inlineStr"/>
-      <c r="G65" s="1" t="inlineStr">
-        <is>
-          <t>1965-07-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="H65" s="1" t="inlineStr">
-        <is>
-          <t>2300.00</t>
-        </is>
-      </c>
+          <t>-106.29259</t>
+        </is>
+      </c>
+      <c r="E65" s="1" t="inlineStr">
+        <is>
+          <t>6921.51</t>
+        </is>
+      </c>
+      <c r="F65" s="1" t="inlineStr">
+        <is>
+          <t>Tpf</t>
+        </is>
+      </c>
+      <c r="G65" s="1" t="inlineStr"/>
+      <c r="H65" s="1" t="inlineStr"/>
       <c r="I65" s="1" t="inlineStr"/>
       <c r="J65" s="1" t="inlineStr">
         <is>
-          <t>1004</t>
+          <t>1057</t>
         </is>
       </c>
       <c r="K65" s="1" t="inlineStr">
         <is>
-          <t>2280.000</t>
+          <t>1080.000</t>
         </is>
       </c>
       <c r="L65" s="1" t="inlineStr">
         <is>
-          <t>Water supply well</t>
+          <t>Brass Cap location Kleinfelder survey, Brass Cap location Kleinfelder survey</t>
         </is>
       </c>
       <c r="M65" s="1" t="inlineStr"/>
       <c r="N65" s="1" t="inlineStr"/>
       <c r="O65" s="1" t="inlineStr">
         <is>
-          <t>TA-54</t>
+          <t>General</t>
         </is>
       </c>
       <c r="P65" s="1" t="inlineStr">
@@ -9798,18 +9778,18 @@
           <t>Pajarito</t>
         </is>
       </c>
-      <c r="Q65" s="1" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+      <c r="Q65" s="1" t="inlineStr"/>
       <c r="R65" s="1" t="inlineStr"/>
       <c r="S65" s="1" t="inlineStr">
         <is>
           <t>[84]</t>
         </is>
       </c>
-      <c r="T65" s="1" t="inlineStr"/>
+      <c r="T65" s="1" t="inlineStr">
+        <is>
+          <t>Ground Elevation updated from MW</t>
+        </is>
+      </c>
       <c r="U65" s="1" t="inlineStr">
         <is>
           <t>Well Info</t>
@@ -9817,47 +9797,47 @@
       </c>
       <c r="V65" s="1" t="inlineStr">
         <is>
-          <t>7.46</t>
+          <t>12.9</t>
         </is>
       </c>
       <c r="W65" s="1" t="inlineStr">
         <is>
-          <t>2015-12-09</t>
+          <t>2007-04-25</t>
         </is>
       </c>
       <c r="X65" s="1" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="Y65" s="1" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2017-04-13</t>
         </is>
       </c>
       <c r="Z65" s="1" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="AA65" s="1" t="inlineStr">
         <is>
-          <t>2006-08-24</t>
+          <t>2006-02-24</t>
         </is>
       </c>
       <c r="AB65" s="1" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>0.058</t>
         </is>
       </c>
       <c r="AC65" s="1" t="inlineStr">
         <is>
-          <t>2007-02-28</t>
+          <t>2006-10-19</t>
         </is>
       </c>
       <c r="AD65" s="1" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="AE65" s="1" t="inlineStr">
@@ -9865,7 +9845,11 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="AF65" s="1" t="inlineStr"/>
+      <c r="AF65" s="1" t="inlineStr">
+        <is>
+          <t>Exceedance</t>
+        </is>
+      </c>
       <c r="AG65" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -9876,7 +9860,7 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>R-17 S1</t>
+          <t>R-17 S2</t>
         </is>
       </c>
       <c r="B66" s="1" t="inlineStr">
@@ -9909,12 +9893,12 @@
       <c r="I66" s="1" t="inlineStr"/>
       <c r="J66" s="1" t="inlineStr">
         <is>
-          <t>1057</t>
+          <t>1124</t>
         </is>
       </c>
       <c r="K66" s="1" t="inlineStr">
         <is>
-          <t>1080.000</t>
+          <t>1134.000</t>
         </is>
       </c>
       <c r="L66" s="1" t="inlineStr">
@@ -9953,47 +9937,47 @@
       </c>
       <c r="V66" s="1" t="inlineStr">
         <is>
-          <t>12.9</t>
+          <t>13.6</t>
         </is>
       </c>
       <c r="W66" s="1" t="inlineStr">
         <is>
-          <t>2007-04-25</t>
+          <t>2007-02-22</t>
         </is>
       </c>
       <c r="X66" s="1" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="Y66" s="1" t="inlineStr">
         <is>
-          <t>2017-04-13</t>
+          <t>2019-04-18</t>
         </is>
       </c>
       <c r="Z66" s="1" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="AA66" s="1" t="inlineStr">
         <is>
-          <t>2006-02-24</t>
+          <t>2006-10-17</t>
         </is>
       </c>
       <c r="AB66" s="1" t="inlineStr">
         <is>
-          <t>0.058</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="AC66" s="1" t="inlineStr">
         <is>
-          <t>2006-10-19</t>
+          <t>2006-10-17</t>
         </is>
       </c>
       <c r="AD66" s="1" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46</t>
         </is>
       </c>
       <c r="AE66" s="1" t="inlineStr">
@@ -10016,7 +10000,7 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>R-17 S2</t>
+          <t>R-19 S3</t>
         </is>
       </c>
       <c r="B67" s="1" t="inlineStr">
@@ -10026,17 +10010,17 @@
       </c>
       <c r="C67" s="1" t="inlineStr">
         <is>
-          <t>35.85328</t>
+          <t>35.83787</t>
         </is>
       </c>
       <c r="D67" s="1" t="inlineStr">
         <is>
-          <t>-106.29259</t>
+          <t>-106.28542</t>
         </is>
       </c>
       <c r="E67" s="1" t="inlineStr">
         <is>
-          <t>6921.51</t>
+          <t>7066.300</t>
         </is>
       </c>
       <c r="F67" s="1" t="inlineStr">
@@ -10049,21 +10033,25 @@
       <c r="I67" s="1" t="inlineStr"/>
       <c r="J67" s="1" t="inlineStr">
         <is>
-          <t>1124</t>
+          <t>1171.4</t>
         </is>
       </c>
       <c r="K67" s="1" t="inlineStr">
         <is>
-          <t>1134.000</t>
+          <t>1215.400</t>
         </is>
       </c>
       <c r="L67" s="1" t="inlineStr">
         <is>
-          <t>Brass Cap location Kleinfelder survey, Brass Cap location Kleinfelder survey</t>
+          <t>Location info taken from Brass Cap survey data in R-19 WCR., Location info taken from Brass Cap survey data in R-19 WCR., Location info taken from Brass Cap survey data in R-19 WCR.</t>
         </is>
       </c>
       <c r="M67" s="1" t="inlineStr"/>
-      <c r="N67" s="1" t="inlineStr"/>
+      <c r="N67" s="1" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
       <c r="O67" s="1" t="inlineStr">
         <is>
           <t>General</t>
@@ -10081,11 +10069,7 @@
           <t>[84]</t>
         </is>
       </c>
-      <c r="T67" s="1" t="inlineStr">
-        <is>
-          <t>Ground Elevation updated from MW</t>
-        </is>
-      </c>
+      <c r="T67" s="1" t="inlineStr"/>
       <c r="U67" s="1" t="inlineStr">
         <is>
           <t>Well Info</t>
@@ -10093,47 +10077,47 @@
       </c>
       <c r="V67" s="1" t="inlineStr">
         <is>
-          <t>13.6</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="W67" s="1" t="inlineStr">
         <is>
-          <t>2007-02-22</t>
+          <t>2001-04-09</t>
         </is>
       </c>
       <c r="X67" s="1" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="Y67" s="1" t="inlineStr">
         <is>
-          <t>2019-04-18</t>
+          <t>2015-04-14</t>
         </is>
       </c>
       <c r="Z67" s="1" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AA67" s="1" t="inlineStr">
         <is>
-          <t>2006-10-17</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AB67" s="1" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AC67" s="1" t="inlineStr">
         <is>
-          <t>2006-10-17</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AD67" s="1" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>55</t>
         </is>
       </c>
       <c r="AE67" s="1" t="inlineStr">
@@ -10156,7 +10140,7 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>R-19 S3</t>
+          <t>R-19 S4</t>
         </is>
       </c>
       <c r="B68" s="1" t="inlineStr">
@@ -10189,12 +10173,12 @@
       <c r="I68" s="1" t="inlineStr"/>
       <c r="J68" s="1" t="inlineStr">
         <is>
-          <t>1171.4</t>
+          <t>1410.2</t>
         </is>
       </c>
       <c r="K68" s="1" t="inlineStr">
         <is>
-          <t>1215.400</t>
+          <t>1417.400</t>
         </is>
       </c>
       <c r="L68" s="1" t="inlineStr">
@@ -10233,22 +10217,22 @@
       </c>
       <c r="V68" s="1" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>37.3</t>
         </is>
       </c>
       <c r="W68" s="1" t="inlineStr">
         <is>
-          <t>2001-04-09</t>
+          <t>2006-08-16</t>
         </is>
       </c>
       <c r="X68" s="1" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="Y68" s="1" t="inlineStr">
         <is>
-          <t>2015-04-14</t>
+          <t>2014-04-11</t>
         </is>
       </c>
       <c r="Z68" s="1" t="inlineStr">
@@ -10273,7 +10257,7 @@
       </c>
       <c r="AD68" s="1" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>59</t>
         </is>
       </c>
       <c r="AE68" s="1" t="inlineStr">
@@ -10296,7 +10280,7 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>R-19 S4</t>
+          <t>R-20 S1</t>
         </is>
       </c>
       <c r="B69" s="1" t="inlineStr">
@@ -10306,22 +10290,22 @@
       </c>
       <c r="C69" s="1" t="inlineStr">
         <is>
-          <t>35.83787</t>
+          <t>35.83635</t>
         </is>
       </c>
       <c r="D69" s="1" t="inlineStr">
         <is>
-          <t>-106.28542</t>
+          <t>-106.25871</t>
         </is>
       </c>
       <c r="E69" s="1" t="inlineStr">
         <is>
-          <t>7066.300</t>
+          <t>6694.35</t>
         </is>
       </c>
       <c r="F69" s="1" t="inlineStr">
         <is>
-          <t>Tpf</t>
+          <t>Tb4</t>
         </is>
       </c>
       <c r="G69" s="1" t="inlineStr"/>
@@ -10329,28 +10313,24 @@
       <c r="I69" s="1" t="inlineStr"/>
       <c r="J69" s="1" t="inlineStr">
         <is>
-          <t>1410.2</t>
+          <t>904.6</t>
         </is>
       </c>
       <c r="K69" s="1" t="inlineStr">
         <is>
-          <t>1417.400</t>
+          <t>912.200</t>
         </is>
       </c>
       <c r="L69" s="1" t="inlineStr">
         <is>
-          <t>Location info taken from Brass Cap survey data in R-19 WCR., Location info taken from Brass Cap survey data in R-19 WCR., Location info taken from Brass Cap survey data in R-19 WCR.</t>
+          <t>Location info taken from Brass Monument survey data from R-20 WCR., Location info taken from Brass Monument survey data from R-20 WCR.</t>
         </is>
       </c>
       <c r="M69" s="1" t="inlineStr"/>
-      <c r="N69" s="1" t="inlineStr">
-        <is>
-          <t>MON</t>
-        </is>
-      </c>
+      <c r="N69" s="1" t="inlineStr"/>
       <c r="O69" s="1" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>TA-54</t>
         </is>
       </c>
       <c r="P69" s="1" t="inlineStr">
@@ -10365,7 +10345,11 @@
           <t>[84]</t>
         </is>
       </c>
-      <c r="T69" s="1" t="inlineStr"/>
+      <c r="T69" s="1" t="inlineStr">
+        <is>
+          <t>Ground Elevation updated from MW</t>
+        </is>
+      </c>
       <c r="U69" s="1" t="inlineStr">
         <is>
           <t>Well Info</t>
@@ -10373,22 +10357,22 @@
       </c>
       <c r="V69" s="1" t="inlineStr">
         <is>
-          <t>37.3</t>
+          <t>6.7918</t>
         </is>
       </c>
       <c r="W69" s="1" t="inlineStr">
         <is>
-          <t>2006-08-16</t>
+          <t>2007-11-30</t>
         </is>
       </c>
       <c r="X69" s="1" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="Y69" s="1" t="inlineStr">
         <is>
-          <t>2014-04-11</t>
+          <t>2012-10-16</t>
         </is>
       </c>
       <c r="Z69" s="1" t="inlineStr">
@@ -10413,7 +10397,7 @@
       </c>
       <c r="AD69" s="1" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>121</t>
         </is>
       </c>
       <c r="AE69" s="1" t="inlineStr">
@@ -10421,11 +10405,7 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="AF69" s="1" t="inlineStr">
-        <is>
-          <t>Exceedance</t>
-        </is>
-      </c>
+      <c r="AF69" s="1" t="inlineStr"/>
       <c r="AG69" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -10436,7 +10416,7 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>R-20 S1</t>
+          <t>R-20 S2</t>
         </is>
       </c>
       <c r="B70" s="1" t="inlineStr">
@@ -10461,7 +10441,7 @@
       </c>
       <c r="F70" s="1" t="inlineStr">
         <is>
-          <t>Tb4</t>
+          <t>Tjfp</t>
         </is>
       </c>
       <c r="G70" s="1" t="inlineStr"/>
@@ -10469,12 +10449,12 @@
       <c r="I70" s="1" t="inlineStr"/>
       <c r="J70" s="1" t="inlineStr">
         <is>
-          <t>904.6</t>
+          <t>1147.1</t>
         </is>
       </c>
       <c r="K70" s="1" t="inlineStr">
         <is>
-          <t>912.200</t>
+          <t>1154.700</t>
         </is>
       </c>
       <c r="L70" s="1" t="inlineStr">
@@ -10513,22 +10493,22 @@
       </c>
       <c r="V70" s="1" t="inlineStr">
         <is>
-          <t>6.7918</t>
+          <t>9.5487</t>
         </is>
       </c>
       <c r="W70" s="1" t="inlineStr">
         <is>
-          <t>2007-11-30</t>
+          <t>2007-12-03</t>
         </is>
       </c>
       <c r="X70" s="1" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.799</t>
         </is>
       </c>
       <c r="Y70" s="1" t="inlineStr">
         <is>
-          <t>2012-10-16</t>
+          <t>2012-10-17</t>
         </is>
       </c>
       <c r="Z70" s="1" t="inlineStr">
@@ -10553,7 +10533,7 @@
       </c>
       <c r="AD70" s="1" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>130</t>
         </is>
       </c>
       <c r="AE70" s="1" t="inlineStr">
@@ -10561,7 +10541,11 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="AF70" s="1" t="inlineStr"/>
+      <c r="AF70" s="1" t="inlineStr">
+        <is>
+          <t>Exceedance</t>
+        </is>
+      </c>
       <c r="AG70" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Substantial
@@ -10572,7 +10556,7 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>R-20 S2</t>
+          <t>R-23</t>
         </is>
       </c>
       <c r="B71" s="1" t="inlineStr">
@@ -10582,40 +10566,52 @@
       </c>
       <c r="C71" s="1" t="inlineStr">
         <is>
-          <t>35.83635</t>
+          <t>35.8239</t>
         </is>
       </c>
       <c r="D71" s="1" t="inlineStr">
         <is>
-          <t>-106.25871</t>
+          <t>-106.22471</t>
         </is>
       </c>
       <c r="E71" s="1" t="inlineStr">
         <is>
-          <t>6694.35</t>
+          <t>6527.75</t>
         </is>
       </c>
       <c r="F71" s="1" t="inlineStr">
         <is>
-          <t>Tjfp</t>
-        </is>
-      </c>
-      <c r="G71" s="1" t="inlineStr"/>
-      <c r="H71" s="1" t="inlineStr"/>
-      <c r="I71" s="1" t="inlineStr"/>
+          <t>Tpt</t>
+        </is>
+      </c>
+      <c r="G71" s="1" t="inlineStr">
+        <is>
+          <t>2002-10-02 00:00:00</t>
+        </is>
+      </c>
+      <c r="H71" s="1" t="inlineStr">
+        <is>
+          <t>886.30</t>
+        </is>
+      </c>
+      <c r="I71" s="1" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
       <c r="J71" s="1" t="inlineStr">
         <is>
-          <t>1147.1</t>
+          <t>816</t>
         </is>
       </c>
       <c r="K71" s="1" t="inlineStr">
         <is>
-          <t>1154.700</t>
+          <t>873.200</t>
         </is>
       </c>
       <c r="L71" s="1" t="inlineStr">
         <is>
-          <t>Location info taken from Brass Monument survey data from R-20 WCR., Location info taken from Brass Monument survey data from R-20 WCR.</t>
+          <t>Brass Monument location, Brass Monument location</t>
         </is>
       </c>
       <c r="M71" s="1" t="inlineStr"/>
@@ -10630,7 +10626,11 @@
           <t>Pajarito</t>
         </is>
       </c>
-      <c r="Q71" s="1" t="inlineStr"/>
+      <c r="Q71" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="R71" s="1" t="inlineStr"/>
       <c r="S71" s="1" t="inlineStr">
         <is>
@@ -10649,22 +10649,22 @@
       </c>
       <c r="V71" s="1" t="inlineStr">
         <is>
-          <t>9.5487</t>
+          <t>20.1</t>
         </is>
       </c>
       <c r="W71" s="1" t="inlineStr">
         <is>
-          <t>2007-12-03</t>
+          <t>2009-02-25</t>
         </is>
       </c>
       <c r="X71" s="1" t="inlineStr">
         <is>
-          <t>0.799</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="Y71" s="1" t="inlineStr">
         <is>
-          <t>2012-10-17</t>
+          <t>2019-10-23</t>
         </is>
       </c>
       <c r="Z71" s="1" t="inlineStr">
@@ -10689,7 +10689,7 @@
       </c>
       <c r="AD71" s="1" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>67</t>
         </is>
       </c>
       <c r="AE71" s="1" t="inlineStr">
@@ -11836,7 +11836,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11846,7 +11846,7 @@
   <cols>
     <col customWidth="1" max="1" min="1" width="12.25"/>
     <col customWidth="1" max="2" min="2" width="10.14"/>
-    <col customWidth="1" max="3" min="3" width="12"/>
+    <col customWidth="1" max="3" min="3" width="13"/>
     <col customWidth="1" max="4" min="4" width="9.15"/>
     <col customWidth="1" max="5" min="5" width="7"/>
     <col customWidth="1" max="6" min="6" width="16.25"/>
@@ -12386,7 +12386,7 @@
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>Mortendad Canyon</t>
+          <t>Mortandad Canyon</t>
         </is>
       </c>
       <c r="H16" s="5" t="n"/>
@@ -12718,91 +12718,83 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>R-23</t>
+          <t>R-28</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>35.8239</t>
+          <t>35.86015</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>-106.22471</t>
+          <t>-106.25482</t>
         </is>
       </c>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>10/2/02</t>
+          <t>12/17/03</t>
         </is>
       </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>886.3</t>
+          <t>980.3</t>
         </is>
       </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>816 - 873.2</t>
+          <t>934.3 - 958.1</t>
         </is>
       </c>
       <c r="G25" s="1" t="inlineStr">
         <is>
-          <t>20.1</t>
+          <t>605</t>
         </is>
       </c>
       <c r="H25" s="1" t="inlineStr">
         <is>
-          <t>2/25/09</t>
+          <t>2/7/17</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>R-28</t>
+          <t>R-33 S1</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>35.86015</t>
+          <t>35.86062</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>-106.25482</t>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
-        <is>
-          <t>12/17/03</t>
-        </is>
-      </c>
-      <c r="E26" s="1" t="inlineStr">
-        <is>
-          <t>980.3</t>
-        </is>
-      </c>
+          <t>-106.27368</t>
+        </is>
+      </c>
+      <c r="D26" s="1" t="inlineStr"/>
+      <c r="E26" s="1" t="inlineStr"/>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>934.3 - 958.1</t>
+          <t>995.5 - 1018.5</t>
         </is>
       </c>
       <c r="G26" s="1" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>12.3</t>
         </is>
       </c>
       <c r="H26" s="1" t="inlineStr">
         <is>
-          <t>2/7/17</t>
+          <t>9/14/05</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>R-33 S1</t>
+          <t>R-33 S2</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
@@ -12819,252 +12811,252 @@
       <c r="E27" s="1" t="inlineStr"/>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>995.5 - 1018.5</t>
+          <t>1112.4 - 1122.3</t>
         </is>
       </c>
       <c r="G27" s="1" t="inlineStr">
         <is>
-          <t>12.3</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="H27" s="1" t="inlineStr">
         <is>
-          <t>9/14/05</t>
+          <t>11/19/07</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>R-33 S2</t>
+          <t>R-34</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>35.86062</t>
+          <t>35.84825</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>-106.27368</t>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr"/>
-      <c r="E28" s="1" t="inlineStr"/>
+          <t>-106.23927</t>
+        </is>
+      </c>
+      <c r="D28" s="1" t="inlineStr">
+        <is>
+          <t>9/10/04</t>
+        </is>
+      </c>
+      <c r="E28" s="1" t="inlineStr">
+        <is>
+          <t>920.7</t>
+        </is>
+      </c>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t>1112.4 - 1122.3</t>
+          <t>883.7 - 906.6</t>
         </is>
       </c>
       <c r="G28" s="1" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H28" s="1" t="inlineStr">
         <is>
-          <t>11/19/07</t>
+          <t>1/31/06</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>R-34</t>
+          <t>R-37 S2</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>35.84825</t>
+          <t>35.84437</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>-106.23927</t>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
-        <is>
-          <t>9/10/04</t>
-        </is>
-      </c>
-      <c r="E29" s="1" t="inlineStr">
-        <is>
-          <t>920.7</t>
-        </is>
-      </c>
+          <t>-106.25873</t>
+        </is>
+      </c>
+      <c r="D29" s="1" t="inlineStr"/>
+      <c r="E29" s="1" t="inlineStr"/>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>883.7 - 906.6</t>
+          <t>1026 - 1046.6</t>
         </is>
       </c>
       <c r="G29" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21.5</t>
         </is>
       </c>
       <c r="H29" s="1" t="inlineStr">
         <is>
-          <t>1/31/06</t>
+          <t>10/14/10</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>R-37 S2</t>
+          <t>R-38</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>35.84437</t>
+          <t>35.83783</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>-106.25873</t>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr"/>
-      <c r="E30" s="1" t="inlineStr"/>
+          <t>-106.24804</t>
+        </is>
+      </c>
+      <c r="D30" s="1" t="inlineStr">
+        <is>
+          <t>12/7/08</t>
+        </is>
+      </c>
+      <c r="E30" s="1" t="inlineStr">
+        <is>
+          <t>853.4</t>
+        </is>
+      </c>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>1026 - 1046.6</t>
+          <t>821.2 - 831.2</t>
         </is>
       </c>
       <c r="G30" s="1" t="inlineStr">
         <is>
-          <t>21.5</t>
+          <t>11.9</t>
         </is>
       </c>
       <c r="H30" s="1" t="inlineStr">
         <is>
-          <t>10/14/10</t>
+          <t>2/6/09</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>R-38</t>
+          <t>R-41 S2</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>35.83783</t>
+          <t>35.83099</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>-106.24804</t>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
-        <is>
-          <t>12/7/08</t>
-        </is>
-      </c>
-      <c r="E31" s="1" t="inlineStr">
-        <is>
-          <t>853.4</t>
-        </is>
-      </c>
+          <t>-106.23381</t>
+        </is>
+      </c>
+      <c r="D31" s="1" t="inlineStr"/>
+      <c r="E31" s="1" t="inlineStr"/>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t>821.2 - 831.2</t>
+          <t>965.3 - 975</t>
         </is>
       </c>
       <c r="G31" s="1" t="inlineStr">
         <is>
-          <t>11.9</t>
+          <t>6.66</t>
         </is>
       </c>
       <c r="H31" s="1" t="inlineStr">
         <is>
-          <t>2/6/09</t>
+          <t>6/9/10</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>R-41 S2</t>
+          <t>R-42</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>35.83099</t>
+          <t>35.86129</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>-106.23381</t>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr"/>
-      <c r="E32" s="1" t="inlineStr"/>
+          <t>-106.25914</t>
+        </is>
+      </c>
+      <c r="D32" s="1" t="inlineStr">
+        <is>
+          <t>8/27/08</t>
+        </is>
+      </c>
+      <c r="E32" s="1" t="inlineStr">
+        <is>
+          <t>973.5</t>
+        </is>
+      </c>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>965.3 - 975</t>
+          <t>931.8 - 952.9</t>
         </is>
       </c>
       <c r="G32" s="1" t="inlineStr">
         <is>
-          <t>6.66</t>
+          <t>1270</t>
         </is>
       </c>
       <c r="H32" s="1" t="inlineStr">
         <is>
-          <t>6/9/10</t>
+          <t>11/10/10</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>R-42</t>
+          <t>R-44 S1</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>35.86129</t>
+          <t>35.85672</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>-106.25914</t>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
-        <is>
-          <t>8/27/08</t>
-        </is>
-      </c>
-      <c r="E33" s="1" t="inlineStr">
-        <is>
-          <t>973.5</t>
-        </is>
-      </c>
+          <t>-106.2512</t>
+        </is>
+      </c>
+      <c r="D33" s="1" t="inlineStr"/>
+      <c r="E33" s="1" t="inlineStr"/>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>931.8 - 952.9</t>
+          <t>895 - 905</t>
         </is>
       </c>
       <c r="G33" s="1" t="inlineStr">
         <is>
-          <t>1270</t>
+          <t>21.8</t>
         </is>
       </c>
       <c r="H33" s="1" t="inlineStr">
         <is>
-          <t>11/10/10</t>
+          <t>5/3/16</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>R-44 S1</t>
+          <t>R-44 S2</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
@@ -13081,58 +13073,58 @@
       <c r="E34" s="1" t="inlineStr"/>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>895 - 905</t>
+          <t>985.3 - 995.2</t>
         </is>
       </c>
       <c r="G34" s="1" t="inlineStr">
         <is>
-          <t>21.8</t>
+          <t>16.8</t>
         </is>
       </c>
       <c r="H34" s="1" t="inlineStr">
         <is>
-          <t>5/3/16</t>
+          <t>2/10/10</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>R-44 S2</t>
+          <t>R-45 S1</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>35.85672</t>
+          <t>35.85921</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>-106.2512</t>
+          <t>-106.25056</t>
         </is>
       </c>
       <c r="D35" s="1" t="inlineStr"/>
       <c r="E35" s="1" t="inlineStr"/>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>985.3 - 995.2</t>
+          <t>880 - 890</t>
         </is>
       </c>
       <c r="G35" s="1" t="inlineStr">
         <is>
-          <t>16.8</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="H35" s="1" t="inlineStr">
         <is>
-          <t>2/10/10</t>
+          <t>12/18/17</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>R-45 S1</t>
+          <t>R-45 S2</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
@@ -13149,100 +13141,100 @@
       <c r="E36" s="1" t="inlineStr"/>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>880 - 890</t>
+          <t>974.9 - 994.9</t>
         </is>
       </c>
       <c r="G36" s="1" t="inlineStr">
         <is>
-          <t>50.7</t>
+          <t>47.6</t>
         </is>
       </c>
       <c r="H36" s="1" t="inlineStr">
         <is>
-          <t>12/18/17</t>
+          <t>3/13/20</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>R-45 S2</t>
+          <t>R-46</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>35.85921</t>
+          <t>35.85966</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>-106.25056</t>
-        </is>
-      </c>
-      <c r="D37" s="1" t="inlineStr"/>
-      <c r="E37" s="1" t="inlineStr"/>
+          <t>-106.29382</t>
+        </is>
+      </c>
+      <c r="D37" s="1" t="inlineStr">
+        <is>
+          <t>2/26/09</t>
+        </is>
+      </c>
+      <c r="E37" s="1" t="inlineStr">
+        <is>
+          <t>1382.2</t>
+        </is>
+      </c>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>974.9 - 994.9</t>
+          <t>1340 - 1360.7</t>
         </is>
       </c>
       <c r="G37" s="1" t="inlineStr">
         <is>
-          <t>47.6</t>
+          <t>10.7</t>
         </is>
       </c>
       <c r="H37" s="1" t="inlineStr">
         <is>
-          <t>3/13/20</t>
+          <t>5/13/09</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>R-46</t>
+          <t>R-50 S1</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>35.85966</t>
+          <t>35.85666</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>-106.29382</t>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr">
-        <is>
-          <t>2/26/09</t>
-        </is>
-      </c>
-      <c r="E38" s="1" t="inlineStr">
-        <is>
-          <t>1382.2</t>
-        </is>
-      </c>
+          <t>-106.25591</t>
+        </is>
+      </c>
+      <c r="D38" s="1" t="inlineStr"/>
+      <c r="E38" s="1" t="inlineStr"/>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>1340 - 1360.7</t>
+          <t>1077 - 1087</t>
         </is>
       </c>
       <c r="G38" s="1" t="inlineStr">
         <is>
-          <t>10.7</t>
+          <t>150</t>
         </is>
       </c>
       <c r="H38" s="1" t="inlineStr">
         <is>
-          <t>5/13/09</t>
+          <t>10/26/17</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>R-50 S1</t>
+          <t>R-50 S2</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
@@ -13259,58 +13251,58 @@
       <c r="E39" s="1" t="inlineStr"/>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>1077 - 1087</t>
+          <t>1185 - 1205.6</t>
         </is>
       </c>
       <c r="G39" s="1" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>7.27</t>
         </is>
       </c>
       <c r="H39" s="1" t="inlineStr">
         <is>
-          <t>10/26/17</t>
+          <t>7/2/10</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>R-50 S2</t>
+          <t>R-52 S1</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>35.85666</t>
+          <t>35.84495</t>
         </is>
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>-106.25591</t>
+          <t>-106.26157</t>
         </is>
       </c>
       <c r="D40" s="1" t="inlineStr"/>
       <c r="E40" s="1" t="inlineStr"/>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>1185 - 1205.6</t>
+          <t>1035.2 - 1055.7</t>
         </is>
       </c>
       <c r="G40" s="1" t="inlineStr">
         <is>
-          <t>7.27</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H40" s="1" t="inlineStr">
         <is>
-          <t>7/2/10</t>
+          <t>5/2/10</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>R-52 S1</t>
+          <t>R-52 S2</t>
         </is>
       </c>
       <c r="B41" s="1" t="inlineStr">
@@ -13327,58 +13319,58 @@
       <c r="E41" s="1" t="inlineStr"/>
       <c r="F41" s="1" t="inlineStr">
         <is>
-          <t>1035.2 - 1055.7</t>
+          <t>1107 - 1117</t>
         </is>
       </c>
       <c r="G41" s="1" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>6.32</t>
         </is>
       </c>
       <c r="H41" s="1" t="inlineStr">
         <is>
-          <t>5/2/10</t>
+          <t>4/23/10</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>R-52 S2</t>
+          <t>R-53 S1</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>35.84495</t>
+          <t>35.8368</t>
         </is>
       </c>
       <c r="C42" s="1" t="inlineStr">
         <is>
-          <t>-106.26157</t>
+          <t>-106.25104</t>
         </is>
       </c>
       <c r="D42" s="1" t="inlineStr"/>
       <c r="E42" s="1" t="inlineStr"/>
       <c r="F42" s="1" t="inlineStr">
         <is>
-          <t>1107 - 1117</t>
+          <t>849.2 - 859.2</t>
         </is>
       </c>
       <c r="G42" s="1" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="H42" s="1" t="inlineStr">
         <is>
-          <t>4/23/10</t>
+          <t>10/12/10</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>R-53 S1</t>
+          <t>R-53 S2</t>
         </is>
       </c>
       <c r="B43" s="1" t="inlineStr">
@@ -13395,12 +13387,12 @@
       <c r="E43" s="1" t="inlineStr"/>
       <c r="F43" s="1" t="inlineStr">
         <is>
-          <t>849.2 - 859.2</t>
+          <t>959.7 - 980.2</t>
         </is>
       </c>
       <c r="G43" s="1" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="H43" s="1" t="inlineStr">
@@ -13412,41 +13404,41 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>R-53 S2</t>
+          <t>R-55 S1</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>35.8368</t>
+          <t>35.82969</t>
         </is>
       </c>
       <c r="C44" s="1" t="inlineStr">
         <is>
-          <t>-106.25104</t>
+          <t>-106.22751</t>
         </is>
       </c>
       <c r="D44" s="1" t="inlineStr"/>
       <c r="E44" s="1" t="inlineStr"/>
       <c r="F44" s="1" t="inlineStr">
         <is>
-          <t>959.7 - 980.2</t>
+          <t>860 - 880.6</t>
         </is>
       </c>
       <c r="G44" s="1" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H44" s="1" t="inlineStr">
         <is>
-          <t>10/12/10</t>
+          <t>10/28/11</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>R-55 S1</t>
+          <t>R-55 S2</t>
         </is>
       </c>
       <c r="B45" s="1" t="inlineStr">
@@ -13463,58 +13455,58 @@
       <c r="E45" s="1" t="inlineStr"/>
       <c r="F45" s="1" t="inlineStr">
         <is>
-          <t>860 - 880.6</t>
+          <t>994.4 - 1015.4</t>
         </is>
       </c>
       <c r="G45" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="H45" s="1" t="inlineStr">
         <is>
-          <t>10/28/11</t>
+          <t>9/14/10</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>R-55 S2</t>
+          <t>R-56 S1</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>35.82969</t>
+          <t>35.83456</t>
         </is>
       </c>
       <c r="C46" s="1" t="inlineStr">
         <is>
-          <t>-106.22751</t>
+          <t>-106.24969</t>
         </is>
       </c>
       <c r="D46" s="1" t="inlineStr"/>
       <c r="E46" s="1" t="inlineStr"/>
       <c r="F46" s="1" t="inlineStr">
         <is>
-          <t>994.4 - 1015.4</t>
+          <t>945 - 965.6</t>
         </is>
       </c>
       <c r="G46" s="1" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>2.6603</t>
         </is>
       </c>
       <c r="H46" s="1" t="inlineStr">
         <is>
-          <t>9/14/10</t>
+          <t>7/20/11</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>R-56 S1</t>
+          <t>R-56 S2</t>
         </is>
       </c>
       <c r="B47" s="1" t="inlineStr">
@@ -13531,58 +13523,58 @@
       <c r="E47" s="1" t="inlineStr"/>
       <c r="F47" s="1" t="inlineStr">
         <is>
-          <t>945 - 965.6</t>
+          <t>1046.6 - 1067.1</t>
         </is>
       </c>
       <c r="G47" s="1" t="inlineStr">
         <is>
-          <t>2.6603</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="H47" s="1" t="inlineStr">
         <is>
-          <t>7/20/11</t>
+          <t>8/13/10</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>R-56 S2</t>
+          <t>R-57 S1</t>
         </is>
       </c>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>35.83456</t>
+          <t>35.82987</t>
         </is>
       </c>
       <c r="C48" s="1" t="inlineStr">
         <is>
-          <t>-106.24969</t>
+          <t>-106.23417</t>
         </is>
       </c>
       <c r="D48" s="1" t="inlineStr"/>
       <c r="E48" s="1" t="inlineStr"/>
       <c r="F48" s="1" t="inlineStr">
         <is>
-          <t>1046.6 - 1067.1</t>
+          <t>910 - 930.5</t>
         </is>
       </c>
       <c r="G48" s="1" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="H48" s="1" t="inlineStr">
         <is>
-          <t>8/13/10</t>
+          <t>7/13/11</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>R-57 S1</t>
+          <t>R-57 S2</t>
         </is>
       </c>
       <c r="B49" s="1" t="inlineStr">
@@ -13599,12 +13591,12 @@
       <c r="E49" s="1" t="inlineStr"/>
       <c r="F49" s="1" t="inlineStr">
         <is>
-          <t>910 - 930.5</t>
+          <t>971.5 - 992.1</t>
         </is>
       </c>
       <c r="G49" s="1" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>6.81</t>
         </is>
       </c>
       <c r="H49" s="1" t="inlineStr">
@@ -13616,621 +13608,621 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>R-57 S2</t>
+          <t>R-60</t>
         </is>
       </c>
       <c r="B50" s="1" t="inlineStr">
         <is>
-          <t>35.82987</t>
+          <t>35.86057</t>
         </is>
       </c>
       <c r="C50" s="1" t="inlineStr">
         <is>
-          <t>-106.23417</t>
-        </is>
-      </c>
-      <c r="D50" s="1" t="inlineStr"/>
-      <c r="E50" s="1" t="inlineStr"/>
+          <t>-106.29618</t>
+        </is>
+      </c>
+      <c r="D50" s="1" t="inlineStr">
+        <is>
+          <t>10/18/10</t>
+        </is>
+      </c>
+      <c r="E50" s="1" t="inlineStr">
+        <is>
+          <t>1360.9</t>
+        </is>
+      </c>
       <c r="F50" s="1" t="inlineStr">
         <is>
-          <t>971.5 - 992.1</t>
+          <t>1330 - 1350.9</t>
         </is>
       </c>
       <c r="G50" s="1" t="inlineStr">
         <is>
-          <t>6.81</t>
+          <t>7.91</t>
         </is>
       </c>
       <c r="H50" s="1" t="inlineStr">
         <is>
-          <t>7/13/11</t>
+          <t>12/16/10</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>R-60</t>
+          <t>R-61 S1</t>
         </is>
       </c>
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>35.86057</t>
+          <t>35.85758</t>
         </is>
       </c>
       <c r="C51" s="1" t="inlineStr">
         <is>
-          <t>-106.29618</t>
-        </is>
-      </c>
-      <c r="D51" s="1" t="inlineStr">
-        <is>
-          <t>10/18/10</t>
-        </is>
-      </c>
-      <c r="E51" s="1" t="inlineStr">
-        <is>
-          <t>1360.9</t>
-        </is>
-      </c>
+          <t>-106.2612</t>
+        </is>
+      </c>
+      <c r="D51" s="1" t="inlineStr"/>
+      <c r="E51" s="1" t="inlineStr"/>
       <c r="F51" s="1" t="inlineStr">
         <is>
-          <t>1330 - 1350.9</t>
+          <t>1125 - 1135</t>
         </is>
       </c>
       <c r="G51" s="1" t="inlineStr">
         <is>
-          <t>7.91</t>
+          <t>39.1</t>
         </is>
       </c>
       <c r="H51" s="1" t="inlineStr">
         <is>
-          <t>12/16/10</t>
+          <t>6/6/19</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>R-61 S1</t>
+          <t>R-62</t>
         </is>
       </c>
       <c r="B52" s="1" t="inlineStr">
         <is>
-          <t>35.85758</t>
+          <t>35.86312</t>
         </is>
       </c>
       <c r="C52" s="1" t="inlineStr">
         <is>
-          <t>-106.2612</t>
-        </is>
-      </c>
-      <c r="D52" s="1" t="inlineStr"/>
-      <c r="E52" s="1" t="inlineStr"/>
+          <t>-106.26647</t>
+        </is>
+      </c>
+      <c r="D52" s="1" t="inlineStr">
+        <is>
+          <t>10/3/11</t>
+        </is>
+      </c>
+      <c r="E52" s="1" t="inlineStr">
+        <is>
+          <t>1189.7</t>
+        </is>
+      </c>
       <c r="F52" s="1" t="inlineStr">
         <is>
-          <t>1125 - 1135</t>
+          <t>1158.4 - 1179.1</t>
         </is>
       </c>
       <c r="G52" s="1" t="inlineStr">
         <is>
-          <t>39.1</t>
+          <t>322</t>
         </is>
       </c>
       <c r="H52" s="1" t="inlineStr">
         <is>
-          <t>6/6/19</t>
+          <t>2/21/17</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>R-62</t>
+          <t>SIMR-2</t>
         </is>
       </c>
       <c r="B53" s="1" t="inlineStr">
         <is>
-          <t>35.86312</t>
+          <t>35.85399</t>
         </is>
       </c>
       <c r="C53" s="1" t="inlineStr">
         <is>
-          <t>-106.26647</t>
+          <t>-106.25103</t>
         </is>
       </c>
       <c r="D53" s="1" t="inlineStr">
         <is>
-          <t>10/3/11</t>
+          <t>6/16/15</t>
         </is>
       </c>
       <c r="E53" s="1" t="inlineStr">
         <is>
-          <t>1189.7</t>
+          <t>927</t>
         </is>
       </c>
       <c r="F53" s="1" t="inlineStr">
         <is>
-          <t>1158.4 - 1179.1</t>
+          <t>885 - 905.4</t>
         </is>
       </c>
       <c r="G53" s="1" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>9.41</t>
         </is>
       </c>
       <c r="H53" s="1" t="inlineStr">
         <is>
-          <t>2/21/17</t>
+          <t>11/15/17</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>SIMR-2</t>
-        </is>
-      </c>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>35.85399</t>
-        </is>
-      </c>
-      <c r="C54" s="1" t="inlineStr">
-        <is>
-          <t>-106.25103</t>
-        </is>
-      </c>
-      <c r="D54" s="1" t="inlineStr">
-        <is>
-          <t>6/16/15</t>
-        </is>
-      </c>
-      <c r="E54" s="1" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="F54" s="1" t="inlineStr">
-        <is>
-          <t>885 - 905.4</t>
-        </is>
-      </c>
-      <c r="G54" s="1" t="inlineStr">
-        <is>
-          <t>9.41</t>
-        </is>
-      </c>
-      <c r="H54" s="1" t="inlineStr">
-        <is>
-          <t>11/15/17</t>
-        </is>
-      </c>
+      <c r="A54" s="4" t="inlineStr">
+        <is>
+          <t>Los Alamos Canyon</t>
+        </is>
+      </c>
+      <c r="H54" s="5" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="4" t="inlineStr">
-        <is>
-          <t>Los Alamos and Pajarito Canyons</t>
-        </is>
-      </c>
-      <c r="H55" s="5" t="n"/>
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>O-1</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="inlineStr">
+        <is>
+          <t>35.87079</t>
+        </is>
+      </c>
+      <c r="C55" s="1" t="inlineStr">
+        <is>
+          <t>-106.21969</t>
+        </is>
+      </c>
+      <c r="D55" s="1" t="inlineStr">
+        <is>
+          <t>8/1/90</t>
+        </is>
+      </c>
+      <c r="E55" s="1" t="inlineStr">
+        <is>
+          <t>2497</t>
+        </is>
+      </c>
+      <c r="F55" s="1" t="inlineStr">
+        <is>
+          <t>1017 - 2477</t>
+        </is>
+      </c>
+      <c r="G55" s="1" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H55" s="1" t="inlineStr">
+        <is>
+          <t>6/2/16</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>O-1</t>
+          <t>O-4</t>
         </is>
       </c>
       <c r="B56" s="1" t="inlineStr">
         <is>
-          <t>35.87079</t>
+          <t>35.87288</t>
         </is>
       </c>
       <c r="C56" s="1" t="inlineStr">
         <is>
-          <t>-106.21969</t>
+          <t>-106.26039</t>
         </is>
       </c>
       <c r="D56" s="1" t="inlineStr">
         <is>
-          <t>8/1/90</t>
+          <t>3/1/90</t>
         </is>
       </c>
       <c r="E56" s="1" t="inlineStr">
         <is>
-          <t>2497</t>
+          <t>2617</t>
         </is>
       </c>
       <c r="F56" s="1" t="inlineStr">
         <is>
-          <t>1017 - 2477</t>
+          <t>1115 - 2596</t>
         </is>
       </c>
       <c r="G56" s="1" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7.61</t>
         </is>
       </c>
       <c r="H56" s="1" t="inlineStr">
         <is>
-          <t>6/2/16</t>
+          <t>8/28/12</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>O-4</t>
+          <t>R-2</t>
         </is>
       </c>
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>35.87288</t>
+          <t>35.8874</t>
         </is>
       </c>
       <c r="C57" s="1" t="inlineStr">
         <is>
-          <t>-106.26039</t>
+          <t>-106.28679</t>
         </is>
       </c>
       <c r="D57" s="1" t="inlineStr">
         <is>
-          <t>3/1/90</t>
+          <t>10/28/03</t>
         </is>
       </c>
       <c r="E57" s="1" t="inlineStr">
         <is>
-          <t>2617</t>
+          <t>943.3</t>
         </is>
       </c>
       <c r="F57" s="1" t="inlineStr">
         <is>
-          <t>1115 - 2596</t>
+          <t>906.4 - 929.6</t>
         </is>
       </c>
       <c r="G57" s="1" t="inlineStr">
         <is>
-          <t>7.61</t>
+          <t>25.9</t>
         </is>
       </c>
       <c r="H57" s="1" t="inlineStr">
         <is>
-          <t>8/28/12</t>
+          <t>1/11/08</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>R-2</t>
+          <t>R-24</t>
         </is>
       </c>
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>35.8874</t>
+          <t>35.88551</t>
         </is>
       </c>
       <c r="C58" s="1" t="inlineStr">
         <is>
-          <t>-106.28679</t>
+          <t>-106.23941</t>
         </is>
       </c>
       <c r="D58" s="1" t="inlineStr">
         <is>
-          <t>10/28/03</t>
+          <t>9/12/05</t>
         </is>
       </c>
       <c r="E58" s="1" t="inlineStr">
         <is>
-          <t>943.3</t>
+          <t>861</t>
         </is>
       </c>
       <c r="F58" s="1" t="inlineStr">
         <is>
-          <t>906.4 - 929.6</t>
+          <t>825 - 848</t>
         </is>
       </c>
       <c r="G58" s="1" t="inlineStr">
         <is>
-          <t>25.9</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="H58" s="1" t="inlineStr">
         <is>
-          <t>1/11/08</t>
+          <t>9/20/05</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>R-24</t>
+          <t>R-3</t>
         </is>
       </c>
       <c r="B59" s="1" t="inlineStr">
         <is>
-          <t>35.88551</t>
+          <t>35.87179</t>
         </is>
       </c>
       <c r="C59" s="1" t="inlineStr">
         <is>
-          <t>-106.23941</t>
+          <t>-106.2209</t>
         </is>
       </c>
       <c r="D59" s="1" t="inlineStr">
         <is>
-          <t>9/12/05</t>
+          <t>6/21/10</t>
         </is>
       </c>
       <c r="E59" s="1" t="inlineStr">
         <is>
-          <t>861</t>
+          <t>1006.8</t>
         </is>
       </c>
       <c r="F59" s="1" t="inlineStr">
         <is>
-          <t>825 - 848</t>
+          <t>974.5 - 995</t>
         </is>
       </c>
       <c r="G59" s="1" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>27.7622</t>
         </is>
       </c>
       <c r="H59" s="1" t="inlineStr">
         <is>
-          <t>9/20/05</t>
+          <t>5/12/10</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>R-3</t>
+          <t>R-4</t>
         </is>
       </c>
       <c r="B60" s="1" t="inlineStr">
         <is>
-          <t>35.87179</t>
+          <t>35.8826</t>
         </is>
       </c>
       <c r="C60" s="1" t="inlineStr">
         <is>
-          <t>-106.2209</t>
+          <t>-106.25381</t>
         </is>
       </c>
       <c r="D60" s="1" t="inlineStr">
         <is>
-          <t>6/21/10</t>
+          <t>1/6/04</t>
         </is>
       </c>
       <c r="E60" s="1" t="inlineStr">
         <is>
-          <t>1006.8</t>
+          <t>840</t>
         </is>
       </c>
       <c r="F60" s="1" t="inlineStr">
         <is>
-          <t>974.5 - 995</t>
+          <t>792.9 - 816</t>
         </is>
       </c>
       <c r="G60" s="1" t="inlineStr">
         <is>
-          <t>27.7622</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="H60" s="1" t="inlineStr">
         <is>
-          <t>5/12/10</t>
+          <t>7/16/09</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>R-4</t>
+          <t>R-5 S3</t>
         </is>
       </c>
       <c r="B61" s="1" t="inlineStr">
         <is>
-          <t>35.8826</t>
+          <t>35.87307</t>
         </is>
       </c>
       <c r="C61" s="1" t="inlineStr">
         <is>
-          <t>-106.25381</t>
-        </is>
-      </c>
-      <c r="D61" s="1" t="inlineStr">
-        <is>
-          <t>1/6/04</t>
-        </is>
-      </c>
-      <c r="E61" s="1" t="inlineStr">
-        <is>
-          <t>840</t>
-        </is>
-      </c>
+          <t>-106.22877</t>
+        </is>
+      </c>
+      <c r="D61" s="1" t="inlineStr"/>
+      <c r="E61" s="1" t="inlineStr"/>
       <c r="F61" s="1" t="inlineStr">
         <is>
-          <t>792.9 - 816</t>
+          <t>676.9 - 720.3</t>
         </is>
       </c>
       <c r="G61" s="1" t="inlineStr">
         <is>
-          <t>8.05</t>
+          <t>17.1</t>
         </is>
       </c>
       <c r="H61" s="1" t="inlineStr">
         <is>
-          <t>7/16/09</t>
+          <t>4/18/07</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>R-5 S3</t>
+          <t>R-6</t>
         </is>
       </c>
       <c r="B62" s="1" t="inlineStr">
         <is>
-          <t>35.87307</t>
+          <t>35.87533</t>
         </is>
       </c>
       <c r="C62" s="1" t="inlineStr">
         <is>
-          <t>-106.22877</t>
-        </is>
-      </c>
-      <c r="D62" s="1" t="inlineStr"/>
-      <c r="E62" s="1" t="inlineStr"/>
+          <t>-106.26487</t>
+        </is>
+      </c>
+      <c r="D62" s="1" t="inlineStr">
+        <is>
+          <t>12/4/04</t>
+        </is>
+      </c>
+      <c r="E62" s="1" t="inlineStr">
+        <is>
+          <t>1252</t>
+        </is>
+      </c>
       <c r="F62" s="1" t="inlineStr">
         <is>
-          <t>676.9 - 720.3</t>
+          <t>1205 - 1228</t>
         </is>
       </c>
       <c r="G62" s="1" t="inlineStr">
         <is>
-          <t>17.1</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="H62" s="1" t="inlineStr">
         <is>
-          <t>4/18/07</t>
+          <t>8/27/12</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>R-6</t>
+          <t>R-64</t>
         </is>
       </c>
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>35.87533</t>
+          <t>35.8772</t>
         </is>
       </c>
       <c r="C63" s="1" t="inlineStr">
         <is>
-          <t>-106.26487</t>
+          <t>-106.27541</t>
         </is>
       </c>
       <c r="D63" s="1" t="inlineStr">
         <is>
-          <t>12/4/04</t>
+          <t>7/11/11</t>
         </is>
       </c>
       <c r="E63" s="1" t="inlineStr">
         <is>
-          <t>1252</t>
+          <t>1316.1</t>
         </is>
       </c>
       <c r="F63" s="1" t="inlineStr">
         <is>
-          <t>1205 - 1228</t>
+          <t>1285 - 1305.5</t>
         </is>
       </c>
       <c r="G63" s="1" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>6.22</t>
         </is>
       </c>
       <c r="H63" s="1" t="inlineStr">
         <is>
-          <t>8/27/12</t>
+          <t>8/29/16</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>R-64</t>
+          <t>R-66</t>
         </is>
       </c>
       <c r="B64" s="1" t="inlineStr">
         <is>
-          <t>35.8772</t>
+          <t>35.87309</t>
         </is>
       </c>
       <c r="C64" s="1" t="inlineStr">
         <is>
-          <t>-106.27541</t>
+          <t>-106.25987</t>
         </is>
       </c>
       <c r="D64" s="1" t="inlineStr">
         <is>
-          <t>7/11/11</t>
+          <t>11/16/11</t>
         </is>
       </c>
       <c r="E64" s="1" t="inlineStr">
         <is>
-          <t>1316.1</t>
+          <t>849.8</t>
         </is>
       </c>
       <c r="F64" s="1" t="inlineStr">
         <is>
-          <t>1285 - 1305.5</t>
+          <t>819.4 - 839.7</t>
         </is>
       </c>
       <c r="G64" s="1" t="inlineStr">
         <is>
-          <t>6.22</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="H64" s="1" t="inlineStr">
         <is>
-          <t>8/29/16</t>
+          <t>2/6/14</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>R-66</t>
+          <t>R-8 S1</t>
         </is>
       </c>
       <c r="B65" s="1" t="inlineStr">
         <is>
-          <t>35.87309</t>
+          <t>35.87168</t>
         </is>
       </c>
       <c r="C65" s="1" t="inlineStr">
         <is>
-          <t>-106.25987</t>
-        </is>
-      </c>
-      <c r="D65" s="1" t="inlineStr">
-        <is>
-          <t>11/16/11</t>
-        </is>
-      </c>
-      <c r="E65" s="1" t="inlineStr">
-        <is>
-          <t>849.8</t>
-        </is>
-      </c>
+          <t>-106.24756</t>
+        </is>
+      </c>
+      <c r="D65" s="1" t="inlineStr"/>
+      <c r="E65" s="1" t="inlineStr"/>
       <c r="F65" s="1" t="inlineStr">
         <is>
-          <t>819.4 - 839.7</t>
+          <t>705.31 - 755.7</t>
         </is>
       </c>
       <c r="G65" s="1" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>10.9</t>
         </is>
       </c>
       <c r="H65" s="1" t="inlineStr">
         <is>
-          <t>2/6/14</t>
+          <t>12/8/04</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>R-8 S1</t>
+          <t>R-8 S2</t>
         </is>
       </c>
       <c r="B66" s="1" t="inlineStr">
@@ -14247,7 +14239,7 @@
       <c r="E66" s="1" t="inlineStr"/>
       <c r="F66" s="1" t="inlineStr">
         <is>
-          <t>705.31 - 755.7</t>
+          <t>821 - 828</t>
         </is>
       </c>
       <c r="G66" s="1" t="inlineStr">
@@ -14257,85 +14249,59 @@
       </c>
       <c r="H66" s="1" t="inlineStr">
         <is>
-          <t>12/8/04</t>
+          <t>8/25/04</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>R-8 S2</t>
+          <t>R-9</t>
         </is>
       </c>
       <c r="B67" s="1" t="inlineStr">
         <is>
-          <t>35.87168</t>
+          <t>35.86698</t>
         </is>
       </c>
       <c r="C67" s="1" t="inlineStr">
         <is>
-          <t>-106.24756</t>
-        </is>
-      </c>
-      <c r="D67" s="1" t="inlineStr"/>
-      <c r="E67" s="1" t="inlineStr"/>
+          <t>-106.22361</t>
+        </is>
+      </c>
+      <c r="D67" s="1" t="inlineStr">
+        <is>
+          <t>10/18/99</t>
+        </is>
+      </c>
+      <c r="E67" s="1" t="inlineStr">
+        <is>
+          <t>758</t>
+        </is>
+      </c>
       <c r="F67" s="1" t="inlineStr">
         <is>
-          <t>821 - 828</t>
+          <t>683 - 748.5</t>
         </is>
       </c>
       <c r="G67" s="1" t="inlineStr">
         <is>
-          <t>10.9</t>
+          <t>2980</t>
         </is>
       </c>
       <c r="H67" s="1" t="inlineStr">
         <is>
-          <t>8/25/04</t>
+          <t>1/26/98</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>R-9</t>
-        </is>
-      </c>
-      <c r="B68" s="1" t="inlineStr">
-        <is>
-          <t>35.86698</t>
-        </is>
-      </c>
-      <c r="C68" s="1" t="inlineStr">
-        <is>
-          <t>-106.22361</t>
-        </is>
-      </c>
-      <c r="D68" s="1" t="inlineStr">
-        <is>
-          <t>10/18/99</t>
-        </is>
-      </c>
-      <c r="E68" s="1" t="inlineStr">
-        <is>
-          <t>758</t>
-        </is>
-      </c>
-      <c r="F68" s="1" t="inlineStr">
-        <is>
-          <t>683 - 748.5</t>
-        </is>
-      </c>
-      <c r="G68" s="1" t="inlineStr">
-        <is>
-          <t>2980</t>
-        </is>
-      </c>
-      <c r="H68" s="1" t="inlineStr">
-        <is>
-          <t>1/26/98</t>
-        </is>
-      </c>
+      <c r="A68" s="4" t="inlineStr">
+        <is>
+          <t>Pajarito Canyon</t>
+        </is>
+      </c>
+      <c r="H68" s="5" t="n"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -14586,151 +14552,159 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>R-32 S1</t>
+          <t>R-23</t>
         </is>
       </c>
       <c r="B76" s="1" t="inlineStr">
         <is>
-          <t>35.83095</t>
+          <t>35.8239</t>
         </is>
       </c>
       <c r="C76" s="1" t="inlineStr">
         <is>
-          <t>-106.24872</t>
-        </is>
-      </c>
-      <c r="D76" s="1" t="inlineStr"/>
-      <c r="E76" s="1" t="inlineStr"/>
+          <t>-106.22471</t>
+        </is>
+      </c>
+      <c r="D76" s="1" t="inlineStr">
+        <is>
+          <t>10/2/02</t>
+        </is>
+      </c>
+      <c r="E76" s="1" t="inlineStr">
+        <is>
+          <t>886.3</t>
+        </is>
+      </c>
       <c r="F76" s="1" t="inlineStr">
         <is>
-          <t>867.5 - 875.2</t>
+          <t>816 - 873.2</t>
         </is>
       </c>
       <c r="G76" s="1" t="inlineStr">
         <is>
-          <t>24.3</t>
+          <t>20.1</t>
         </is>
       </c>
       <c r="H76" s="1" t="inlineStr">
         <is>
-          <t>3/26/07</t>
+          <t>2/25/09</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>R-39</t>
+          <t>R-32 S1</t>
         </is>
       </c>
       <c r="B77" s="1" t="inlineStr">
         <is>
-          <t>35.82754</t>
+          <t>35.83095</t>
         </is>
       </c>
       <c r="C77" s="1" t="inlineStr">
         <is>
-          <t>-106.23455</t>
-        </is>
-      </c>
-      <c r="D77" s="1" t="inlineStr">
-        <is>
-          <t>11/24/08</t>
-        </is>
-      </c>
-      <c r="E77" s="1" t="inlineStr">
-        <is>
-          <t>875.6</t>
-        </is>
-      </c>
+          <t>-106.24872</t>
+        </is>
+      </c>
+      <c r="D77" s="1" t="inlineStr"/>
+      <c r="E77" s="1" t="inlineStr"/>
       <c r="F77" s="1" t="inlineStr">
         <is>
-          <t>859 - 869</t>
+          <t>867.5 - 875.2</t>
         </is>
       </c>
       <c r="G77" s="1" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>24.3</t>
         </is>
       </c>
       <c r="H77" s="1" t="inlineStr">
         <is>
-          <t>6/2/10</t>
+          <t>3/26/07</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>R-40 S2</t>
+          <t>R-39</t>
         </is>
       </c>
       <c r="B78" s="1" t="inlineStr">
         <is>
-          <t>35.83939</t>
+          <t>35.82754</t>
         </is>
       </c>
       <c r="C78" s="1" t="inlineStr">
         <is>
-          <t>-106.26278</t>
-        </is>
-      </c>
-      <c r="D78" s="1" t="inlineStr"/>
-      <c r="E78" s="1" t="inlineStr"/>
+          <t>-106.23455</t>
+        </is>
+      </c>
+      <c r="D78" s="1" t="inlineStr">
+        <is>
+          <t>11/24/08</t>
+        </is>
+      </c>
+      <c r="E78" s="1" t="inlineStr">
+        <is>
+          <t>875.6</t>
+        </is>
+      </c>
       <c r="F78" s="1" t="inlineStr">
         <is>
-          <t>849.27 - 870</t>
+          <t>859 - 869</t>
         </is>
       </c>
       <c r="G78" s="1" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="H78" s="1" t="inlineStr">
         <is>
-          <t>2/23/10</t>
+          <t>6/2/10</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>R-49 S1</t>
+          <t>R-40 S2</t>
         </is>
       </c>
       <c r="B79" s="1" t="inlineStr">
         <is>
-          <t>35.8273</t>
+          <t>35.83939</t>
         </is>
       </c>
       <c r="C79" s="1" t="inlineStr">
         <is>
-          <t>-106.23825</t>
+          <t>-106.26278</t>
         </is>
       </c>
       <c r="D79" s="1" t="inlineStr"/>
       <c r="E79" s="1" t="inlineStr"/>
       <c r="F79" s="1" t="inlineStr">
         <is>
-          <t>845 - 855</t>
+          <t>849.27 - 870</t>
         </is>
       </c>
       <c r="G79" s="1" t="inlineStr">
         <is>
-          <t>7.82</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="H79" s="1" t="inlineStr">
         <is>
-          <t>12/7/09</t>
+          <t>2/23/10</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>R-49 S2</t>
+          <t>R-49 S1</t>
         </is>
       </c>
       <c r="B80" s="1" t="inlineStr">
@@ -14747,58 +14721,58 @@
       <c r="E80" s="1" t="inlineStr"/>
       <c r="F80" s="1" t="inlineStr">
         <is>
-          <t>905.6 - 926.4</t>
+          <t>845 - 855</t>
         </is>
       </c>
       <c r="G80" s="1" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>7.82</t>
         </is>
       </c>
       <c r="H80" s="1" t="inlineStr">
         <is>
-          <t>6/9/10</t>
+          <t>12/7/09</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>R-51 S1</t>
+          <t>R-49 S2</t>
         </is>
       </c>
       <c r="B81" s="1" t="inlineStr">
         <is>
-          <t>35.84263</t>
+          <t>35.8273</t>
         </is>
       </c>
       <c r="C81" s="1" t="inlineStr">
         <is>
-          <t>-106.26934</t>
+          <t>-106.23825</t>
         </is>
       </c>
       <c r="D81" s="1" t="inlineStr"/>
       <c r="E81" s="1" t="inlineStr"/>
       <c r="F81" s="1" t="inlineStr">
         <is>
-          <t>914.96 - 925.24</t>
+          <t>905.6 - 926.4</t>
         </is>
       </c>
       <c r="G81" s="1" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="H81" s="1" t="inlineStr">
         <is>
-          <t>7/26/10</t>
+          <t>6/9/10</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>R-51 S2</t>
+          <t>R-51 S1</t>
         </is>
       </c>
       <c r="B82" s="1" t="inlineStr">
@@ -14815,60 +14789,95 @@
       <c r="E82" s="1" t="inlineStr"/>
       <c r="F82" s="1" t="inlineStr">
         <is>
-          <t>1030.96 - 1041</t>
+          <t>914.96 - 925.24</t>
         </is>
       </c>
       <c r="G82" s="1" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="H82" s="1" t="inlineStr">
         <is>
-          <t>6/18/10</t>
+          <t>7/26/10</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>R-54 S2</t>
+          <t>R-51 S2</t>
         </is>
       </c>
       <c r="B83" s="1" t="inlineStr">
         <is>
-          <t>35.83609</t>
+          <t>35.84263</t>
         </is>
       </c>
       <c r="C83" s="1" t="inlineStr">
         <is>
-          <t>-106.25544</t>
+          <t>-106.26934</t>
         </is>
       </c>
       <c r="D83" s="1" t="inlineStr"/>
       <c r="E83" s="1" t="inlineStr"/>
       <c r="F83" s="1" t="inlineStr">
         <is>
+          <t>1030.96 - 1041</t>
+        </is>
+      </c>
+      <c r="G83" s="1" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="H83" s="1" t="inlineStr">
+        <is>
+          <t>6/18/10</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>R-54 S2</t>
+        </is>
+      </c>
+      <c r="B84" s="1" t="inlineStr">
+        <is>
+          <t>35.83609</t>
+        </is>
+      </c>
+      <c r="C84" s="1" t="inlineStr">
+        <is>
+          <t>-106.25544</t>
+        </is>
+      </c>
+      <c r="D84" s="1" t="inlineStr"/>
+      <c r="E84" s="1" t="inlineStr"/>
+      <c r="F84" s="1" t="inlineStr">
+        <is>
           <t>915 - 925</t>
         </is>
       </c>
-      <c r="G83" s="1" t="inlineStr">
+      <c r="G84" s="1" t="inlineStr">
         <is>
           <t>9.03</t>
         </is>
       </c>
-      <c r="H83" s="1" t="inlineStr">
+      <c r="H84" s="1" t="inlineStr">
         <is>
           <t>10/21/19</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A68:H68"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
